--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="22" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="27" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1141">
   <si>
     <t>Description</t>
   </si>
@@ -3463,9 +3463,6 @@
     <t>15969.85</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>Template Number</t>
   </si>
   <si>
@@ -3481,22 +3478,19 @@
     <t>2/05/2020</t>
   </si>
   <si>
-    <t>1307100147</t>
-  </si>
-  <si>
     <t>2/04/2020</t>
   </si>
   <si>
-    <t>130710010B</t>
-  </si>
-  <si>
     <t>Invoice Journal NO</t>
   </si>
   <si>
-    <t>1307100358</t>
-  </si>
-  <si>
     <t>Vendor Invoice NO</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>130710010C</t>
   </si>
 </sst>
 </file>
@@ -6540,7 +6534,7 @@
   <dimension ref="A1:FK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6751,9 +6745,7 @@
       <c r="A2" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="65">
-        <v>1307200446</v>
-      </c>
+      <c r="C2" s="65"/>
       <c r="E2" s="65"/>
       <c r="F2" s="66"/>
       <c r="G2" s="66"/>
@@ -6775,24 +6767,15 @@
       <c r="A5" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>1137</v>
-      </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -6843,7 +6826,7 @@
         <v>456</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +6877,7 @@
         <v>456</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -7137,7 +7120,7 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:K2"/>
     </sheetView>
   </sheetViews>
@@ -8980,7 +8963,7 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -9004,7 +8987,7 @@
         <v>473</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>463</v>
@@ -9046,16 +9029,16 @@
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="66" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -13093,7 +13076,7 @@
         <v>257</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>141</v>
@@ -13221,7 +13204,7 @@
         <v>1307</v>
       </c>
       <c r="C2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
@@ -13519,7 +13502,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13550,7 +13533,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="C3" s="30"/>
     </row>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="30" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="38" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1157">
   <si>
     <t>Description</t>
   </si>
@@ -7430,10 +7430,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7446,8 +7446,8 @@
       <c r="A1" t="s">
         <v>455</v>
       </c>
-      <c r="B1" t="s">
-        <v>206</v>
+      <c r="B1">
+        <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7504,14 +7504,6 @@
       </c>
       <c r="B8" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>526</v>
-      </c>
-      <c r="B9" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -7528,7 +7520,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7543,8 +7535,8 @@
       <c r="A1" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
-        <v>212</v>
+      <c r="B1">
+        <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9164,8 +9156,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9231,11 +9223,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>5</v>
+      <c r="A1" t="s">
+        <v>455</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9389,8 +9381,8 @@
       <c r="A1" t="s">
         <v>455</v>
       </c>
-      <c r="B1" t="s">
-        <v>216</v>
+      <c r="B1">
+        <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9520,10 +9512,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9536,7 +9528,7 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>455</v>
       </c>
@@ -9570,13 +9562,10 @@
       <c r="K1" t="s">
         <v>547</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>75</v>
@@ -9607,9 +9596,6 @@
       </c>
       <c r="K2">
         <v>1000</v>
-      </c>
-      <c r="L2" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="38" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1153">
   <si>
     <t>Description</t>
   </si>
@@ -612,19 +612,7 @@
     <t>样品和产品</t>
   </si>
   <si>
-    <t>E1005</t>
-  </si>
-  <si>
-    <t>动画</t>
-  </si>
-  <si>
     <t>代理费</t>
-  </si>
-  <si>
-    <t>E1009</t>
-  </si>
-  <si>
-    <t>艺术家费用</t>
   </si>
   <si>
     <t>Username</t>
@@ -4323,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -4424,28 +4412,28 @@
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>308</v>
-      </c>
       <c r="F2" s="25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4456,25 +4444,25 @@
         <v>26</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4514,22 +4502,22 @@
         <v>1307</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I5" s="70">
         <v>1321</v>
@@ -4543,25 +4531,25 @@
         <v>65</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4601,25 +4589,25 @@
         <v>30</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4627,28 +4615,28 @@
         <v>31</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D9" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>308</v>
-      </c>
       <c r="F9" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4714,28 +4702,28 @@
         <v>36</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4743,25 +4731,25 @@
         <v>37</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I13" s="71" t="s">
         <v>68</v>
@@ -4775,25 +4763,25 @@
         <v>67</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4804,22 +4792,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>9</v>
@@ -4833,25 +4821,25 @@
         <v>69</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4859,25 +4847,25 @@
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I17" s="54">
         <v>13219505</v>
@@ -4888,25 +4876,25 @@
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I18" s="54">
         <v>13219505</v>
@@ -4917,28 +4905,28 @@
         <v>42</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -4946,28 +4934,28 @@
         <v>55</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5074,7 +5062,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5087,10 +5075,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5114,7 +5102,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5122,7 +5110,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5199,31 +5187,31 @@
         <v>24</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E2" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>308</v>
-      </c>
       <c r="G2" s="25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5237,25 +5225,25 @@
         <v>26</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5301,22 +5289,22 @@
         <v>1203</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J5" s="70">
         <v>1321</v>
@@ -5330,28 +5318,28 @@
         <v>65</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5397,25 +5385,25 @@
         <v>30</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5423,31 +5411,31 @@
         <v>31</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E9" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>308</v>
-      </c>
       <c r="G9" s="22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5519,31 +5507,31 @@
         <v>36</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5551,28 +5539,28 @@
         <v>37</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J13" s="71" t="s">
         <v>68</v>
@@ -5586,28 +5574,28 @@
         <v>67</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5621,22 +5609,22 @@
         <v>9</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>9</v>
@@ -5650,28 +5638,28 @@
         <v>69</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5679,28 +5667,28 @@
         <v>40</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J17" s="54">
         <v>13219505</v>
@@ -5711,28 +5699,28 @@
         <v>41</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J18" s="54">
         <v>13219505</v>
@@ -5743,31 +5731,31 @@
         <v>42</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -5775,31 +5763,31 @@
         <v>55</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J20" s="62" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5903,31 +5891,31 @@
         <v>51</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5935,31 +5923,31 @@
         <v>52</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5967,7 +5955,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -6020,7 +6008,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B2">
         <v>120310019</v>
@@ -6031,7 +6019,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6039,7 +6027,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6047,7 +6035,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6055,7 +6043,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6071,7 +6059,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6095,7 +6083,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6152,7 +6140,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6173,10 +6161,10 @@
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6200,7 +6188,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6235,55 +6223,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>77</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>138</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>81</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>142</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M1" s="30" t="s">
         <v>85</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>146</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6291,52 +6279,52 @@
         <v>1307</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="K2" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="N2" s="30" t="s">
         <v>509</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="I2" s="30" t="s">
+      <c r="O2" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="P2" s="30" t="s">
         <v>510</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="Q2" s="30" t="s">
         <v>511</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -6372,18 +6360,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -6411,7 +6399,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>75</v>
@@ -6419,10 +6407,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6430,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -6461,22 +6449,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6490,13 +6478,13 @@
         <v>1307700041</v>
       </c>
       <c r="D2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -6540,7 +6528,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B3">
         <v>1307700044</v>
@@ -6574,7 +6562,7 @@
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B1" s="14">
         <v>1201</v>
@@ -6769,7 +6757,7 @@
     </row>
     <row r="2" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C2" s="64"/>
       <c r="E2" s="64"/>
@@ -6781,27 +6769,27 @@
     </row>
     <row r="3" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
@@ -6837,7 +6825,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B2" s="30"/>
     </row>
@@ -6849,10 +6837,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
@@ -6888,7 +6876,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B2" s="30"/>
     </row>
@@ -6900,10 +6888,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
@@ -6974,10 +6962,10 @@
         <v>76</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>136</v>
@@ -6989,7 +6977,7 @@
         <v>138</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>140</v>
@@ -7001,7 +6989,7 @@
         <v>142</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>144</v>
@@ -7013,7 +7001,7 @@
         <v>146</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>148</v>
@@ -7025,7 +7013,7 @@
         <v>150</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>152</v>
@@ -7037,7 +7025,7 @@
         <v>154</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="X1" s="27" t="s">
         <v>156</v>
@@ -7049,7 +7037,7 @@
         <v>158</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>160</v>
@@ -7061,7 +7049,7 @@
         <v>162</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AF1" s="27" t="s">
         <v>164</v>
@@ -7073,7 +7061,7 @@
         <v>166</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AJ1" s="27" t="s">
         <v>168</v>
@@ -7085,7 +7073,7 @@
         <v>170</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>172</v>
@@ -7097,7 +7085,7 @@
         <v>174</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -7105,7 +7093,7 @@
         <v>1307</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" t="s">
@@ -7124,7 +7112,7 @@
         <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -7192,10 +7180,10 @@
         <v>76</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>136</v>
@@ -7207,7 +7195,7 @@
         <v>138</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>140</v>
@@ -7219,7 +7207,7 @@
         <v>142</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>144</v>
@@ -7231,7 +7219,7 @@
         <v>146</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>148</v>
@@ -7243,7 +7231,7 @@
         <v>150</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="T1" s="27" t="s">
         <v>152</v>
@@ -7255,7 +7243,7 @@
         <v>154</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="X1" s="27" t="s">
         <v>156</v>
@@ -7267,7 +7255,7 @@
         <v>158</v>
       </c>
       <c r="AA1" s="27" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AB1" s="27" t="s">
         <v>160</v>
@@ -7279,7 +7267,7 @@
         <v>162</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AF1" s="27" t="s">
         <v>164</v>
@@ -7291,7 +7279,7 @@
         <v>166</v>
       </c>
       <c r="AI1" s="27" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AJ1" s="27" t="s">
         <v>168</v>
@@ -7303,7 +7291,7 @@
         <v>170</v>
       </c>
       <c r="AM1" s="27" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AN1" s="27" t="s">
         <v>172</v>
@@ -7315,7 +7303,7 @@
         <v>174</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
@@ -7323,10 +7311,10 @@
         <v>1307</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D2" t="s">
         <v>177</v>
@@ -7374,10 +7362,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -7413,10 +7401,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
   </sheetData>
@@ -7444,7 +7432,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1">
         <v>1307</v>
@@ -7452,10 +7440,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7463,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7484,7 +7472,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B6" s="97">
         <v>43867</v>
@@ -7492,7 +7480,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B7">
         <v>3500</v>
@@ -7500,10 +7488,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -7541,34 +7529,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7600,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -7620,34 +7608,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -7683,42 +7671,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -7745,15 +7733,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B2" s="30">
         <v>83.62</v>
@@ -7761,7 +7749,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="B3" s="30">
         <v>1.39</v>
@@ -7769,7 +7757,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B4" s="30">
         <v>4.72</v>
@@ -7777,7 +7765,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B5" s="30">
         <v>323363078.55000001</v>
@@ -7785,7 +7773,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B6" s="30">
         <v>323325.90999999997</v>
@@ -7793,7 +7781,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B7" s="30">
         <v>1.1100000000000001</v>
@@ -7801,7 +7789,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B8" s="30">
         <v>1.24</v>
@@ -7809,7 +7797,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B9" s="30">
         <v>4.55</v>
@@ -7817,7 +7805,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B10" s="30">
         <v>135.61000000000001</v>
@@ -7825,7 +7813,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B11" s="30">
         <v>589.11</v>
@@ -7833,7 +7821,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B12" s="30">
         <v>2.19</v>
@@ -7841,7 +7829,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B13" s="30">
         <v>430.35</v>
@@ -7849,7 +7837,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B14" s="30">
         <v>53.58</v>
@@ -7857,170 +7845,170 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8028,879 +8016,879 @@
         <v>117</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
@@ -8936,7 +8924,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B2" s="95" t="s">
         <v>75</v>
@@ -8944,34 +8932,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="92" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -9002,49 +8990,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>462</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -9052,19 +9040,19 @@
         <v>1307</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
@@ -9099,10 +9087,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
@@ -9137,10 +9125,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -9184,18 +9172,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -9224,7 +9212,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>75</v>
@@ -9240,10 +9228,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9251,20 +9239,20 @@
         <v>0</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>117</v>
@@ -9272,10 +9260,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -9304,54 +9292,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" s="30">
         <v>1307</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>117</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -9379,7 +9367,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1">
         <v>1307</v>
@@ -9387,10 +9375,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9403,10 +9391,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -9439,66 +9427,66 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>528</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>532</v>
-      </c>
       <c r="H1" s="30" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" s="30">
         <v>1307</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>539</v>
-      </c>
       <c r="J2" s="30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -9514,7 +9502,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9530,37 +9518,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="H1" t="s">
         <v>126</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="K1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9571,28 +9559,28 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D2" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G2">
         <v>111398</v>
       </c>
       <c r="H2" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="I2">
         <v>1307200433</v>
       </c>
       <c r="J2" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="K2">
         <v>1000</v>
@@ -9625,7 +9613,7 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9638,2018 +9626,2018 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B9" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B13" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B14" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B15" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B16" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B18" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B19" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B20" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B21" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B22" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B23" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B24" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B25" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B26" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B27" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B28" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B29" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B30" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B31" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B32" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B33" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B34" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B35" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B36" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B37" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B38" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B39" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B40" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B41" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B42" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B43" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B44" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B45" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B46" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B47" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B48" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B49" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B50" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B51" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B52" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B53" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B54" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B55" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B56" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B57" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B58" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B59" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B60" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B61" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B62" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B63" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B64" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B65" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B66" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B67" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B68" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B69" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B70" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B71" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B72" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B73" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B74" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B75" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B76" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B77" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B78" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B79" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B80" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B81" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B82" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B83" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B84" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B85" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B86" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B87" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B88" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B89" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B90" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B91" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B92" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B93" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B94" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B95" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B96" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B97" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B98" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B99" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B100" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B101" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B102" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B103" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B104" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B105" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B106" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B107" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B108" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B109" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B110" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B111" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B112" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B113" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B114" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B115" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B116" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B117" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B118" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B119" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B120" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B121" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B122" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B123" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B124" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B125" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B126" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B127" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B128" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B129" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B130" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B131" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B132" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B133" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B134" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B135" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B136" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B137" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B138" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B139" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B140" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B141" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B142" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B143" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B144" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B145" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B146" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B147" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B148" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B149" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B150" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B151" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B152" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B153" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B154" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B155" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B156" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B157" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B158" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B159" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B160" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B161" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B162" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B163" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B164" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B165" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B166" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B167" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B168" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B169" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B170" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B171" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B172" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B173" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B174" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B175" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B176" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B177" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B178" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B179" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B180" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B181" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B182" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B183" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B184" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B185" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B186" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B187" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B188" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B189" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B190" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B191" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B192" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B193" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B194" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B195" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B196" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B197" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B198" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B199" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B200" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B201" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="B202" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B203" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B204" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B205" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B206" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B207" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B208" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B209" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B210" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B211" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B212" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B213" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B214" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B215" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B216" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B217" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B218" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B219" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B220" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B221" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B222" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B223" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B224" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B225" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B226" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B227" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B228" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B229" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B230" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="B231" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B232" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="B233" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B234" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B235" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B236" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B237" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B238" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B239" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B240" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B241" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B242" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B243" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B244" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B245" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B246" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B247" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B248" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B249" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B250" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B251" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B252" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B253" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B254" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -11681,7 +11669,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11694,31 +11682,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B6" s="30">
         <v>131885</v>
@@ -11726,10 +11714,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -11760,7 +11748,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11773,31 +11761,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B6" s="30">
         <v>131885</v>
@@ -11837,10 +11825,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>136</v>
@@ -11852,7 +11840,7 @@
         <v>138</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>140</v>
@@ -11864,7 +11852,7 @@
         <v>142</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>144</v>
@@ -11876,7 +11864,7 @@
         <v>146</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>148</v>
@@ -11888,7 +11876,7 @@
         <v>150</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>152</v>
@@ -11900,7 +11888,7 @@
         <v>154</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>156</v>
@@ -11912,7 +11900,7 @@
         <v>158</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AC1" s="27" t="s">
         <v>160</v>
@@ -11924,7 +11912,7 @@
         <v>162</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AG1" s="27" t="s">
         <v>164</v>
@@ -11936,7 +11924,7 @@
         <v>166</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AK1" s="27" t="s">
         <v>168</v>
@@ -11948,7 +11936,7 @@
         <v>170</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AO1" s="27" t="s">
         <v>172</v>
@@ -11960,12 +11948,12 @@
         <v>174</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B2" s="98">
         <v>1319</v>
@@ -11977,10 +11965,10 @@
         <v>1319200043</v>
       </c>
       <c r="E2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -12026,22 +12014,22 @@
         <v>1203</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K1" s="66">
         <v>1321</v>
@@ -12055,43 +12043,43 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -12099,81 +12087,81 @@
         <v>13</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L4" s="43" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -12181,40 +12169,40 @@
         <v>14</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L5" s="43" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -12222,209 +12210,209 @@
         <v>15</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F6" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="G6" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="H6" s="43" t="s">
+      <c r="I6" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="J6" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="I6" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>299</v>
-      </c>
       <c r="K6" s="43" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L7" s="43" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L8" s="43" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L9" s="43" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L10" s="43" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>135</v>
@@ -12433,34 +12421,34 @@
         <v>128</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E11" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="J11" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>345</v>
-      </c>
       <c r="K11" s="44" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L11" s="44" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -12491,143 +12479,143 @@
         <v>16</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -12834,7 +12822,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B17" s="82"/>
       <c r="C17" s="82"/>
@@ -12843,7 +12831,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B18" s="82"/>
       <c r="C18" s="82"/>
@@ -12852,7 +12840,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B19" s="82"/>
       <c r="C19" s="82"/>
@@ -12919,10 +12907,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12944,7 +12932,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -13032,7 +13020,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -13043,7 +13031,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -13051,21 +13039,21 @@
         <v>12</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -13081,8 +13069,8 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13128,10 +13116,10 @@
         <v>76</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>136</v>
@@ -13259,10 +13247,10 @@
         <v>1307</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
@@ -13299,42 +13287,6 @@
       </c>
       <c r="O2">
         <v>6000</v>
-      </c>
-      <c r="P2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>5000</v>
-      </c>
-      <c r="T2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" t="s">
-        <v>183</v>
-      </c>
-      <c r="V2">
-        <v>25</v>
-      </c>
-      <c r="W2">
-        <v>500</v>
-      </c>
-      <c r="X2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z2">
-        <v>10</v>
-      </c>
-      <c r="AA2">
-        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -13404,10 +13356,10 @@
         <v>76</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>0</v>
@@ -13541,16 +13493,16 @@
         <v>1307200415</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -13559,10 +13511,10 @@
         <v>1000</v>
       </c>
       <c r="I2" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="J2" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="K2" t="s">
         <v>117</v>
@@ -13614,7 +13566,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -13624,7 +13576,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="C3" s="30"/>
     </row>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1196">
   <si>
     <t>Description</t>
   </si>
@@ -3527,13 +3527,142 @@
   </si>
   <si>
     <t>1/2/2020</t>
+  </si>
+  <si>
+    <t>1289-Red Wasabi Marketing Consulting (Shanghai) Co. Ltd</t>
+  </si>
+  <si>
+    <t>1228-GTBC</t>
+  </si>
+  <si>
+    <t>1284-O&amp;M Agency SH</t>
+  </si>
+  <si>
+    <t>1322-Y&amp;R Shanghai</t>
+  </si>
+  <si>
+    <t>RB113</t>
+  </si>
+  <si>
+    <t>RB101</t>
+  </si>
+  <si>
+    <t>RB103</t>
+  </si>
+  <si>
+    <t>RB101-Advertising,RB103-Branding,RB104-Broadcast,RB105-Campaign,RB106-Consulting,RB107-Creative,RB108-Design,RB109-Digital,RB110-Events,RB111-Marketing,RB113-New Business - Billable,RB114-Print,RB115-Public Relations,RB117-Recharges,RB118-Research,RB119-Retainer,RB120-Social Media,RB121-Studio,RB124-TV,RB125-Video,RB126-Corporate Communications,RB129-Public Affairs,RB130-Crisis Communications,RB131-Internal Communications,RB133-Training,RB135-Publishing, Media Planning and Placement,RB136-Content Strategy &amp; Production,RB142-Website,RB147-Advertising Outdoor,RB148-Advertising Press,RB150-Advertising TV,RB151-Client Services,RB152-Media Digital</t>
+  </si>
+  <si>
+    <t>RB101-Advertising</t>
+  </si>
+  <si>
+    <t>RB101-Advertising,RB103-Branding,RB104-Broadcast,RB105-Campaign,RB106-Consulting,RB107-Creative,RB108-Design,RB109-Digital,RB110-Events,RB111-Marketing, RB113-New Business-Billable,RB114-Print,RB115-Public Relatives,RB117-Recharges,RB118-Research,RB119-Retainer,RB120-Social Media,RB121-Studio,RB124-TV,RB125-Video,RB126-Corporate Communications,RB129-Public Affairs,RB130-Crisis Communications,RB131-Internal Communications,RB133-Training,RB135-Publishing,Media Planning and Placement,RB136-Content Strategy &amp; Production,RB142-Website,RB147-Advertising Outdoor,RB148-Advertising Press,RB150-Advertising TV,RB151-Client Services,RB152-Media Digital</t>
+  </si>
+  <si>
+    <t>RB101-Advertising,B106-Consulting,RB107-Creative,RB109-Digital,RB113-New Business - Billable,RB117-Recharges,RB119-Retainer,RB128-Financial Communications,RB133-Training,RB137-SSC Service Fees,RB151-Client Services</t>
+  </si>
+  <si>
+    <t>D101-Administration</t>
+  </si>
+  <si>
+    <t>D100-Account Management,D101-Administration,D111-Creative,D116-Finance,D117-Human Resources,D118-Information Technology,D120-Management,D125-Planning,</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>B101-Team A,B102-Team B,B103-Team C,B104-Team D,B105-Team E,B106-Team F,B107-Team G,B121-H&amp;O,B168-Back Office,B118-Creative,B125 Planning,B126-Management</t>
+  </si>
+  <si>
+    <t>RB113_FP-CP</t>
+  </si>
+  <si>
+    <t>RB101_FP-CP</t>
+  </si>
+  <si>
+    <t>RB103_FP-CP</t>
+  </si>
+  <si>
+    <t>New Business - Billable-Fixed Price - CP</t>
+  </si>
+  <si>
+    <t>Advertising-Fixed Price - CP</t>
+  </si>
+  <si>
+    <t>Branding-Fixed Price - CP</t>
+  </si>
+  <si>
+    <t>Digital-Fixed Price - CP</t>
+  </si>
+  <si>
+    <t>111236001001</t>
+  </si>
+  <si>
+    <t>111255001001</t>
+  </si>
+  <si>
+    <t>11104001001</t>
+  </si>
+  <si>
+    <t>1201_TestAutomation 07Feb2020</t>
+  </si>
+  <si>
+    <t>1289_TestAutomation 07Feb2020</t>
+  </si>
+  <si>
+    <t>1228_TestAutomation 07Feb2020</t>
+  </si>
+  <si>
+    <t>1284_TestAutomation 07Feb2020</t>
+  </si>
+  <si>
+    <t>1322_TestAutomation 07Feb2020</t>
+  </si>
+  <si>
+    <t>ZZ1228_RB101_FP-CP</t>
+  </si>
+  <si>
+    <t>E1461</t>
+  </si>
+  <si>
+    <t>机票 - 国内客户会议</t>
+  </si>
+  <si>
+    <t>ZZ1322_RB101_FP-CP_Principal</t>
+  </si>
+  <si>
+    <t>E1610</t>
+  </si>
+  <si>
+    <t>住宿费用 - 国际其他会议</t>
+  </si>
+  <si>
+    <t>ZZ1284_RB101_FP-CP</t>
+  </si>
+  <si>
+    <t>E1463</t>
+  </si>
+  <si>
+    <t>住宿费用 - 国内其他会议</t>
+  </si>
+  <si>
+    <t>ZZ1201_RB103_FP-CP_Principal</t>
+  </si>
+  <si>
+    <t>E1486</t>
+  </si>
+  <si>
+    <t>改编</t>
+  </si>
+  <si>
+    <t>ZZ1289_RB106_FP-CP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3570,6 +3699,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3597,7 +3732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3789,12 +3924,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3935,12 +4079,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3990,6 +4128,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4288,23 +4453,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="80">
+      <c r="B1" s="78">
         <v>1307</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="78"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
@@ -4326,23 +4491,23 @@
       <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5061,7 +5226,7 @@
       <c r="A2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="99" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -6824,19 +6989,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>445</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="79" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="79" t="s">
         <v>446</v>
       </c>
       <c r="B4" s="65" t="s">
@@ -6875,19 +7040,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>445</v>
       </c>
       <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="79" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="79" t="s">
         <v>446</v>
       </c>
       <c r="B4" s="65" t="s">
@@ -7132,10 +7297,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7329,6 +7494,121 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1228</v>
+      </c>
+      <c r="B3">
+        <v>131922</v>
+      </c>
+      <c r="C3">
+        <v>1228200896</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1322</v>
+      </c>
+      <c r="B4">
+        <v>131915</v>
+      </c>
+      <c r="C4">
+        <v>1322200293</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1284</v>
+      </c>
+      <c r="B5">
+        <v>131922</v>
+      </c>
+      <c r="C5">
+        <v>1284200914</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1201</v>
+      </c>
+      <c r="B6">
+        <v>131915</v>
+      </c>
+      <c r="C6" s="108">
+        <v>1201200189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1289</v>
+      </c>
+      <c r="B7">
+        <v>131915</v>
+      </c>
+      <c r="C7" s="108">
+        <v>1289200118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7342,7 +7622,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7361,7 +7641,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>442</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -7400,7 +7680,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>442</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -7474,7 +7754,7 @@
       <c r="A6" s="30" t="s">
         <v>518</v>
       </c>
-      <c r="B6" s="97">
+      <c r="B6" s="95">
         <v>43867</v>
       </c>
     </row>
@@ -7520,7 +7800,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>76</v>
       </c>
       <c r="B1">
@@ -7591,7 +7871,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -7623,18 +7903,18 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="82" t="s">
         <v>473</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="84" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="82" t="s">
         <v>475</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="84" t="s">
         <v>476</v>
       </c>
     </row>
@@ -7662,7 +7942,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="69" t="s">
@@ -7670,10 +7950,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>471</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="85" t="s">
         <v>472</v>
       </c>
     </row>
@@ -7681,7 +7961,7 @@
       <c r="A3" s="59" t="s">
         <v>477</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="92" t="s">
         <v>478</v>
       </c>
     </row>
@@ -7689,7 +7969,7 @@
       <c r="A4" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="84" t="s">
         <v>476</v>
       </c>
     </row>
@@ -7697,7 +7977,7 @@
       <c r="A5" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="85" t="s">
         <v>481</v>
       </c>
     </row>
@@ -7705,7 +7985,7 @@
       <c r="A6" s="60" t="s">
         <v>482</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="86" t="s">
         <v>483</v>
       </c>
     </row>
@@ -8915,10 +9195,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="87" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8926,7 +9206,7 @@
       <c r="A2" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="93" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8934,7 +9214,7 @@
       <c r="A3" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="93" t="s">
         <v>470</v>
       </c>
     </row>
@@ -8942,7 +9222,7 @@
       <c r="A4" s="59" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="88" t="s">
         <v>472</v>
       </c>
     </row>
@@ -8950,15 +9230,15 @@
       <c r="A5" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="89" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="90" t="s">
         <v>475</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="91" t="s">
         <v>476</v>
       </c>
     </row>
@@ -9086,7 +9366,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>464</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -9124,7 +9404,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="79" t="s">
         <v>464</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -11952,13 +12232,13 @@
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="96" t="s">
         <v>556</v>
       </c>
-      <c r="B2" s="98">
+      <c r="B2" s="96">
         <v>1319</v>
       </c>
-      <c r="C2" s="99">
+      <c r="C2" s="97">
         <v>131915</v>
       </c>
       <c r="D2" s="64">
@@ -12629,10 +12909,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12644,208 +12924,400 @@
     <col min="5" max="5" width="45.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2">
         <v>1307</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="2">
+        <v>1201</v>
+      </c>
+      <c r="D1" s="100">
+        <v>1289</v>
+      </c>
+      <c r="E1" s="100">
+        <v>1228</v>
+      </c>
+      <c r="F1" s="100">
+        <v>1284</v>
+      </c>
+      <c r="G1" s="100">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>1307</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="73"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="7">
+        <v>1201</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1289</v>
+      </c>
+      <c r="E2">
+        <v>1228</v>
+      </c>
+      <c r="F2" s="101">
+        <v>1284</v>
+      </c>
+      <c r="G2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="375" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="74"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D15" s="72">
+        <v>111258001001</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="C16" s="10" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1182</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13067,10 +13539,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13243,7 +13715,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="100">
+      <c r="A2" s="98">
         <v>1307</v>
       </c>
       <c r="B2" s="64" t="s">
@@ -13287,6 +13759,121 @@
       </c>
       <c r="O2">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1228</v>
+      </c>
+      <c r="B3">
+        <v>1228200896</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1322</v>
+      </c>
+      <c r="B4">
+        <v>1322200293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1284</v>
+      </c>
+      <c r="B5">
+        <v>1284200914</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1201</v>
+      </c>
+      <c r="B6" s="108">
+        <v>1201200189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1289</v>
+      </c>
+      <c r="B7" s="108">
+        <v>1289200118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -13486,7 +14073,7 @@
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="98">
+      <c r="A2" s="96">
         <v>1307</v>
       </c>
       <c r="B2">

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="20" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="21" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1205">
   <si>
     <t>Description</t>
   </si>
@@ -3656,6 +3656,33 @@
   </si>
   <si>
     <t>ZZ1289_RB106_FP-CP</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>1289</t>
+  </si>
+  <si>
+    <t>1228100136</t>
+  </si>
+  <si>
+    <t>1322976248</t>
+  </si>
+  <si>
+    <t>1284976359</t>
+  </si>
+  <si>
+    <t>1201849635</t>
+  </si>
+  <si>
+    <t>1289365794</t>
   </si>
 </sst>
 </file>
@@ -7620,10 +7647,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7632,20 +7659,50 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31">
         <v>1307</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="31" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>442</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>1123</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -7659,10 +7716,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7671,20 +7728,50 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="31">
         <v>1307</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="31" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>442</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>1122</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>1204</v>
       </c>
     </row>
   </sheetData>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="21" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="21" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="1205">
   <si>
     <t>Description</t>
   </si>
@@ -7326,8 +7326,8 @@
   </sheetPr>
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7502,8 +7502,8 @@
       <c r="A2" s="64">
         <v>1307</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>441</v>
+      <c r="B2" s="64">
+        <v>131885</v>
       </c>
       <c r="C2" s="64" t="s">
         <v>1124</v>
@@ -7718,7 +7718,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:G2"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="21" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="41" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -54,8 +54,10 @@
     <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId40"/>
     <sheet name="Reverse Invoice" sheetId="41" r:id="rId41"/>
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId43"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId44"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId43"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId44"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId45"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId46"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="1210">
   <si>
     <t>Description</t>
   </si>
@@ -3683,13 +3685,28 @@
   </si>
   <si>
     <t>1289365794</t>
+  </si>
+  <si>
+    <t>Client Number</t>
+  </si>
+  <si>
+    <t>Brand Number</t>
+  </si>
+  <si>
+    <t>111429001</t>
+  </si>
+  <si>
+    <t>Brand Name</t>
+  </si>
+  <si>
+    <t>Camlin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3731,6 +3748,13 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3965,7 +3989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4183,6 +4207,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4470,7 +4496,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4486,7 +4512,9 @@
       <c r="B1" s="78">
         <v>1307</v>
       </c>
-      <c r="C1" s="76"/>
+      <c r="C1" s="76">
+        <v>1284</v>
+      </c>
       <c r="D1" s="76"/>
       <c r="E1" s="76"/>
       <c r="F1" s="77"/>
@@ -4505,7 +4533,9 @@
       <c r="B2" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="45" t="s">
+        <v>286</v>
+      </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
       <c r="F2" s="45"/>
@@ -4524,7 +4554,9 @@
       <c r="B3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="74" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -4539,9 +4571,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7326,7 +7359,7 @@
   </sheetPr>
   <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -12353,11 +12386,120 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="109">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B2">
+        <v>111429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="109">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B2">
+        <v>111429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
@@ -12824,7 +12966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\China\GlobalTestPack\WppRegPack\TestResource\Critical_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="1250">
   <si>
     <t>Description</t>
   </si>
@@ -812,25 +812,10 @@
     <t>10/01/2019</t>
   </si>
   <si>
-    <t>1203_TestEmployeeAutomation</t>
-  </si>
-  <si>
-    <t>1203-Landor Associates Designers&amp;Consultants Limited,BJ Branch</t>
-  </si>
-  <si>
-    <t>D100-Account Management,D101-Administration,D111-Creative,D112-Design,D116-Finance,D117-Human Resources,D120-Management,D121-Marketing</t>
-  </si>
-  <si>
     <t>B100-General</t>
   </si>
   <si>
-    <t>12039505</t>
-  </si>
-  <si>
     <t>EC1001-CEO,EC1165-Regional Managing Director,EC1005-CFO,EC1007-Finance Manager,EC1011-Talent Manager,EC1023-New Business Director,EC1024-Client Services Director,EC1153-Account Director,EC1028-Senior Account Executive,EC1031-Creative Director,EC1100-Production Director,EC1102-Producer</t>
-  </si>
-  <si>
-    <t>EC1024</t>
   </si>
   <si>
     <t>1203 Senior Finance</t>
@@ -3811,6 +3796,30 @@
   </si>
   <si>
     <t>1319100042</t>
+  </si>
+  <si>
+    <t>1319_TestEmployeeAutomation</t>
+  </si>
+  <si>
+    <t>03/19/2020</t>
+  </si>
+  <si>
+    <t>D110</t>
+  </si>
+  <si>
+    <t>EC1165-Regional Managing Director,EC1003-Management - Level 3,EC1005-CFO,EC1006-Finance Director,EC1007-Finance Manager,EC1008-Senior Finance Executive,EC1009-Junior Finance Executive,EC1012-Talent Supervisor,EC1018-Senior Administration Executive,EC1019-Junior Administration Executive,EC1120-SSC Director,EC1121-SSC Process Lead,EC1122-SSC Senior Executive,EC1123-SSC Junior Executive</t>
+  </si>
+  <si>
+    <t>13199605</t>
+  </si>
+  <si>
+    <t>12/30/2020</t>
+  </si>
+  <si>
+    <t>131990032</t>
+  </si>
+  <si>
+    <t>19March20201241181319_TestEmployeeAutomation</t>
   </si>
 </sst>
 </file>
@@ -4618,7 +4627,7 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -4666,13 +4675,13 @@
         <v>189</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
@@ -4729,8 +4738,8 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="H19" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A21" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4754,8 +4763,8 @@
       <c r="B1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="26">
-        <v>1284</v>
+      <c r="C1" s="26" t="s">
+        <v>1188</v>
       </c>
       <c r="D1" s="31">
         <v>1205</v>
@@ -4784,25 +4793,25 @@
         <v>237</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>264</v>
+        <v>1242</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4813,25 +4822,25 @@
         <v>26</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4871,22 +4880,22 @@
         <v>1307</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>266</v>
+        <v>1188</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I5" s="70">
         <v>1321</v>
@@ -4900,25 +4909,25 @@
         <v>65</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>267</v>
+        <v>1168</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4929,7 +4938,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>64</v>
+        <v>1243</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>64</v>
@@ -4958,25 +4967,25 @@
         <v>30</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4987,25 +4996,25 @@
         <v>237</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>264</v>
+        <v>1242</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5103,28 +5112,28 @@
         <v>239</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>1244</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>239</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>239</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I13" s="71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>53</v>
       </c>
@@ -5132,25 +5141,25 @@
         <v>67</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>268</v>
+        <v>1172</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5161,22 +5170,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>270</v>
+        <v>1173</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>9</v>
@@ -5190,25 +5199,25 @@
         <v>69</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>269</v>
+        <v>1174</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -5219,22 +5228,22 @@
         <v>240</v>
       </c>
       <c r="C17" s="20" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="E17" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="G17" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I17" s="54">
         <v>13219505</v>
@@ -5248,22 +5257,22 @@
         <v>240</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="E18" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="G18" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I18" s="54">
         <v>13219505</v>
@@ -5277,25 +5286,25 @@
         <v>242</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>242</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>242</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -5306,25 +5315,25 @@
         <v>241</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>272</v>
+        <v>1245</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5431,7 +5440,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="98" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5447,7 +5456,7 @@
         <v>244</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5471,7 +5480,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5479,7 +5488,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5506,8 +5515,8 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5526,8 +5535,8 @@
       <c r="B1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="19">
-        <v>1203</v>
+      <c r="C1" s="26" t="s">
+        <v>1188</v>
       </c>
       <c r="D1" s="26">
         <v>1284</v>
@@ -5559,28 +5568,28 @@
         <v>237</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>247</v>
+        <v>1242</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5591,28 +5600,28 @@
         <v>26</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5654,26 +5663,26 @@
       <c r="B5" s="7">
         <v>1307</v>
       </c>
-      <c r="C5" s="7">
-        <v>1203</v>
+      <c r="C5" s="15" t="s">
+        <v>1188</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J5" s="70">
         <v>1321</v>
@@ -5686,29 +5695,29 @@
       <c r="B6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>248</v>
+      <c r="C6" s="15" t="s">
+        <v>1168</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5719,7 +5728,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>64</v>
+        <v>1243</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>64</v>
@@ -5751,28 +5760,28 @@
         <v>30</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5783,28 +5792,28 @@
         <v>237</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>247</v>
+        <v>1242</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5911,25 +5920,25 @@
         <v>239</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>1244</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>239</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>239</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>239</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J13" s="71" t="s">
         <v>68</v>
@@ -5942,29 +5951,29 @@
       <c r="B14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>249</v>
+      <c r="C14" s="50" t="s">
+        <v>1172</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5974,26 +5983,26 @@
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>9</v>
+      <c r="C15" s="15" t="s">
+        <v>1173</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>9</v>
@@ -6006,29 +6015,29 @@
       <c r="B16" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>250</v>
+      <c r="C16" s="50" t="s">
+        <v>1174</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J16" s="50" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -6039,25 +6048,25 @@
         <v>240</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>251</v>
+        <v>1246</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="F17" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="H17" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J17" s="54">
         <v>13219505</v>
@@ -6071,25 +6080,25 @@
         <v>240</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>251</v>
+        <v>1246</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>276</v>
-      </c>
       <c r="F18" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="H18" s="20" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J18" s="54">
         <v>13219505</v>
@@ -6102,29 +6111,29 @@
       <c r="B19" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>253</v>
+      <c r="C19" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>242</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>242</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>242</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
@@ -6134,29 +6143,29 @@
       <c r="B20" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>252</v>
+      <c r="C20" s="62" t="s">
+        <v>1245</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J20" s="62" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -6166,7 +6175,7 @@
       <c r="B21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -6198,7 +6207,7 @@
       <c r="B22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -6262,8 +6271,8 @@
       <c r="B24" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>246</v>
+      <c r="C24" s="20" t="s">
+        <v>1243</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>246</v>
@@ -6295,28 +6304,28 @@
         <v>243</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>323</v>
+        <v>1247</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6324,7 +6333,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -6337,13 +6346,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" display="1203_TestEmployeeAutomation@gmail.com"/>
-    <hyperlink ref="C9" r:id="rId2" display="1203_TestEmployeeAutomation@gmail.com"/>
-    <hyperlink ref="D9" r:id="rId3" display="1203_TestEmployeeAutomation@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId4" display="1203_TestEmployeeAutomation@gmail.com"/>
-    <hyperlink ref="F9" r:id="rId5" display="1203_TestEmployeeAutomation@gmail.com"/>
-    <hyperlink ref="G9" r:id="rId6" display="1203_TestEmployeeAutomation@gmail.com"/>
-    <hyperlink ref="H9" r:id="rId7" display="1203_TestEmployeeAutomation@gmail.com"/>
-    <hyperlink ref="I9" r:id="rId8" display="1203_TestEmployeeAutomation@gmail.com"/>
+    <hyperlink ref="D9" r:id="rId2" display="1203_TestEmployeeAutomation@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId3" display="1203_TestEmployeeAutomation@gmail.com"/>
+    <hyperlink ref="F9" r:id="rId4" display="1203_TestEmployeeAutomation@gmail.com"/>
+    <hyperlink ref="G9" r:id="rId5" display="1203_TestEmployeeAutomation@gmail.com"/>
+    <hyperlink ref="H9" r:id="rId6" display="1203_TestEmployeeAutomation@gmail.com"/>
+    <hyperlink ref="I9" r:id="rId7" display="1203_TestEmployeeAutomation@gmail.com"/>
+    <hyperlink ref="C9" r:id="rId8" display="1203_TestEmployeeAutomation@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -6388,7 +6397,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6396,7 +6405,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6404,7 +6413,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6412,7 +6421,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6428,7 +6437,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6509,7 +6518,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6533,7 +6542,7 @@
         <v>244</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6557,7 +6566,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -6610,10 +6619,10 @@
         <v>138</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>139</v>
@@ -6628,10 +6637,10 @@
         <v>142</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>143</v>
@@ -6646,10 +6655,10 @@
         <v>146</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>147</v>
@@ -6664,10 +6673,10 @@
         <v>150</v>
       </c>
       <c r="Y1" s="27" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="AA1" s="27" t="s">
         <v>151</v>
@@ -6682,10 +6691,10 @@
         <v>154</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="AG1" s="27" t="s">
         <v>155</v>
@@ -6700,10 +6709,10 @@
         <v>158</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="AM1" s="27" t="s">
         <v>159</v>
@@ -6718,10 +6727,10 @@
         <v>162</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="AS1" s="27" t="s">
         <v>163</v>
@@ -6736,10 +6745,10 @@
         <v>166</v>
       </c>
       <c r="AW1" s="27" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="AY1" s="27" t="s">
         <v>167</v>
@@ -6754,10 +6763,10 @@
         <v>170</v>
       </c>
       <c r="BC1" s="27" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="BE1" s="27" t="s">
         <v>171</v>
@@ -6772,10 +6781,10 @@
         <v>174</v>
       </c>
       <c r="BI1" s="27" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
@@ -6795,10 +6804,10 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -6824,10 +6833,10 @@
         <v>3000</v>
       </c>
       <c r="G3" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="H3" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -6853,10 +6862,10 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="H4" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -6865,10 +6874,10 @@
         <v>800</v>
       </c>
       <c r="K4" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="L4" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -6925,10 +6934,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -6965,7 +6974,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>75</v>
@@ -6973,10 +6982,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6984,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -7015,22 +7024,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7044,13 +7053,13 @@
         <v>1307700041</v>
       </c>
       <c r="D2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -7094,7 +7103,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B3">
         <v>1307700044</v>
@@ -7111,9 +7120,9 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FN7"/>
+  <dimension ref="A1:FN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -7336,13 +7345,13 @@
         <v>236</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="F2" s="64"/>
       <c r="H2" s="64"/>
@@ -7356,6 +7365,9 @@
       <c r="A3" s="30" t="s">
         <v>244</v>
       </c>
+      <c r="C3" s="30" t="s">
+        <v>1248</v>
+      </c>
     </row>
     <row r="4" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -7364,44 +7376,52 @@
     </row>
     <row r="5" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="6" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="7" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>1243</v>
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -7437,7 +7457,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B2" s="30"/>
     </row>
@@ -7449,10 +7469,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -7488,7 +7508,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B2" s="30"/>
     </row>
@@ -7500,10 +7520,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -7574,7 +7594,7 @@
         <v>76</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>236</v>
@@ -7705,7 +7725,7 @@
         <v>1307</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" t="s">
@@ -7792,7 +7812,7 @@
         <v>76</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>236</v>
@@ -7923,7 +7943,7 @@
         <v>1322</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -7931,7 +7951,7 @@
         <v>1319</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -7939,7 +7959,7 @@
         <v>1228</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="C4" s="100"/>
     </row>
@@ -7977,24 +7997,24 @@
         <v>1307</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="64"/>
@@ -8032,29 +8052,29 @@
         <v>1307</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="64"/>
       <c r="E2" s="64" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="F2" s="64"/>
     </row>
@@ -8083,7 +8103,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B1">
         <v>1307</v>
@@ -8091,10 +8111,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8102,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8123,7 +8143,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B6" s="94">
         <v>43867</v>
@@ -8131,7 +8151,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B7">
         <v>3500</v>
@@ -8139,10 +8159,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -8180,34 +8200,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8251,7 +8271,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -8259,34 +8279,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -8322,42 +8342,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -8384,282 +8404,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8667,879 +8687,879 @@
         <v>117</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
   </sheetData>
@@ -9575,7 +9595,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B2" s="92" t="s">
         <v>75</v>
@@ -9583,34 +9603,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="89" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -9641,49 +9661,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>445</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>449</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -9691,16 +9711,16 @@
         <v>1322</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="E2" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="F2" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -9708,16 +9728,16 @@
         <v>1319</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="E3" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="F3" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9725,16 +9745,16 @@
         <v>1228</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="E4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="F4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -9778,10 +9798,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -9816,10 +9836,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -9863,18 +9883,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -9903,7 +9923,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>75</v>
@@ -9922,7 +9942,7 @@
         <v>236</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9930,20 +9950,20 @@
         <v>0</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>117</v>
@@ -9951,10 +9971,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -9983,7 +10003,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -9995,16 +10015,16 @@
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -10015,22 +10035,22 @@
         <v>1307</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>117</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -10058,7 +10078,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B1">
         <v>1307</v>
@@ -10066,10 +10086,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10085,7 +10105,7 @@
         <v>236</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -10118,7 +10138,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -10130,22 +10150,22 @@
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>495</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>500</v>
-      </c>
       <c r="J1" s="30" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -10156,25 +10176,25 @@
         <v>1307</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>501</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>502</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>505</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>506</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>209</v>
@@ -10209,25 +10229,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G1" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="H1" t="s">
         <v>126</v>
@@ -10236,10 +10256,10 @@
         <v>236</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="K1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10250,28 +10270,28 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F2" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G2">
         <v>111398</v>
       </c>
       <c r="H2" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="I2">
         <v>1307200433</v>
       </c>
       <c r="J2" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="K2">
         <v>1000</v>
@@ -10304,7 +10324,7 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10317,2018 +10337,2018 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B5" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B10" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B11" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B12" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B13" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B14" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B15" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B16" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B17" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B18" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B19" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B20" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B21" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B22" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B23" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B24" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B25" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B26" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B27" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B28" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B29" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B30" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B31" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B32" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B33" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B34" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B35" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B36" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B37" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B38" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B39" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B40" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B41" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B42" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B43" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B44" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B45" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B46" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B47" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B48" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B49" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B50" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B51" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B52" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B53" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B54" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B55" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B56" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B57" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B58" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B59" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B60" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B61" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B62" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B63" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B64" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B65" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B66" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B67" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B68" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B69" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B70" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B71" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B72" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B73" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B74" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B75" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B76" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B77" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B78" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B79" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B80" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B81" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B82" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B83" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B84" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B85" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B86" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B87" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B88" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B89" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B90" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B91" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B92" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B93" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B94" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B95" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B96" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B97" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B98" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B99" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B100" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B101" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B102" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B103" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B104" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B105" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B106" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B107" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B108" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B109" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B110" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B111" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B112" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B113" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B114" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B115" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B116" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B117" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B118" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B119" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B120" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B121" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B122" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B123" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B124" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B125" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B126" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B127" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B128" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B129" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B130" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B131" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B132" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B133" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B134" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B135" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B136" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B137" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B138" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B139" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B140" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B141" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B142" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B143" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B144" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B145" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B146" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B147" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B148" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B149" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B150" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B151" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B152" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B153" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B154" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B155" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B156" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B157" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B158" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B159" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B160" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B161" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B162" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B163" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B164" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B165" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B166" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B167" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B168" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B169" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B170" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B171" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B172" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B173" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B174" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B175" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B176" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B177" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B178" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B179" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B180" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B181" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B182" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B183" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B184" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B185" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B186" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B187" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B188" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B189" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B190" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B191" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B192" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B193" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B194" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B195" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B196" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B197" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B198" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B199" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B200" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B201" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B202" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B203" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B204" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B205" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B206" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B207" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B208" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B209" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B210" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B211" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B212" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B213" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B214" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B215" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B216" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B217" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B218" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B219" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B220" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B221" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B222" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B223" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B224" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B225" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B226" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B227" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B228" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B229" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B230" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B231" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B232" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B233" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B234" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B235" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B236" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B237" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B238" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="B239" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B240" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B241" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B242" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B243" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B244" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B245" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="B246" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B247" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="B248" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B249" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B250" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B251" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B252" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="B253" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B254" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -12360,7 +12380,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12373,31 +12393,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B6" s="30">
         <v>131885</v>
@@ -12405,10 +12425,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -12439,7 +12459,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12452,31 +12472,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>521</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B6" s="30">
         <v>131885</v>
@@ -12516,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>236</v>
@@ -12531,7 +12551,7 @@
         <v>137</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>139</v>
@@ -12543,7 +12563,7 @@
         <v>141</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>143</v>
@@ -12555,7 +12575,7 @@
         <v>145</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q1" s="27" t="s">
         <v>147</v>
@@ -12567,7 +12587,7 @@
         <v>149</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>151</v>
@@ -12579,7 +12599,7 @@
         <v>153</v>
       </c>
       <c r="X1" s="27" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Y1" s="27" t="s">
         <v>155</v>
@@ -12591,7 +12611,7 @@
         <v>157</v>
       </c>
       <c r="AB1" s="27" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AC1" s="27" t="s">
         <v>159</v>
@@ -12603,7 +12623,7 @@
         <v>161</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AG1" s="27" t="s">
         <v>163</v>
@@ -12615,7 +12635,7 @@
         <v>165</v>
       </c>
       <c r="AJ1" s="27" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AK1" s="27" t="s">
         <v>167</v>
@@ -12627,7 +12647,7 @@
         <v>169</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AO1" s="27" t="s">
         <v>171</v>
@@ -12639,12 +12659,12 @@
         <v>173</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B2" s="95">
         <v>1319</v>
@@ -12656,10 +12676,10 @@
         <v>1319200043</v>
       </c>
       <c r="E2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -12702,34 +12722,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>998</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>1003</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -12765,7 +12785,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B2" s="30">
         <v>111429</v>
@@ -12773,10 +12793,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -12824,22 +12844,22 @@
         <v>1203</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M1" s="66">
         <v>1321</v>
@@ -12856,46 +12876,46 @@
         <v>214</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>215</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J2" s="43" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K2" s="43" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="O2" s="43" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -12903,46 +12923,46 @@
         <v>13</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>216</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="N3" s="43" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -12950,46 +12970,46 @@
         <v>217</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>218</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L4" s="43" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N4" s="43" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O4" s="43" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -12997,46 +13017,46 @@
         <v>14</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>219</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L5" s="43" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="N5" s="43" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="O5" s="43" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -13044,46 +13064,46 @@
         <v>15</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>220</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G6" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="H6" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>350</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>279</v>
-      </c>
       <c r="K6" s="43" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M6" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="N6" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="N6" s="43" t="s">
-        <v>398</v>
-      </c>
       <c r="O6" s="43" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -13091,46 +13111,46 @@
         <v>221</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>222</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K7" s="43" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L7" s="43" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="O7" s="43" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -13138,46 +13158,46 @@
         <v>223</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>224</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J8" s="43" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L8" s="43" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="N8" s="43" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="O8" s="43" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -13185,46 +13205,46 @@
         <v>225</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>226</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L9" s="43" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O9" s="43" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -13232,46 +13252,46 @@
         <v>227</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>228</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="L10" s="43" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="O10" s="43" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13279,46 +13299,46 @@
         <v>229</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>128</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G11" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="L11" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>329</v>
-      </c>
       <c r="M11" s="44" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N11" s="44" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O11" s="44" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -13556,13 +13576,13 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13590,13 +13610,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -13607,13 +13627,13 @@
         <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13624,13 +13644,13 @@
         <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13658,13 +13678,13 @@
         <v>68</v>
       </c>
       <c r="C9" s="99" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -13675,13 +13695,13 @@
         <v>67</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -13695,7 +13715,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>9</v>
@@ -13709,13 +13729,13 @@
         <v>69</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13726,13 +13746,13 @@
         <v>70</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="E13" s="104" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13743,13 +13763,13 @@
         <v>129</v>
       </c>
       <c r="C14" s="105" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="E14" s="105" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -13760,13 +13780,13 @@
         <v>71</v>
       </c>
       <c r="C15" s="106" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="E15" s="106" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -13777,32 +13797,32 @@
         <v>72</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="E16" s="104" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B17" s="79"/>
       <c r="C17" s="79"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B18" s="79"/>
       <c r="C18" s="79"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B19" s="79"/>
       <c r="C19" s="79"/>
@@ -13870,7 +13890,7 @@
         <v>232</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13892,7 +13912,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -13980,7 +14000,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -13991,7 +14011,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -14010,7 +14030,7 @@
         <v>234</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>235</v>
@@ -14079,7 +14099,7 @@
         <v>236</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>135</v>
@@ -14207,10 +14227,10 @@
         <v>1307</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C2" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
@@ -14245,7 +14265,7 @@
         <v>1322200121</v>
       </c>
       <c r="C3" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D3" t="s">
         <v>73</v>
@@ -14260,10 +14280,10 @@
         <v>1000</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I3" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -14277,7 +14297,7 @@
         <v>1319</v>
       </c>
       <c r="C4" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
@@ -14292,10 +14312,10 @@
         <v>3000</v>
       </c>
       <c r="H4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="I4" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -14309,7 +14329,7 @@
         <v>1228</v>
       </c>
       <c r="C5" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
@@ -14324,10 +14344,10 @@
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="I5" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="J5">
         <v>12</v>
@@ -14336,10 +14356,10 @@
         <v>800</v>
       </c>
       <c r="L5" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="M5" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="N5">
         <v>5</v>
@@ -14555,13 +14575,13 @@
         <v>220</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="G2" t="s">
         <v>117</v>
@@ -14570,10 +14590,10 @@
         <v>1000</v>
       </c>
       <c r="I2" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="J2" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="K2" t="s">
         <v>117</v>
@@ -14622,7 +14642,7 @@
         <v>1307</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14637,10 +14657,10 @@
         <v>125</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegPack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\SIT-W1_Datasheets\New folder\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="20" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="1251">
   <si>
     <t>Description</t>
   </si>
@@ -3820,6 +3820,9 @@
   </si>
   <si>
     <t>19March20201241181319_TestEmployeeAutomation</t>
+  </si>
+  <si>
+    <t>Number of Lines To ADD</t>
   </si>
 </sst>
 </file>
@@ -4627,7 +4630,7 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -7764,50 +7767,51 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>76</v>
       </c>
@@ -7818,127 +7822,130 @@
         <v>236</v>
       </c>
       <c r="D1" s="27" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="P1" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="Q1" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="R1" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="S1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AH1" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AN1" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AO1" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="AP1" s="27" t="s">
+      <c r="AQ1" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="AQ1" s="27" t="s">
+      <c r="AR1" s="27" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1322</v>
       </c>
@@ -7946,7 +7953,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1319</v>
       </c>
@@ -7954,7 +7961,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1228</v>
       </c>
@@ -7962,9 +7969,11 @@
         <v>1228</v>
       </c>
       <c r="C4" s="100"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="D4" s="100"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="25" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1429">
   <si>
     <t>Description</t>
   </si>
@@ -4386,20 +4386,28 @@
     <t>1286_GlobalVendor</t>
   </si>
   <si>
-    <t>125382</t>
-  </si>
-  <si>
     <t>B1286B343</t>
   </si>
   <si>
     <t>125383</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>1286AutomationUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1286-Grey Worldwide Sdn Bhd </t>
+  </si>
+  <si>
+    <t>9/23/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5179,8 +5187,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="10" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="10" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5279,9 +5287,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="45" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="26.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -5440,39 +5448,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -5797,9 +5805,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5845,8 +5853,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5893,7 +5901,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -5927,9 +5935,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6149,40 +6157,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -6516,9 +6524,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6568,9 +6576,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6790,40 +6798,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -7040,12 +7048,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="27.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="23.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="27" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="51.7109375" collapsed="true"/>
-    <col min="5" max="168" customWidth="true" style="27" width="32.0" collapsed="true"/>
-    <col min="169" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="168" width="32" style="27" customWidth="1" collapsed="1"/>
+    <col min="169" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:168" x14ac:dyDescent="0.25">
@@ -7370,7 +7378,7 @@
       </c>
       <c r="B16"/>
       <c r="D16" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7874,9 +7882,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7926,7 +7934,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7985,8 +7993,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8045,8 +8053,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8105,9 +8113,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="93" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="93" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="93" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="93" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8164,9 +8172,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="93" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="93" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="93" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="93" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8223,9 +8231,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="93" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="93" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="93" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="93" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8285,28 +8293,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -8472,8 +8480,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="19.0" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="27" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8681,16 +8689,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="60.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="59.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="51.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="51.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="27" width="58.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="57.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="27" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="45.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="58.140625" style="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9080,7 +9088,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10254,89 +10262,117 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="23.140625" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.140625" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="46">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="47">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="47">
+        <v>12869905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>835</v>
+      </c>
+      <c r="C9" s="47">
+        <v>1286</v>
       </c>
     </row>
   </sheetData>
@@ -10361,11 +10397,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="60.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="67.42578125" collapsed="true"/>
-    <col min="4" max="9" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10849,8 +10885,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="60.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10979,7 +11015,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11071,9 +11107,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -11382,8 +11418,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="45.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11422,8 +11458,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11469,8 +11505,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11505,8 +11541,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11562,8 +11598,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11613,7 +11649,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -13667,46 +13703,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -13930,40 +13966,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -14135,8 +14171,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -14190,8 +14226,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -14245,41 +14281,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -14457,8 +14493,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14502,41 +14538,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -14714,8 +14750,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14759,8 +14795,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14870,8 +14906,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14953,8 +14989,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15097,9 +15133,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15183,9 +15219,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15253,9 +15289,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15323,8 +15359,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15394,11 +15430,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -15501,7 +15537,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -15542,7 +15578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15577,8 +15613,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15629,13 +15665,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -15710,7 +15746,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15754,8 +15790,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15921,8 +15957,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -15972,13 +16008,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -16053,7 +16089,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16097,8 +16133,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16148,9 +16184,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16220,9 +16256,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16297,8 +16333,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16346,10 +16382,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="27" width="22.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16432,9 +16468,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16512,8 +16548,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -16583,8 +16619,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="4" bestFit="true" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="43.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -16933,11 +16969,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -17119,17 +17155,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -17263,17 +17299,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -17442,7 +17478,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17479,17 +17515,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -17602,9 +17638,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="93" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="93" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="93" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="93" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17645,8 +17681,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17679,9 +17715,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="93" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="93" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="93" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="93" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -17722,7 +17758,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -17955,9 +17991,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="10.0" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18013,14 +18049,14 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="4" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -18171,7 +18207,7 @@
         <v>979</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>1360</v>
@@ -18185,7 +18221,7 @@
         <v>979</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>1360</v>
@@ -18497,8 +18533,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -18541,15 +18577,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,16 +18666,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -18732,7 +18768,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -19275,13 +19311,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19807,16 +19843,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -19887,49 +19923,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -20184,49 +20220,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -20481,9 +20517,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="93" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="93" width="22.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="93" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="93" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -20586,8 +20622,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -20799,10 +20835,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="93" width="23.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="93" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="93" width="22.28515625" collapsed="true"/>
-    <col min="5" max="16384" style="93" width="8.7109375" collapsed="true"/>
+    <col min="1" max="2" width="23" style="93" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" style="93" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" style="93" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.7109375" style="93" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -20947,9 +20983,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="93" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="93" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="93" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="93" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -21084,10 +21120,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="93" width="22.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="93" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="93" width="32.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="93" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="22.7109375" style="93" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" style="93" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.7109375" style="93" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="25" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="82" activeTab="85"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="1434">
   <si>
     <t>Description</t>
   </si>
@@ -4149,36 +4149,9 @@
     <t>1286 Finance (TST)</t>
   </si>
   <si>
-    <t>1286 Account Director</t>
-  </si>
-  <si>
-    <t>1286 Admin</t>
-  </si>
-  <si>
-    <t>1286 Basic</t>
-  </si>
-  <si>
-    <t>1286 Biller</t>
-  </si>
-  <si>
     <t>1286 Finance</t>
   </si>
   <si>
-    <t>1286 HR</t>
-  </si>
-  <si>
-    <t>1286 Management</t>
-  </si>
-  <si>
-    <t>1286 Production</t>
-  </si>
-  <si>
-    <t>1286 Project Manager</t>
-  </si>
-  <si>
-    <t>1286 Senior Finance</t>
-  </si>
-  <si>
     <t>1286-Shanghai Ogilvy &amp; Mather Marketing Communications Consulting Co.,Ltd.</t>
   </si>
   <si>
@@ -4341,9 +4314,6 @@
     <t>1286_测试员工自动化</t>
   </si>
   <si>
-    <t>08/31/2020</t>
-  </si>
-  <si>
     <t>1286_AutomationEmpy@gmail.com</t>
   </si>
   <si>
@@ -4353,18 +4323,9 @@
     <t>09/10/2020</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>Acquisition</t>
   </si>
   <si>
-    <t>1286_AutoClient</t>
-  </si>
-  <si>
-    <t>A1286A0123</t>
-  </si>
-  <si>
     <t>110003</t>
   </si>
   <si>
@@ -4383,12 +4344,6 @@
     <t>AutoGlobalProduct 03September2020 14:29:48</t>
   </si>
   <si>
-    <t>1286_GlobalVendor</t>
-  </si>
-  <si>
-    <t>B1286B343</t>
-  </si>
-  <si>
     <t>125383</t>
   </si>
   <si>
@@ -4402,6 +4357,66 @@
   </si>
   <si>
     <t>9/23/2020</t>
+  </si>
+  <si>
+    <t>1286 Account Director (TST)</t>
+  </si>
+  <si>
+    <t>1286 Admin (TST)</t>
+  </si>
+  <si>
+    <t>1286 Basic (TST)</t>
+  </si>
+  <si>
+    <t>1286 Biller (TST)</t>
+  </si>
+  <si>
+    <t>1286 HR (TST)</t>
+  </si>
+  <si>
+    <t>1286 Management (TST)</t>
+  </si>
+  <si>
+    <t>1286 Production (TST)</t>
+  </si>
+  <si>
+    <t>1286 Project Manager (TST)</t>
+  </si>
+  <si>
+    <t>1286 Senior Finance (TST)</t>
+  </si>
+  <si>
+    <t>A1286A076</t>
+  </si>
+  <si>
+    <t>A1286A064</t>
+  </si>
+  <si>
+    <t>12869905</t>
+  </si>
+  <si>
+    <t>B1286B0082</t>
+  </si>
+  <si>
+    <t>09/28/2020</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>Shanghai Ogilvy &amp; Mather Marketing Communications Consulting Co.,Ltd.</t>
+  </si>
+  <si>
+    <t>9/8/2020（按</t>
+  </si>
+  <si>
+    <t>9/1/2020</t>
+  </si>
+  <si>
+    <t>1286600000</t>
+  </si>
+  <si>
+    <t>9/8/2020</t>
   </si>
 </sst>
 </file>
@@ -4682,7 +4697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4895,6 +4910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5217,7 +5233,7 @@
         <v>867</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5261,7 +5277,7 @@
         <v>891</v>
       </c>
       <c r="C5" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
@@ -5442,8 +5458,8 @@
   </sheetPr>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5828,7 +5844,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>184</v>
@@ -5916,7 +5932,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -5970,7 +5986,7 @@
         <v>832</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5992,7 +6008,7 @@
         <v>995</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6003,7 +6019,7 @@
         <v>996</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6036,7 +6052,7 @@
         <v>982</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6047,7 +6063,7 @@
         <v>983</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6069,7 +6085,7 @@
         <v>834</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6080,7 +6096,7 @@
         <v>998</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6091,7 +6107,7 @@
         <v>997</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6109,7 +6125,7 @@
         <v>984</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6499,7 +6515,7 @@
         <v>922</v>
       </c>
       <c r="AC3" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="AD3">
         <v>25</v>
@@ -6554,7 +6570,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6611,7 +6627,7 @@
         <v>832</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6677,7 +6693,7 @@
         <v>982</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6688,7 +6704,7 @@
         <v>983</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6710,7 +6726,7 @@
         <v>834</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6750,7 +6766,7 @@
         <v>984</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7020,7 +7036,7 @@
         <v>1177</v>
       </c>
       <c r="I3" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -7315,7 +7331,7 @@
       </c>
       <c r="B9"/>
       <c r="D9" t="s">
-        <v>1416</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="10" spans="1:168" x14ac:dyDescent="0.25">
@@ -7324,7 +7340,7 @@
       </c>
       <c r="B10"/>
       <c r="D10" t="s">
-        <v>1417</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="11" spans="1:168" x14ac:dyDescent="0.25">
@@ -7333,7 +7349,7 @@
       </c>
       <c r="B11"/>
       <c r="D11" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="12" spans="1:168" x14ac:dyDescent="0.25">
@@ -7342,7 +7358,7 @@
       </c>
       <c r="B12"/>
       <c r="D12" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="13" spans="1:168" x14ac:dyDescent="0.25">
@@ -7351,7 +7367,7 @@
       </c>
       <c r="B13"/>
       <c r="D13" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="14" spans="1:168" x14ac:dyDescent="0.25">
@@ -7360,7 +7376,7 @@
       </c>
       <c r="B14"/>
       <c r="D14" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="15" spans="1:168" x14ac:dyDescent="0.25">
@@ -7378,7 +7394,7 @@
       </c>
       <c r="B16"/>
       <c r="D16" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7850,19 +7866,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="D88"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="D89"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="D90"/>
     </row>
@@ -7912,7 +7928,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -8446,7 +8462,7 @@
         <v>1286</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>1062</v>
@@ -8475,13 +8491,14 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8492,7 +8509,7 @@
         <v>835</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8508,8 +8525,8 @@
       <c r="B3" s="27" t="s">
         <v>1041</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>1412</v>
+      <c r="C3" s="55">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -8681,10 +8698,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8709,7 +8726,7 @@
         <v>835</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="57"/>
@@ -8726,7 +8743,7 @@
         <v>861</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -8742,7 +8759,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -8757,8 +8774,8 @@
       <c r="B4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>1369</v>
+      <c r="C4" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -8773,8 +8790,8 @@
       <c r="B5" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>1354</v>
+      <c r="C5" s="14" t="s">
+        <v>1360</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -8790,8 +8807,8 @@
       <c r="B6" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>1408</v>
+      <c r="C6" s="6" t="s">
+        <v>1345</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="14"/>
@@ -8807,7 +8824,7 @@
         <v>1046</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>27</v>
+        <v>1427</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -8823,8 +8840,8 @@
       <c r="B8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="87" t="s">
-        <v>1409</v>
+      <c r="C8" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -8839,8 +8856,8 @@
       <c r="B9" s="87" t="s">
         <v>1047</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>30</v>
+      <c r="C9" s="87" t="s">
+        <v>1399</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -8856,7 +8873,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -8873,7 +8890,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -8889,8 +8906,8 @@
       <c r="B12" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>1366</v>
+      <c r="C12" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -8906,8 +8923,8 @@
       <c r="B13" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>1367</v>
+      <c r="C13" s="6" t="s">
+        <v>1357</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -8923,8 +8940,8 @@
       <c r="B14" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>833</v>
+      <c r="C14" s="7" t="s">
+        <v>1358</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
@@ -8940,8 +8957,8 @@
       <c r="B15" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>1368</v>
+      <c r="C15" s="6" t="s">
+        <v>833</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -8956,8 +8973,8 @@
       <c r="B16" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="C16" s="55" t="s">
-        <v>1355</v>
+      <c r="C16" s="7" t="s">
+        <v>1359</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
@@ -8974,7 +8991,7 @@
         <v>963</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>1355</v>
+        <v>1425</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -8990,8 +9007,8 @@
       <c r="B18" s="55" t="s">
         <v>963</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>170</v>
+      <c r="C18" s="55" t="s">
+        <v>1425</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -9007,8 +9024,8 @@
       <c r="B19" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="53" t="s">
-        <v>1048</v>
+      <c r="C19" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -9023,8 +9040,8 @@
       <c r="B20" s="53" t="s">
         <v>1048</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>40</v>
+      <c r="C20" s="53" t="s">
+        <v>1048</v>
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -9041,7 +9058,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -9057,7 +9074,9 @@
       <c r="B22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -9065,10 +9084,13 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="17"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -10264,8 +10286,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10295,7 +10317,7 @@
         <v>1051</v>
       </c>
       <c r="C2" t="s">
-        <v>1426</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10328,7 +10350,7 @@
         <v>832</v>
       </c>
       <c r="C5" t="s">
-        <v>1427</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10350,7 +10372,7 @@
         <v>1046</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1428</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10361,7 +10383,7 @@
         <v>1050</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1425</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10391,8 +10413,8 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10412,7 +10434,7 @@
         <v>835</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="28"/>
@@ -10430,7 +10452,7 @@
         <v>861</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -10448,7 +10470,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -10465,8 +10487,8 @@
       <c r="B4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>1369</v>
+      <c r="C4" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -10483,8 +10505,8 @@
       <c r="B5" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>1354</v>
+      <c r="C5" s="14" t="s">
+        <v>1360</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -10501,8 +10523,8 @@
       <c r="B6" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>1408</v>
+      <c r="C6" s="6" t="s">
+        <v>1345</v>
       </c>
       <c r="D6" s="14"/>
       <c r="F6" s="14"/>
@@ -10519,7 +10541,7 @@
         <v>1046</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>27</v>
+        <v>1428</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -10536,8 +10558,8 @@
       <c r="B8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="87" t="s">
-        <v>1409</v>
+      <c r="C8" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -10554,8 +10576,8 @@
       <c r="B9" s="87" t="s">
         <v>1047</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>30</v>
+      <c r="C9" s="87" t="s">
+        <v>1399</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -10573,7 +10595,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -10591,7 +10613,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -10608,8 +10630,8 @@
       <c r="B12" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>1366</v>
+      <c r="C12" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -10626,8 +10648,8 @@
       <c r="B13" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>1367</v>
+      <c r="C13" s="6" t="s">
+        <v>1357</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -10644,8 +10666,8 @@
       <c r="B14" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>833</v>
+      <c r="C14" s="7" t="s">
+        <v>1358</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
@@ -10662,8 +10684,8 @@
       <c r="B15" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>1368</v>
+      <c r="C15" s="6" t="s">
+        <v>833</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -10680,8 +10702,8 @@
       <c r="B16" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="C16" s="55" t="s">
-        <v>1355</v>
+      <c r="C16" s="7" t="s">
+        <v>1359</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
@@ -10699,7 +10721,7 @@
         <v>963</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>1355</v>
+        <v>1425</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -10716,8 +10738,8 @@
       <c r="B18" s="55" t="s">
         <v>963</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>170</v>
+      <c r="C18" s="55" t="s">
+        <v>1425</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -10734,8 +10756,8 @@
       <c r="B19" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="53" t="s">
-        <v>1048</v>
+      <c r="C19" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -10752,8 +10774,8 @@
       <c r="B20" s="53" t="s">
         <v>1048</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>40</v>
+      <c r="C20" s="53" t="s">
+        <v>1048</v>
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -10771,7 +10793,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -10788,8 +10810,8 @@
       <c r="B22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>14</v>
+      <c r="C22" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -10806,8 +10828,8 @@
       <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>1410</v>
+      <c r="C23" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -10825,7 +10847,7 @@
         <v>1046</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -10835,14 +10857,16 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>1050</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="15" t="s">
+        <v>1401</v>
+      </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -10855,6 +10879,7 @@
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -10865,7 +10890,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -14186,7 +14211,7 @@
         <v>688</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>835</v>
@@ -14807,7 +14832,7 @@
         <v>1319</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14829,7 +14854,7 @@
         <v>1319</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14851,7 +14876,7 @@
         <v>1319</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14862,7 +14887,7 @@
         <v>1069</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14918,7 +14943,7 @@
         <v>835</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14956,7 +14981,7 @@
         <v>214</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14984,7 +15009,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15012,7 +15037,7 @@
         <v>863</v>
       </c>
       <c r="C2" t="s">
-        <v>1344</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15023,7 +15048,7 @@
         <v>864</v>
       </c>
       <c r="C3" t="s">
-        <v>1345</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15034,7 +15059,7 @@
         <v>865</v>
       </c>
       <c r="C4" t="s">
-        <v>1346</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -15045,7 +15070,7 @@
         <v>866</v>
       </c>
       <c r="C5" t="s">
-        <v>1347</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15056,7 +15081,7 @@
         <v>867</v>
       </c>
       <c r="C6" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -15067,7 +15092,7 @@
         <v>868</v>
       </c>
       <c r="C7" t="s">
-        <v>1349</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -15078,7 +15103,7 @@
         <v>869</v>
       </c>
       <c r="C8" t="s">
-        <v>1350</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -15089,7 +15114,7 @@
         <v>870</v>
       </c>
       <c r="C9" t="s">
-        <v>1351</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -15100,7 +15125,7 @@
         <v>871</v>
       </c>
       <c r="C10" t="s">
-        <v>1352</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15111,7 +15136,7 @@
         <v>872</v>
       </c>
       <c r="C11" t="s">
-        <v>1353</v>
+        <v>1422</v>
       </c>
     </row>
   </sheetData>
@@ -15128,7 +15153,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15146,7 +15171,7 @@
         <v>835</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -15168,7 +15193,7 @@
         <v>835</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15506,16 +15531,16 @@
         <v>1286</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="E3" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="F3" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
   </sheetData>
@@ -16197,7 +16222,7 @@
         <v>835</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16269,7 +16294,7 @@
         <v>835</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16396,7 +16421,7 @@
         <v>835</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16438,10 +16463,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -16614,7 +16639,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16645,10 +16670,10 @@
         <v>832</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -16659,10 +16684,10 @@
         <v>962</v>
       </c>
       <c r="C3" t="s">
-        <v>1414</v>
+        <v>1348</v>
       </c>
       <c r="D3" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -16729,10 +16754,10 @@
         <v>944</v>
       </c>
       <c r="C8" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="D8" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -16743,10 +16768,10 @@
         <v>899</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>1415</v>
+        <v>1423</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -16757,10 +16782,10 @@
         <v>899</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>1415</v>
+        <v>1424</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -16869,10 +16894,10 @@
         <v>963</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>1355</v>
+        <v>1425</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -16911,10 +16936,10 @@
         <v>964</v>
       </c>
       <c r="C21" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="D21" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -16948,8 +16973,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="C16" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
+    <hyperlink ref="D16" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -17435,7 +17460,7 @@
         <v>1286</v>
       </c>
       <c r="E4" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="F4" t="s">
         <v>1267</v>
@@ -17447,13 +17472,13 @@
         <v>500</v>
       </c>
       <c r="L4" s="107" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="M4" t="s">
         <v>237</v>
       </c>
       <c r="O4" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="P4" s="55" t="s">
         <v>1269</v>
@@ -17753,12 +17778,15 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AC3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="15.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -17941,36 +17969,90 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D3" t="s">
+        <v>882</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L3" t="s">
+        <v>932</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="P3" t="s">
+        <v>833</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="U3" t="s">
+        <v>237</v>
+      </c>
+      <c r="V3" t="s">
         <v>1369</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
+      <c r="W3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>833</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1197</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18049,14 +18131,16 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -18066,7 +18150,7 @@
       <c r="B1">
         <v>1319</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="27">
         <v>1286</v>
       </c>
       <c r="D1">
@@ -18080,11 +18164,11 @@
       <c r="B2" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>1354</v>
+      <c r="C2" s="14" t="s">
+        <v>1345</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -18094,7 +18178,7 @@
       <c r="B3" t="s">
         <v>923</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="27" t="s">
         <v>923</v>
       </c>
       <c r="D3" t="s">
@@ -18108,7 +18192,7 @@
       <c r="B4" s="87" t="s">
         <v>924</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="108" t="s">
         <v>924</v>
       </c>
       <c r="D4" s="87" t="s">
@@ -18122,7 +18206,7 @@
       <c r="B5" s="55" t="s">
         <v>978</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>978</v>
       </c>
       <c r="D5" s="55" t="s">
@@ -18136,7 +18220,7 @@
       <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
@@ -18150,11 +18234,11 @@
       <c r="B7" t="s">
         <v>965</v>
       </c>
-      <c r="C7" t="s">
-        <v>1422</v>
+      <c r="C7" s="27" t="s">
+        <v>1349</v>
       </c>
       <c r="D7" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -18164,7 +18248,7 @@
       <c r="B8" s="55" t="s">
         <v>896</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="56" t="s">
         <v>896</v>
       </c>
       <c r="D8" s="55" t="s">
@@ -18178,7 +18262,7 @@
       <c r="B9" t="s">
         <v>966</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="27" t="s">
         <v>966</v>
       </c>
       <c r="D9" t="s">
@@ -18192,7 +18276,7 @@
       <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D10" t="s">
@@ -18206,11 +18290,11 @@
       <c r="B11" s="55" t="s">
         <v>979</v>
       </c>
-      <c r="C11" s="55" t="s">
-        <v>1423</v>
+      <c r="C11" s="56" t="s">
+        <v>1426</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -18220,11 +18304,11 @@
       <c r="B12" s="55" t="s">
         <v>979</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>1423</v>
+      <c r="C12" s="56" t="s">
+        <v>1426</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -18234,7 +18318,7 @@
       <c r="B13" t="s">
         <v>931</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="27" t="s">
         <v>931</v>
       </c>
       <c r="D13" t="s">
@@ -18248,7 +18332,7 @@
       <c r="B14" t="s">
         <v>932</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="27" t="s">
         <v>932</v>
       </c>
       <c r="D14" t="s">
@@ -18262,7 +18346,7 @@
       <c r="B15" t="s">
         <v>905</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="27" t="s">
         <v>905</v>
       </c>
       <c r="D15" t="s">
@@ -18276,7 +18360,7 @@
       <c r="B16" t="s">
         <v>936</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="27" t="s">
         <v>936</v>
       </c>
       <c r="D16" t="s">
@@ -18290,7 +18374,7 @@
       <c r="B17" t="s">
         <v>938</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="27" t="s">
         <v>938</v>
       </c>
       <c r="D17" t="s">
@@ -18304,7 +18388,7 @@
       <c r="B18" t="s">
         <v>934</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="27" t="s">
         <v>934</v>
       </c>
       <c r="D18" t="s">
@@ -18318,7 +18402,7 @@
       <c r="B19" s="55" t="s">
         <v>941</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="56" t="s">
         <v>941</v>
       </c>
       <c r="D19" s="55" t="s">
@@ -18332,7 +18416,7 @@
       <c r="B20" t="s">
         <v>934</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="27" t="s">
         <v>934</v>
       </c>
       <c r="D20" t="s">
@@ -18346,7 +18430,7 @@
       <c r="B21" t="s">
         <v>867</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="27" t="s">
         <v>1343</v>
       </c>
       <c r="D21" t="s">
@@ -18360,11 +18444,11 @@
       <c r="B22" t="s">
         <v>944</v>
       </c>
-      <c r="C22" t="s">
-        <v>1359</v>
+      <c r="C22" s="27" t="s">
+        <v>1350</v>
       </c>
       <c r="D22" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -18374,7 +18458,7 @@
       <c r="B23" t="s">
         <v>914</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="27" t="s">
         <v>914</v>
       </c>
       <c r="D23" t="s">
@@ -18388,7 +18472,7 @@
       <c r="B24" t="s">
         <v>934</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="27" t="s">
         <v>934</v>
       </c>
       <c r="D24" t="s">
@@ -18402,7 +18486,7 @@
       <c r="B25" t="s">
         <v>912</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="27" t="s">
         <v>912</v>
       </c>
       <c r="D25" t="s">
@@ -18416,7 +18500,7 @@
       <c r="B26" t="s">
         <v>949</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="27" t="s">
         <v>949</v>
       </c>
       <c r="D26" t="s">
@@ -18430,7 +18514,7 @@
       <c r="B27">
         <v>3000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="27">
         <v>3000</v>
       </c>
       <c r="D27">
@@ -18444,7 +18528,7 @@
       <c r="B28">
         <v>300000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="27">
         <v>300000</v>
       </c>
       <c r="D28">
@@ -18506,14 +18590,13 @@
       <c r="B35" s="55" t="s">
         <v>977</v>
       </c>
-      <c r="C35" s="55"/>
       <c r="D35" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -18620,12 +18703,12 @@
         <v>164</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -18737,19 +18820,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -18981,16 +19064,16 @@
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="B3" t="s">
         <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="D3" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="E3" t="s">
         <v>1019</v>
@@ -19014,10 +19097,10 @@
         <v>988</v>
       </c>
       <c r="L3" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="M3" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="N3" t="s">
         <v>1098</v>
@@ -19032,19 +19115,19 @@
         <v>1185</v>
       </c>
       <c r="R3" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="S3" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="T3" t="s">
         <v>990</v>
       </c>
       <c r="U3" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="V3" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="W3" t="s">
         <v>1100</v>
@@ -19059,7 +19142,7 @@
         <v>1201</v>
       </c>
       <c r="AA3" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="AB3" t="s">
         <v>1205</v>
@@ -19068,10 +19151,10 @@
         <v>992</v>
       </c>
       <c r="AD3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AE3" t="s">
         <v>1380</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>1389</v>
       </c>
       <c r="AF3" t="s">
         <v>1104</v>
@@ -19095,7 +19178,7 @@
         <v>993</v>
       </c>
       <c r="AM3" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="AN3" t="s">
         <v>1104</v>
@@ -19122,10 +19205,10 @@
         <v>839</v>
       </c>
       <c r="AV3" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="AW3" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="AX3" t="s">
         <v>1112</v>
@@ -19149,7 +19232,7 @@
         <v>994</v>
       </c>
       <c r="BE3" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="BF3" t="s">
         <v>1104</v>
@@ -19184,13 +19267,13 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="B4" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="C4" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="D4" t="s">
         <v>1098</v>
@@ -19199,7 +19282,7 @@
         <v>1098</v>
       </c>
       <c r="F4" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="G4" t="s">
         <v>1185</v>
@@ -19211,13 +19294,13 @@
         <v>1007</v>
       </c>
       <c r="J4" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="K4" t="s">
         <v>249</v>
       </c>
       <c r="L4" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="M4" t="s">
         <v>1108</v>
@@ -19226,7 +19309,7 @@
         <v>1108</v>
       </c>
       <c r="O4" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="P4" t="s">
         <v>1187</v>
@@ -19238,7 +19321,7 @@
         <v>1007</v>
       </c>
       <c r="S4" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="T4"/>
       <c r="U4"/>
@@ -19286,10 +19369,10 @@
       <c r="BK4"/>
       <c r="BL4"/>
       <c r="BM4" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="BN4" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="BO4" s="55" t="s">
         <v>1189</v>
@@ -19837,8 +19920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19892,19 +19975,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -20565,7 +20648,7 @@
         <v>1339</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -20617,7 +20700,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20656,7 +20739,7 @@
         <v>832</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -20678,7 +20761,7 @@
         <v>995</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20689,7 +20772,7 @@
         <v>996</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -20722,7 +20805,7 @@
         <v>982</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -20733,7 +20816,7 @@
         <v>983</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -20755,7 +20838,7 @@
         <v>834</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -20766,7 +20849,7 @@
         <v>998</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -20777,7 +20860,7 @@
         <v>997</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -20795,7 +20878,7 @@
         <v>984</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -21026,7 +21109,7 @@
         <v>1339</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -21183,7 +21266,7 @@
         <v>1284</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="82" activeTab="85"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="28" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -4353,9 +4353,6 @@
     <t>1286AutomationUser</t>
   </si>
   <si>
-    <t xml:space="preserve">1286-Grey Worldwide Sdn Bhd </t>
-  </si>
-  <si>
     <t>9/23/2020</t>
   </si>
   <si>
@@ -4417,6 +4414,9 @@
   </si>
   <si>
     <t>9/8/2020</t>
+  </si>
+  <si>
+    <t>Company</t>
   </si>
 </sst>
 </file>
@@ -8701,7 +8701,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8824,7 +8824,7 @@
         <v>1046</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -8991,7 +8991,7 @@
         <v>963</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -9008,7 +9008,7 @@
         <v>963</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -10286,8 +10286,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10322,7 +10322,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>1</v>
+        <v>1433</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>835</v>
@@ -10350,7 +10350,7 @@
         <v>832</v>
       </c>
       <c r="C5" t="s">
-        <v>1412</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10372,7 +10372,7 @@
         <v>1046</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10541,7 +10541,7 @@
         <v>1046</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -10721,7 +10721,7 @@
         <v>963</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -10739,7 +10739,7 @@
         <v>963</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -15037,7 +15037,7 @@
         <v>863</v>
       </c>
       <c r="C2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15048,7 +15048,7 @@
         <v>864</v>
       </c>
       <c r="C3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15059,7 +15059,7 @@
         <v>865</v>
       </c>
       <c r="C4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -15070,7 +15070,7 @@
         <v>866</v>
       </c>
       <c r="C5" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15092,7 +15092,7 @@
         <v>868</v>
       </c>
       <c r="C7" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -15103,7 +15103,7 @@
         <v>869</v>
       </c>
       <c r="C8" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -15114,7 +15114,7 @@
         <v>870</v>
       </c>
       <c r="C9" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -15125,7 +15125,7 @@
         <v>871</v>
       </c>
       <c r="C10" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15136,7 +15136,7 @@
         <v>872</v>
       </c>
       <c r="C11" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
   </sheetData>
@@ -16768,7 +16768,7 @@
         <v>899</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>1352</v>
@@ -16782,7 +16782,7 @@
         <v>899</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>1352</v>
@@ -16894,7 +16894,7 @@
         <v>963</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D18" s="55" t="s">
         <v>1346</v>
@@ -17973,25 +17973,25 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D3" t="s">
         <v>882</v>
       </c>
       <c r="E3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F3" t="s">
         <v>1430</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1431</v>
       </c>
       <c r="G3" t="s">
         <v>1410</v>
       </c>
       <c r="H3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="I3" t="s">
         <v>1432</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1433</v>
       </c>
       <c r="J3" t="s">
         <v>1267</v>
@@ -18021,10 +18021,10 @@
         <v>1301</v>
       </c>
       <c r="S3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="T3" t="s">
         <v>1432</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1433</v>
       </c>
       <c r="U3" t="s">
         <v>237</v>
@@ -18291,7 +18291,7 @@
         <v>979</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>1351</v>
@@ -18305,7 +18305,7 @@
         <v>979</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>1351</v>
@@ -19920,7 +19920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestSuite_BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="28" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="99" activeTab="102"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -104,6 +104,17 @@
     <sheet name="ChangePaymentSelection" sheetId="91" r:id="rId90"/>
     <sheet name="CreatePaymentFile" sheetId="89" r:id="rId91"/>
     <sheet name="PrintPaymentRemittance" sheetId="90" r:id="rId92"/>
+    <sheet name="CreateGlobalBrand" sheetId="97" r:id="rId93"/>
+    <sheet name="CreateGlobalProduct" sheetId="98" r:id="rId94"/>
+    <sheet name="CreateCompanyClient" sheetId="99" r:id="rId95"/>
+    <sheet name="CreateCompanyBrand" sheetId="100" r:id="rId96"/>
+    <sheet name="CreateCompanyProduct" sheetId="101" r:id="rId97"/>
+    <sheet name="AmendCompanyClient" sheetId="102" r:id="rId98"/>
+    <sheet name="AmendCompanyBrand" sheetId="103" r:id="rId99"/>
+    <sheet name="AmendCompanyProduct" sheetId="104" r:id="rId100"/>
+    <sheet name="AmendGlobalClient" sheetId="105" r:id="rId101"/>
+    <sheet name="AmendGlobalBrand" sheetId="106" r:id="rId102"/>
+    <sheet name="AmendGlobalProduct" sheetId="107" r:id="rId103"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -115,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="1468">
   <si>
     <t>Description</t>
   </si>
@@ -4417,13 +4428,115 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>1284-Shanghai Ogilvy &amp; Mather Advertising Ltd.</t>
+  </si>
+  <si>
+    <t>1284_GlobalBrand</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Pepsi1</t>
+  </si>
+  <si>
+    <t>1284 Finance</t>
+  </si>
+  <si>
+    <t>20 Days</t>
+  </si>
+  <si>
+    <t>1284_CNY_Billable_Price_List</t>
+  </si>
+  <si>
+    <t>1284_GlobalProduct</t>
+  </si>
+  <si>
+    <t>1707-Wunderman Thompson Mumbai</t>
+  </si>
+  <si>
+    <t>1707-J. Walter Thompson Mumbai</t>
+  </si>
+  <si>
+    <t>100404</t>
+  </si>
+  <si>
+    <t>Ford Us</t>
+  </si>
+  <si>
+    <t>Settling company</t>
+  </si>
+  <si>
+    <t>1284</t>
+  </si>
+  <si>
+    <t>mathew@oglivy.com</t>
+  </si>
+  <si>
+    <t>AccountDirectorNo</t>
+  </si>
+  <si>
+    <t>12849905</t>
+  </si>
+  <si>
+    <t>ControlAccountNo</t>
+  </si>
+  <si>
+    <t>25 Days</t>
+  </si>
+  <si>
+    <t>JobPricelListSales</t>
+  </si>
+  <si>
+    <t>Phone No</t>
+  </si>
+  <si>
+    <t>7708932452</t>
+  </si>
+  <si>
+    <t>100404001</t>
+  </si>
+  <si>
+    <t>FORD US-FEE</t>
+  </si>
+  <si>
+    <t>Product Number</t>
+  </si>
+  <si>
+    <t>100404001001</t>
+  </si>
+  <si>
+    <t>+91 2261083101</t>
+  </si>
+  <si>
+    <t>+91 2261083232</t>
+  </si>
+  <si>
+    <t>Address_1</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.84516</t>
+  </si>
+  <si>
+    <t>Address_2</t>
+  </si>
+  <si>
+    <t>Address_3</t>
+  </si>
+  <si>
+    <t>No.3  Ward No.83343</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.83343</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4472,6 +4585,12 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4697,7 +4816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4911,6 +5030,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5451,6 +5573,315 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="110"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" s="55">
+        <v>98537964156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B6" s="111"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="88">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B8" s="87"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="88">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4" s="111"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B10" s="87"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="AutomoneEmail@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="88">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B4" s="111"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B10" s="87"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -10286,7 +10717,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -21311,4 +21742,868 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="88">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>906</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>909</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>911</v>
+      </c>
+      <c r="B12">
+        <v>12849905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>913</v>
+      </c>
+      <c r="B14" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>915</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="88">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>906</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>907</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>909</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>911</v>
+      </c>
+      <c r="B11">
+        <v>12849905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>913</v>
+      </c>
+      <c r="B13" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>915</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="88">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>892</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>943</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B11" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>947</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>945</v>
+      </c>
+      <c r="B14" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="109">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B3" s="55"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B8" s="55">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>943</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B13" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>947</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>945</v>
+      </c>
+      <c r="B16" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="109">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B3" s="55"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B8" s="55">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>943</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B13" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>947</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>945</v>
+      </c>
+      <c r="B16" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="110"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>692</v>
+      </c>
+      <c r="B6" s="111"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\BAU\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="103" activeTab="106"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="77" activeTab="79"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -90,35 +90,37 @@
     <sheet name="CreateCurrencyJournal" sheetId="85" r:id="rId76"/>
     <sheet name="CopyGL" sheetId="86" r:id="rId77"/>
     <sheet name="GLMPL" sheetId="87" r:id="rId78"/>
-    <sheet name="InvoicePreparation" sheetId="93" r:id="rId79"/>
-    <sheet name="InvoicingFromBudget" sheetId="63" r:id="rId80"/>
-    <sheet name="InvoiceMPL" sheetId="70" r:id="rId81"/>
-    <sheet name="InvoiceOnAccount" sheetId="80" r:id="rId82"/>
-    <sheet name="JobInvoiceAllocation_WIP" sheetId="94" r:id="rId83"/>
-    <sheet name="Time_Material_Invocing" sheetId="96" r:id="rId84"/>
-    <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId85"/>
-    <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId86"/>
-    <sheet name="CreatePaymentSelection" sheetId="88" r:id="rId87"/>
-    <sheet name="ChangePaymentSelection" sheetId="91" r:id="rId88"/>
-    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId89"/>
-    <sheet name="PrintPaymentRemittance" sheetId="90" r:id="rId90"/>
-    <sheet name="CreateGlobalBrand" sheetId="97" r:id="rId91"/>
-    <sheet name="CreateGlobalProduct" sheetId="98" r:id="rId92"/>
-    <sheet name="CreateCompanyClient" sheetId="99" r:id="rId93"/>
-    <sheet name="CreateCompanyBrand" sheetId="100" r:id="rId94"/>
-    <sheet name="CreateCompanyProduct" sheetId="101" r:id="rId95"/>
-    <sheet name="AmendCompanyClient" sheetId="102" r:id="rId96"/>
-    <sheet name="AmendCompanyBrand" sheetId="103" r:id="rId97"/>
-    <sheet name="AmendCompanyProduct" sheetId="104" r:id="rId98"/>
-    <sheet name="AmendGlobalClient" sheetId="105" r:id="rId99"/>
-    <sheet name="AmendGlobalBrand" sheetId="106" r:id="rId100"/>
-    <sheet name="AmendGlobalProduct" sheetId="107" r:id="rId101"/>
-    <sheet name="BlockCompanyProduct" sheetId="108" r:id="rId102"/>
-    <sheet name="BlockCompanyBrand" sheetId="109" r:id="rId103"/>
-    <sheet name="BlockCompanyClient" sheetId="110" r:id="rId104"/>
-    <sheet name="BlockGlobalProduct" sheetId="111" r:id="rId105"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId106"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId107"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="112" r:id="rId79"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="113" r:id="rId80"/>
+    <sheet name="InvoicePreparation" sheetId="93" r:id="rId81"/>
+    <sheet name="InvoicingFromBudget" sheetId="63" r:id="rId82"/>
+    <sheet name="InvoiceMPL" sheetId="70" r:id="rId83"/>
+    <sheet name="InvoiceOnAccount" sheetId="80" r:id="rId84"/>
+    <sheet name="JobInvoiceAllocation_WIP" sheetId="94" r:id="rId85"/>
+    <sheet name="Time_Material_Invocing" sheetId="96" r:id="rId86"/>
+    <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId87"/>
+    <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId88"/>
+    <sheet name="CreatePaymentSelection" sheetId="88" r:id="rId89"/>
+    <sheet name="ChangePaymentSelection" sheetId="91" r:id="rId90"/>
+    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId91"/>
+    <sheet name="PrintPaymentRemittance" sheetId="90" r:id="rId92"/>
+    <sheet name="CreateGlobalBrand" sheetId="97" r:id="rId93"/>
+    <sheet name="CreateGlobalProduct" sheetId="98" r:id="rId94"/>
+    <sheet name="CreateCompanyClient" sheetId="99" r:id="rId95"/>
+    <sheet name="CreateCompanyBrand" sheetId="100" r:id="rId96"/>
+    <sheet name="CreateCompanyProduct" sheetId="101" r:id="rId97"/>
+    <sheet name="AmendCompanyClient" sheetId="102" r:id="rId98"/>
+    <sheet name="AmendCompanyBrand" sheetId="103" r:id="rId99"/>
+    <sheet name="AmendCompanyProduct" sheetId="104" r:id="rId100"/>
+    <sheet name="AmendGlobalClient" sheetId="105" r:id="rId101"/>
+    <sheet name="AmendGlobalBrand" sheetId="106" r:id="rId102"/>
+    <sheet name="AmendGlobalProduct" sheetId="107" r:id="rId103"/>
+    <sheet name="BlockCompanyProduct" sheetId="108" r:id="rId104"/>
+    <sheet name="BlockCompanyBrand" sheetId="109" r:id="rId105"/>
+    <sheet name="BlockCompanyClient" sheetId="110" r:id="rId106"/>
+    <sheet name="BlockGlobalProduct" sheetId="111" r:id="rId107"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId108"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId109"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -130,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3565" uniqueCount="1478">
   <si>
     <t>Description</t>
   </si>
@@ -4525,6 +4527,45 @@
   </si>
   <si>
     <t>No.2  Ward No.83343</t>
+  </si>
+  <si>
+    <t>WorkCode</t>
+  </si>
+  <si>
+    <t>NoForAccrual</t>
+  </si>
+  <si>
+    <t>EntryDate</t>
+  </si>
+  <si>
+    <t>E1005</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>Job Sheet_2</t>
+  </si>
+  <si>
+    <t>Budget sheet_2</t>
+  </si>
+  <si>
+    <t>Quote Sheet_2</t>
+  </si>
+  <si>
+    <t>PO Sheet_2</t>
+  </si>
+  <si>
+    <t>Approve PO Sheet_2</t>
+  </si>
+  <si>
+    <t>E1171</t>
+  </si>
+  <si>
+    <t>E1580</t>
+  </si>
+  <si>
+    <t>10/09/2020</t>
   </si>
 </sst>
 </file>
@@ -5570,7 +5611,75 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="110"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>906</v>
+      </c>
+      <c r="B4" s="55">
+        <v>98537964156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>904</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B6" s="111"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -5579,7 +5688,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="16384" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
@@ -5607,54 +5716,40 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>692</v>
-      </c>
-      <c r="B4" s="111"/>
+        <v>1459</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>693</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1461</v>
+        <v>906</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
         <v>904</v>
       </c>
-      <c r="B10" s="87"/>
+      <c r="B8" s="87"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="AutomoneEmail@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -5693,6 +5788,92 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4" s="111"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>904</v>
+      </c>
+      <c r="B10" s="87"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="AutomoneEmail@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="88">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1455</v>
       </c>
       <c r="B4" s="111"/>
@@ -5737,7 +5918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -5791,7 +5972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -5845,7 +6026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -5889,7 +6070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -5943,7 +6124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -6000,14 +6181,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -18655,26 +18836,28 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -18693,48 +18876,50 @@
       <c r="F1" s="56" t="s">
         <v>1082</v>
       </c>
-      <c r="G1" s="56" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>1085</v>
-      </c>
-      <c r="J1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="26" t="s">
-        <v>1367</v>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1467</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="55"/>
-      <c r="K2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="A2">
+        <v>1319</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>1469</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19223,6 +19408,225 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1707</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="55"/>
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19323,7 +19727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO4"/>
   <sheetViews>
@@ -19866,7 +20270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY3"/>
   <sheetViews>
@@ -20361,7 +20765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -20398,7 +20802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -20478,7 +20882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI3"/>
   <sheetViews>
@@ -20775,7 +21179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI3"/>
   <sheetViews>
@@ -21072,7 +21476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -21166,291 +21570,6 @@
       </c>
       <c r="B9" s="102" t="s">
         <v>1334</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="23" style="93" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" style="93" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.28515625" style="93" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.7109375" style="93" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="104">
-        <v>1319</v>
-      </c>
-      <c r="C1" s="92">
-        <v>1713</v>
-      </c>
-      <c r="D1" s="92">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>977</v>
-      </c>
-      <c r="D2" s="101" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D3" s="101" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="101" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D6" s="101" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>680</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D7" s="101" t="s">
-        <v>1330</v>
-      </c>
-      <c r="L7" s="93" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C8" s="96">
-        <v>44017</v>
-      </c>
-      <c r="D8" s="101" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C9" s="106">
-        <v>28250</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="93" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="92">
-        <v>1319</v>
-      </c>
-      <c r="C1">
-        <v>1286</v>
-      </c>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2">
-        <v>121255</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>680</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B8" s="101" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13" s="93" t="s">
-        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -21677,6 +21796,291 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="23" style="93" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" style="93" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" style="93" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.7109375" style="93" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="104">
+        <v>1319</v>
+      </c>
+      <c r="C1" s="92">
+        <v>1713</v>
+      </c>
+      <c r="D1" s="92">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="93" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="93" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D6" s="101" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L7" s="93" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="93" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C8" s="96">
+        <v>44017</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C9" s="106">
+        <v>28250</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="93" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="92">
+        <v>1319</v>
+      </c>
+      <c r="C1">
+        <v>1286</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2">
+        <v>121255</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="93" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="93" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B7" s="101" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="93" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" s="93" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21795,7 +22199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -21935,7 +22339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -22069,7 +22473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -22220,7 +22624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -22376,7 +22780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -22532,7 +22936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -22591,7 +22995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -22657,144 +23061,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B2" s="110"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>906</v>
-      </c>
-      <c r="B4" s="55">
-        <v>98537964156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>904</v>
-      </c>
-      <c r="B5" s="55"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B6" s="111"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="88">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B2" s="55"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>904</v>
-      </c>
-      <c r="B8" s="87"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="77" activeTab="79"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="25" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3565" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3668" uniqueCount="1521">
   <si>
     <t>Description</t>
   </si>
@@ -2822,9 +2822,6 @@
     <t>Tax No.</t>
   </si>
   <si>
-    <t>AA006</t>
-  </si>
-  <si>
     <t>Company Reg. No.</t>
   </si>
   <si>
@@ -3011,18 +3008,12 @@
     <t>WHMethod</t>
   </si>
   <si>
-    <t>1319_AutoClient</t>
-  </si>
-  <si>
     <t>13199922</t>
   </si>
   <si>
     <t>1319_CNY_Billable_Price_List</t>
   </si>
   <si>
-    <t>1319_GlobalVendor</t>
-  </si>
-  <si>
     <t>Waug han</t>
   </si>
   <si>
@@ -3248,9 +3239,6 @@
     <t>Sun Description</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -3317,24 +3305,15 @@
     <t>AugReg001</t>
   </si>
   <si>
-    <t>07/31/2020</t>
-  </si>
-  <si>
     <t>Vendor Invoice Due Date</t>
   </si>
   <si>
-    <t>8/30/2020</t>
-  </si>
-  <si>
     <t>Post Vendor Journal</t>
   </si>
   <si>
     <t xml:space="preserve">Automation FixedAsset </t>
   </si>
   <si>
-    <t>7/31/2020</t>
-  </si>
-  <si>
     <t>Book Depreciation</t>
   </si>
   <si>
@@ -3959,9 +3938,6 @@
     <t>General Journal No</t>
   </si>
   <si>
-    <t>1319100025</t>
-  </si>
-  <si>
     <t>JOURNAL NO</t>
   </si>
   <si>
@@ -3977,15 +3953,9 @@
     <t>Submitted On</t>
   </si>
   <si>
-    <t>8/3/2020</t>
-  </si>
-  <si>
     <t>Period start</t>
   </si>
   <si>
-    <t>8/1/2020</t>
-  </si>
-  <si>
     <t>Period end</t>
   </si>
   <si>
@@ -3995,9 +3965,6 @@
     <t>Transaction No_0</t>
   </si>
   <si>
-    <t>1319600001</t>
-  </si>
-  <si>
     <t>Entry Date_0</t>
   </si>
   <si>
@@ -4151,9 +4118,6 @@
     <t>CN ACH Payments</t>
   </si>
   <si>
-    <t>1319500000</t>
-  </si>
-  <si>
     <t>1286 Finance (TST)</t>
   </si>
   <si>
@@ -4566,6 +4530,171 @@
   </si>
   <si>
     <t>10/09/2020</t>
+  </si>
+  <si>
+    <t>1319_自动客户端</t>
+  </si>
+  <si>
+    <t>1319200031</t>
+  </si>
+  <si>
+    <t>Fees / Retainer</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>90.44</t>
+  </si>
+  <si>
+    <t>4,974.10</t>
+  </si>
+  <si>
+    <t>300.61</t>
+  </si>
+  <si>
+    <t>36.07</t>
+  </si>
+  <si>
+    <t>5310.78</t>
+  </si>
+  <si>
+    <t>Quote Revision</t>
+  </si>
+  <si>
+    <t>Quote Total</t>
+  </si>
+  <si>
+    <t>14,974.10</t>
+  </si>
+  <si>
+    <t>1319_全球供应商</t>
+  </si>
+  <si>
+    <t>AA006551</t>
+  </si>
+  <si>
+    <t>AA006561</t>
+  </si>
+  <si>
+    <t>108549</t>
+  </si>
+  <si>
+    <t>1319_自动客户端 20October2020 18:57:34</t>
+  </si>
+  <si>
+    <t>108549001</t>
+  </si>
+  <si>
+    <t>AutoGlobalBrand 20October2020 18:57:34</t>
+  </si>
+  <si>
+    <t>108549001001</t>
+  </si>
+  <si>
+    <t>AutoGlobalProduct 20October2020 18:57:34</t>
+  </si>
+  <si>
+    <t>122160</t>
+  </si>
+  <si>
+    <t>1319200033</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1319100064</t>
+  </si>
+  <si>
+    <t>1319700114</t>
+  </si>
+  <si>
+    <t>10/21/2020</t>
+  </si>
+  <si>
+    <t>Oct_BAU_Reg</t>
+  </si>
+  <si>
+    <t>BAUReg001</t>
+  </si>
+  <si>
+    <t>10,600.00</t>
+  </si>
+  <si>
+    <t>1319100330</t>
+  </si>
+  <si>
+    <t>11/20/2020</t>
+  </si>
+  <si>
+    <t>1319400031</t>
+  </si>
+  <si>
+    <t>Time &amp; Material Invocing No</t>
+  </si>
+  <si>
+    <t>Time &amp; Material Invocing Job</t>
+  </si>
+  <si>
+    <t>1319100332</t>
+  </si>
+  <si>
+    <t>10/30/2020</t>
+  </si>
+  <si>
+    <t>131910118</t>
+  </si>
+  <si>
+    <t>1319100333</t>
+  </si>
+  <si>
+    <t>10/21/2020（按</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/31/2020</t>
+  </si>
+  <si>
+    <t>1319600166</t>
+  </si>
+  <si>
+    <t>PaymentSelectionMpl</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1319\PaymentSelection.pdf</t>
+  </si>
+  <si>
+    <t>1319200035</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1319\Print Job Order Confirmation-6.pdf</t>
+  </si>
+  <si>
+    <t>1319400032</t>
+  </si>
+  <si>
+    <t>1319100334</t>
+  </si>
+  <si>
+    <t>131910252</t>
+  </si>
+  <si>
+    <t>1319200036</t>
+  </si>
+  <si>
+    <t>C:\GlobalTestAutomation1\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1319\Print Job Quote-15.pdf</t>
+  </si>
+  <si>
+    <t>1319400033</t>
+  </si>
+  <si>
+    <t>1319100338</t>
   </si>
 </sst>
 </file>
@@ -5391,7 +5520,7 @@
         <v>864</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -5424,10 +5553,10 @@
         <v>887</v>
       </c>
       <c r="B4" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C4" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5435,7 +5564,7 @@
         <v>888</v>
       </c>
       <c r="C5" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
     </row>
   </sheetData>
@@ -5509,7 +5638,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -5517,7 +5646,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5541,7 +5670,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5549,7 +5678,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5573,7 +5702,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5581,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5589,7 +5718,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5597,7 +5726,7 @@
         <v>163</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,7 +5758,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5648,7 +5777,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B4" s="55">
         <v>98537964156</v>
@@ -5656,19 +5785,19 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B5" s="55"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="B6" s="111"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
     </row>
   </sheetData>
@@ -5716,30 +5845,30 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="B4" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B8" s="87"/>
     </row>
@@ -5799,30 +5928,30 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="B6" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B10" s="87"/>
     </row>
@@ -5874,41 +6003,41 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="B4" s="111"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="B6" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B10" s="87"/>
     </row>
@@ -5938,7 +6067,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5957,13 +6086,13 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="B4" s="111"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
     </row>
   </sheetData>
@@ -5992,7 +6121,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6046,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6109,13 +6238,13 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="B4" s="111"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
     </row>
   </sheetData>
@@ -6232,8 +6361,8 @@
   </sheetPr>
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6418,10 +6547,10 @@
         <v>1000</v>
       </c>
       <c r="G2" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H2" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -6430,10 +6559,10 @@
         <v>500</v>
       </c>
       <c r="K2" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="L2" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M2">
         <v>20</v>
@@ -6442,10 +6571,10 @@
         <v>750</v>
       </c>
       <c r="O2" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="P2" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -6454,39 +6583,15 @@
         <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="T2" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="U2">
         <v>10</v>
       </c>
       <c r="V2">
-        <v>1000</v>
-      </c>
-      <c r="W2" t="s">
-        <v>835</v>
-      </c>
-      <c r="X2" t="s">
-        <v>836</v>
-      </c>
-      <c r="Y2">
-        <v>25</v>
-      </c>
-      <c r="Z2">
-        <v>250</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>919</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>991</v>
-      </c>
-      <c r="AC2">
-        <v>25</v>
-      </c>
-      <c r="AD2">
         <v>1000</v>
       </c>
     </row>
@@ -6507,10 +6612,10 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H3" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I3">
         <v>15</v>
@@ -6519,10 +6624,10 @@
         <v>500</v>
       </c>
       <c r="K3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="L3" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M3">
         <v>20</v>
@@ -6531,10 +6636,10 @@
         <v>750</v>
       </c>
       <c r="O3" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="P3" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -6543,10 +6648,10 @@
         <v>100</v>
       </c>
       <c r="S3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="T3" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="U3">
         <v>10</v>
@@ -6567,10 +6672,10 @@
         <v>250</v>
       </c>
       <c r="AA3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AB3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="AC3">
         <v>25</v>
@@ -6618,7 +6723,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>184</v>
@@ -6638,7 +6743,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6683,7 +6788,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -6694,19 +6799,139 @@
     <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F1" t="s">
+        <v>998</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F2" t="s">
+        <v>999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
   </sheetData>
@@ -6760,7 +6985,7 @@
         <v>829</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6779,21 +7004,21 @@
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6823,10 +7048,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6834,10 +7059,10 @@
         <v>52</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6859,7 +7084,7 @@
         <v>831</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6867,10 +7092,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6878,10 +7103,10 @@
         <v>57</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6896,10 +7121,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6922,13 +7147,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="98" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -6988,7 +7213,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>164</v>
@@ -7125,7 +7350,7 @@
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -7134,10 +7359,10 @@
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I2" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="J2">
         <v>15</v>
@@ -7146,10 +7371,10 @@
         <v>500</v>
       </c>
       <c r="L2" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="M2" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="N2">
         <v>20</v>
@@ -7158,10 +7383,10 @@
         <v>750</v>
       </c>
       <c r="P2" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="Q2" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="R2">
         <v>10</v>
@@ -7170,10 +7395,10 @@
         <v>100</v>
       </c>
       <c r="T2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="U2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="V2">
         <v>10</v>
@@ -7185,7 +7410,7 @@
         <v>835</v>
       </c>
       <c r="Y2" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="Z2">
         <v>25</v>
@@ -7194,10 +7419,10 @@
         <v>250</v>
       </c>
       <c r="AB2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AC2" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="AD2">
         <v>25</v>
@@ -7217,7 +7442,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -7226,10 +7451,10 @@
         <v>1000</v>
       </c>
       <c r="H3" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I3" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -7238,10 +7463,10 @@
         <v>500</v>
       </c>
       <c r="L3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="M3" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -7250,10 +7475,10 @@
         <v>750</v>
       </c>
       <c r="P3" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="Q3" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="R3">
         <v>10</v>
@@ -7262,10 +7487,10 @@
         <v>100</v>
       </c>
       <c r="T3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="U3" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="V3">
         <v>10</v>
@@ -7277,7 +7502,7 @@
         <v>835</v>
       </c>
       <c r="Y3" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="Z3">
         <v>25</v>
@@ -7286,10 +7511,10 @@
         <v>250</v>
       </c>
       <c r="AB3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AC3" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="AD3">
         <v>25</v>
@@ -7324,7 +7549,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C1" s="67" t="s">
         <v>164</v>
@@ -7338,13 +7563,13 @@
         <v>832</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7401,7 +7626,7 @@
         <v>829</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7420,21 +7645,21 @@
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7464,10 +7689,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7475,10 +7700,10 @@
         <v>52</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7500,7 +7725,7 @@
         <v>831</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7508,10 +7733,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7519,10 +7744,10 @@
         <v>57</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7537,10 +7762,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7563,13 +7788,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="98" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
   </sheetData>
@@ -7629,7 +7854,7 @@
         <v>63</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>164</v>
@@ -7766,7 +7991,7 @@
         <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -7775,10 +8000,10 @@
         <v>1000</v>
       </c>
       <c r="H2" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="I2" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="J2">
         <v>15</v>
@@ -7807,10 +8032,10 @@
         <v>1000</v>
       </c>
       <c r="H3" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="I3" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -7830,67 +8055,67 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FL90"/>
+  <dimension ref="A1:FN96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.140625" style="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="168" width="32" style="27" customWidth="1" collapsed="1"/>
-    <col min="169" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="4" width="23.140625" style="27" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.85546875" style="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="170" width="32" style="27" customWidth="1" collapsed="1"/>
+    <col min="171" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:168" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B1" s="84">
         <v>1319</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="13">
         <v>1201</v>
       </c>
-      <c r="D1" s="13">
+      <c r="F1" s="13">
         <v>1286</v>
       </c>
-      <c r="E1" s="13">
+      <c r="G1" s="13">
         <v>1203</v>
       </c>
-      <c r="F1" s="13">
+      <c r="H1" s="13">
         <v>1284</v>
       </c>
-      <c r="G1" s="13">
+      <c r="I1" s="13">
         <v>1205</v>
       </c>
-      <c r="H1" s="13">
+      <c r="J1" s="13">
         <v>1301</v>
       </c>
-      <c r="I1" s="13">
+      <c r="K1" s="13">
         <v>1309</v>
       </c>
-      <c r="J1" s="13">
+      <c r="L1" s="13">
         <v>1240</v>
       </c>
-      <c r="K1" s="13">
+      <c r="M1" s="13">
         <v>1315</v>
       </c>
-      <c r="L1" s="13">
+      <c r="N1" s="13">
         <v>1321</v>
       </c>
-      <c r="M1" s="13">
+      <c r="O1" s="13">
         <v>1216</v>
       </c>
-      <c r="N1" s="13">
+      <c r="P1" s="13">
         <v>1289</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
@@ -8043,618 +8268,922 @@
       <c r="FJ1" s="13"/>
       <c r="FK1" s="13"/>
       <c r="FL1" s="13"/>
-    </row>
-    <row r="2" spans="1:168" x14ac:dyDescent="0.25">
+      <c r="FM1" s="13"/>
+      <c r="FN1" s="13"/>
+    </row>
+    <row r="2" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>1517</v>
+      </c>
       <c r="C2"/>
-      <c r="D2"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="D2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="H2" s="55"/>
       <c r="I2" s="56"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:168" x14ac:dyDescent="0.25">
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="55"/>
+    </row>
+    <row r="3" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>1504</v>
+      </c>
       <c r="C3"/>
-    </row>
-    <row r="4" spans="1:168" x14ac:dyDescent="0.25">
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:168" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>1491</v>
+      </c>
       <c r="C5"/>
-      <c r="D5" s="56"/>
-    </row>
-    <row r="6" spans="1:168" x14ac:dyDescent="0.25">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>679</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C6"/>
       <c r="D6"/>
-    </row>
-    <row r="7" spans="1:168" x14ac:dyDescent="0.25">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>680</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C7"/>
       <c r="D7"/>
-    </row>
-    <row r="8" spans="1:168" x14ac:dyDescent="0.25">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:170" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>958</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B9" t="s">
+        <v>864</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="1:168" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>961</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="F12" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>962</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="F13" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>963</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="F14" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>964</v>
       </c>
-      <c r="B9"/>
-      <c r="D9" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:168" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B15" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="F15" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:170" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>965</v>
       </c>
-      <c r="B10"/>
-      <c r="D10" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:168" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B16" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="F16" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>966</v>
       </c>
-      <c r="B11"/>
-      <c r="D11" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:168" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B17" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="F17" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>967</v>
       </c>
-      <c r="B12"/>
-      <c r="D12" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:168" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>968</v>
-      </c>
-      <c r="B13"/>
-      <c r="D13" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:168" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>969</v>
-      </c>
-      <c r="B14"/>
-      <c r="D14" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:168" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>970</v>
-      </c>
-      <c r="B15"/>
-      <c r="D15" t="s">
+      <c r="B18" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="16" spans="1:168" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="F18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>171</v>
       </c>
-      <c r="B16"/>
-      <c r="D16" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>978</v>
-      </c>
-      <c r="B17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="F19" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>975</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>993</v>
+      </c>
+      <c r="B21" t="s">
+        <v>992</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>994</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>995</v>
+      </c>
+      <c r="B23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>996</v>
       </c>
-      <c r="B18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>997</v>
-      </c>
-      <c r="B19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>998</v>
-      </c>
-      <c r="B20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>999</v>
-      </c>
-      <c r="B21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="B26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="B27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="B28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B29" s="56"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="B30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>1057</v>
       </c>
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>224</v>
       </c>
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B37"/>
+      <c r="B37" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C37"/>
       <c r="D37"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B38" s="55"/>
+        <v>1083</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
       <c r="D38"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="B39"/>
+      <c r="C39"/>
       <c r="D39"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1121</v>
+        <v>1085</v>
       </c>
       <c r="B40"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1086</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>1138</v>
       </c>
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1157</v>
-      </c>
       <c r="B50"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="B51"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="B52"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52"/>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>1160</v>
       </c>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B54"/>
-      <c r="D54"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B55"/>
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B56"/>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1178</v>
-      </c>
       <c r="B57"/>
+      <c r="C57"/>
       <c r="D57"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1179</v>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
+        <v>1161</v>
       </c>
       <c r="B58"/>
+      <c r="C58"/>
       <c r="D58"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="B59"/>
+      <c r="C59"/>
       <c r="D59"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>1181</v>
       </c>
-      <c r="B60"/>
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B61"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B63"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1191</v>
-      </c>
       <c r="B64"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64"/>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="B65"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
-        <v>1225</v>
+      <c r="C65"/>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1184</v>
       </c>
       <c r="B67"/>
+      <c r="C67"/>
       <c r="D67"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D68" s="55"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B69" s="55"/>
-      <c r="C69"/>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B70" s="55"/>
+        <v>1218</v>
+      </c>
+      <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="27" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F71" s="55"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="F74" s="56"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F75" s="56"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>1227</v>
       </c>
-      <c r="B71"/>
-      <c r="D71" s="56"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="B77" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>1228</v>
       </c>
-      <c r="D72" s="56"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B78" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>1233</v>
       </c>
-      <c r="B73"/>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B83" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>1234</v>
       </c>
-      <c r="B74"/>
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B75"/>
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B80"/>
-      <c r="E80"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B81"/>
-      <c r="E81"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B82"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B83"/>
-      <c r="D83"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B84"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1308</v>
+        <v>1266</v>
       </c>
       <c r="B85"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C85"/>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B86"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G87" s="27" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1267</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1360</v>
-      </c>
+        <v>1297</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88"/>
       <c r="D88"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1361</v>
-      </c>
+        <v>1298</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89"/>
       <c r="D89"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D90"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="27" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I90" s="27" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B91" t="s">
+        <v>945</v>
+      </c>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B94" s="55" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C94" s="55" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1511</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8682,7 +9211,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C1" s="67" t="s">
         <v>164</v>
@@ -8696,13 +9225,13 @@
         <v>832</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -8737,10 +9266,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8748,12 +9277,12 @@
         <v>203</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -8761,10 +9290,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -8797,10 +9326,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8808,23 +9337,23 @@
         <v>203</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -8857,10 +9386,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8868,23 +9397,23 @@
         <v>203</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -8918,15 +9447,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B3" s="93">
         <v>1</v>
@@ -8934,10 +9463,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8977,15 +9506,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B3" s="93">
         <v>1</v>
@@ -8993,10 +9522,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9036,15 +9565,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B3" s="93">
         <v>1</v>
@@ -9052,10 +9581,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9078,7 +9607,7 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9216,19 +9745,37 @@
         <v>1319</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E2" t="s">
-        <v>919</v>
+        <v>981</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
       </c>
       <c r="G2">
         <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>983</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="K2" t="s">
+        <v>985</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -9236,13 +9783,13 @@
         <v>1286</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F3" t="s">
         <v>84</v>
@@ -9265,14 +9812,14 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9283,7 +9830,7 @@
         <v>832</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -9297,7 +9844,7 @@
         <v>92</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1038</v>
+        <v>1490</v>
       </c>
       <c r="C3" s="55">
         <v>42</v>
@@ -9307,6 +9854,12 @@
       <c r="A4" s="26" t="s">
         <v>93</v>
       </c>
+      <c r="B4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9324,10 +9877,10 @@
         <v>85</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9335,10 +9888,10 @@
         <v>86</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9346,10 +9899,10 @@
         <v>87</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9357,10 +9910,10 @@
         <v>88</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -9368,10 +9921,10 @@
         <v>89</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -9386,7 +9939,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>85</v>
@@ -9397,7 +9950,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>86</v>
@@ -9408,7 +9961,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>87</v>
@@ -9419,7 +9972,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>88</v>
@@ -9430,7 +9983,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>89</v>
@@ -9441,10 +9994,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>90</v>
+        <v>1033</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>90</v>
@@ -9452,10 +10002,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>91</v>
+        <v>1034</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>91</v>
@@ -9475,7 +10022,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9500,7 +10047,7 @@
         <v>832</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="57"/>
@@ -9517,7 +10064,7 @@
         <v>858</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -9565,7 +10112,7 @@
         <v>832</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -9582,7 +10129,7 @@
         <v>829</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="D6"/>
       <c r="E6" s="14"/>
@@ -9595,10 +10142,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>1043</v>
+        <v>1493</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -9628,10 +10175,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -9695,10 +10242,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -9712,10 +10259,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
@@ -9748,7 +10295,7 @@
         <v>831</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
@@ -9762,10 +10309,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -9779,10 +10326,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -9812,10 +10359,10 @@
         <v>51</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -11060,8 +11607,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11085,18 +11632,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C2" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>832</v>
@@ -11110,7 +11657,7 @@
         <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C4" s="47">
         <v>12869905</v>
@@ -11124,7 +11671,7 @@
         <v>829</v>
       </c>
       <c r="C5" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11143,10 +11690,10 @@
         <v>43</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1043</v>
+        <v>1493</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11154,10 +11701,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>1047</v>
+        <v>1503</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11187,8 +11734,8 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11208,7 +11755,7 @@
         <v>832</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="28"/>
@@ -11226,7 +11773,7 @@
         <v>858</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -11280,7 +11827,7 @@
         <v>832</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -11298,7 +11845,7 @@
         <v>829</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="D6" s="14"/>
       <c r="F6" s="14"/>
@@ -11312,10 +11859,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>1043</v>
+        <v>1493</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -11348,10 +11895,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -11420,10 +11967,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -11438,10 +11985,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
@@ -11477,7 +12024,7 @@
         <v>831</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
@@ -11492,10 +12039,10 @@
         <v>36</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -11510,10 +12057,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -11546,10 +12093,10 @@
         <v>51</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
@@ -11618,10 +12165,10 @@
         <v>47</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -11636,10 +12183,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -12252,7 +12799,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12335,7 +12882,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14707,37 +15254,37 @@
         <v>1319</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>830</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I2" s="55"/>
       <c r="J2" s="55" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
       <c r="M2" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="N2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="O2">
         <v>25</v>
@@ -14760,7 +15307,7 @@
   <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14940,7 +15487,7 @@
         <v>1319</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>1058</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
@@ -14948,7 +15495,7 @@
         <v>1286</v>
       </c>
       <c r="D3" s="95" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -14965,7 +15512,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14985,7 +15532,7 @@
         <v>688</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>832</v>
@@ -15125,10 +15672,10 @@
         <v>171</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>164</v>
@@ -15270,7 +15817,7 @@
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="56" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -15312,7 +15859,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -15382,10 +15929,10 @@
         <v>171</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>164</v>
@@ -15527,7 +16074,7 @@
       </c>
       <c r="E2" s="55"/>
       <c r="F2" s="56" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
@@ -15569,7 +16116,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -15589,24 +16136,25 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>191</v>
       </c>
-      <c r="B1">
-        <v>1319</v>
+      <c r="B1" s="55" t="s">
+        <v>832</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -15624,11 +16172,11 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1319</v>
+      <c r="B3" s="55" t="s">
+        <v>832</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15636,21 +16184,21 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5">
-        <v>1319</v>
+      <c r="B5" s="55" t="s">
+        <v>832</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15658,18 +16206,18 @@
         <v>228</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>1066</v>
+        <v>1493</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>229</v>
       </c>
-      <c r="B7">
-        <v>10000</v>
+      <c r="B7" s="55" t="s">
+        <v>221</v>
       </c>
       <c r="C7" s="27">
         <v>10000</v>
@@ -15700,13 +16248,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15717,7 +16265,7 @@
         <v>832</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -15755,7 +16303,7 @@
         <v>214</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15811,7 +16359,7 @@
         <v>860</v>
       </c>
       <c r="C2" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15822,7 +16370,7 @@
         <v>861</v>
       </c>
       <c r="C3" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15833,7 +16381,7 @@
         <v>862</v>
       </c>
       <c r="C4" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -15844,7 +16392,7 @@
         <v>863</v>
       </c>
       <c r="C5" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15855,7 +16403,7 @@
         <v>864</v>
       </c>
       <c r="C6" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -15866,7 +16414,7 @@
         <v>865</v>
       </c>
       <c r="C7" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -15877,7 +16425,7 @@
         <v>866</v>
       </c>
       <c r="C8" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -15888,7 +16436,7 @@
         <v>867</v>
       </c>
       <c r="C9" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -15899,7 +16447,7 @@
         <v>868</v>
       </c>
       <c r="C10" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15910,7 +16458,7 @@
         <v>869</v>
       </c>
       <c r="C11" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -15927,13 +16475,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
@@ -15945,7 +16493,7 @@
         <v>832</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -15967,7 +16515,7 @@
         <v>832</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15982,10 +16530,10 @@
         <v>225</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15993,10 +16541,10 @@
         <v>215</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -16066,7 +16614,7 @@
         <v>215</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -16136,7 +16684,7 @@
         <v>215</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -16232,7 +16780,8 @@
     <col min="1" max="2" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="15" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -16288,16 +16837,16 @@
         <v>1319</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>1061</v>
+        <v>1493</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>1061</v>
+        <v>1493</v>
       </c>
       <c r="E2" t="s">
-        <v>1060</v>
+        <v>1494</v>
       </c>
       <c r="F2" t="s">
-        <v>1060</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -16305,16 +16854,16 @@
         <v>1286</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="E3" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="F3" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
     </row>
   </sheetData>
@@ -16331,7 +16880,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16478,10 +17027,10 @@
         <v>191</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>192</v>
@@ -16499,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -16513,16 +17062,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="G2" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="I2" s="55"/>
     </row>
@@ -16564,7 +17113,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -16584,7 +17133,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16782,7 +17331,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -16821,10 +17370,10 @@
         <v>191</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>192</v>
@@ -16842,7 +17391,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -16856,16 +17405,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="G2" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="H2" s="55" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="I2" s="55"/>
     </row>
@@ -16907,7 +17456,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -16958,7 +17507,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -16978,14 +17527,16 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="3" max="6" width="9.140625" style="27" collapsed="1"/>
+    <col min="7" max="7" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16996,28 +17547,31 @@
         <v>832</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>164</v>
       </c>
+      <c r="B2" s="27" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17033,7 +17587,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1230</v>
+        <v>1223</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>1499</v>
       </c>
     </row>
   </sheetData>
@@ -17050,7 +17607,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17068,28 +17625,31 @@
         <v>832</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>164</v>
       </c>
+      <c r="B2" t="s">
+        <v>1512</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17105,7 +17665,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1230</v>
+        <v>1223</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -17127,7 +17690,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17159,7 +17722,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
     </row>
   </sheetData>
@@ -17176,7 +17739,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17195,28 +17758,31 @@
         <v>832</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>164</v>
       </c>
+      <c r="B2" t="s">
+        <v>1517</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17224,7 +17790,7 @@
         <v>188</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>232</v>
@@ -17232,15 +17798,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1230</v>
+        <v>1223</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -17413,7 +17982,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17444,10 +18013,10 @@
         <v>829</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -17455,13 +18024,13 @@
         <v>889</v>
       </c>
       <c r="B3" t="s">
-        <v>959</v>
+        <v>1466</v>
       </c>
       <c r="C3" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="D3" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -17525,13 +18094,13 @@
         <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>941</v>
+        <v>1335</v>
       </c>
       <c r="C8" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="D8" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -17539,27 +18108,27 @@
         <v>895</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>896</v>
+        <v>1479</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>896</v>
+        <v>1480</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -17578,30 +18147,30 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>897</v>
+      </c>
+      <c r="B12" t="s">
         <v>898</v>
       </c>
-      <c r="B12" t="s">
-        <v>899</v>
-      </c>
       <c r="C12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>899</v>
+      </c>
+      <c r="B13" t="s">
         <v>900</v>
       </c>
-      <c r="B13" t="s">
-        <v>901</v>
-      </c>
       <c r="C13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -17609,69 +18178,69 @@
         <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B15" t="s">
         <v>864</v>
       </c>
       <c r="C15" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="D15" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>903</v>
+      </c>
+      <c r="B16" s="87" t="s">
         <v>904</v>
       </c>
-      <c r="B16" s="87" t="s">
-        <v>905</v>
-      </c>
       <c r="C16" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>905</v>
+      </c>
+      <c r="B17" s="55" t="s">
         <v>906</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>907</v>
-      </c>
       <c r="C17" s="55" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -17679,69 +18248,69 @@
         <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>909</v>
+      </c>
+      <c r="B20" t="s">
         <v>910</v>
       </c>
-      <c r="B20" t="s">
-        <v>911</v>
-      </c>
       <c r="C20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B21" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C21" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="D21" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>912</v>
+      </c>
+      <c r="B22" t="s">
         <v>913</v>
       </c>
-      <c r="B22" t="s">
-        <v>914</v>
-      </c>
       <c r="C22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>914</v>
+      </c>
+      <c r="B23" t="s">
         <v>915</v>
       </c>
-      <c r="B23" t="s">
-        <v>916</v>
-      </c>
       <c r="C23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -17969,16 +18538,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="B1" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="C1" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="D1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="E1" t="s">
         <v>95</v>
@@ -17987,19 +18556,19 @@
         <v>234</v>
       </c>
       <c r="G1" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="H1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="I1" t="s">
         <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="K1" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="L1" t="s">
         <v>99</v>
@@ -18008,19 +18577,19 @@
         <v>235</v>
       </c>
       <c r="N1" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="O1" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="P1" t="s">
         <v>98</v>
       </c>
       <c r="Q1" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="R1" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -18031,10 +18600,10 @@
         <v>237</v>
       </c>
       <c r="H2" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="J2" s="55"/>
       <c r="K2">
@@ -18044,10 +18613,10 @@
         <v>237</v>
       </c>
       <c r="O2" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="P2" s="55" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="Q2">
         <v>500</v>
@@ -18058,7 +18627,7 @@
         <v>1319</v>
       </c>
       <c r="E3" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="F3" t="s">
         <v>236</v>
@@ -18070,16 +18639,16 @@
         <v>500</v>
       </c>
       <c r="L3" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="M3" t="s">
         <v>237</v>
       </c>
       <c r="O3" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="P3" s="55" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -18093,7 +18662,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18113,16 +18682,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="B1" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="C1" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="D1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="E1" t="s">
         <v>95</v>
@@ -18131,19 +18700,19 @@
         <v>234</v>
       </c>
       <c r="G1" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="H1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="I1" t="s">
         <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="K1" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="L1" t="s">
         <v>99</v>
@@ -18152,19 +18721,19 @@
         <v>235</v>
       </c>
       <c r="N1" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="O1" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="P1" t="s">
         <v>98</v>
       </c>
       <c r="Q1" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="R1" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -18175,10 +18744,10 @@
         <v>237</v>
       </c>
       <c r="H2" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="J2" s="55"/>
       <c r="K2">
@@ -18188,10 +18757,10 @@
         <v>237</v>
       </c>
       <c r="O2" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="P2" s="55" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="Q2">
         <v>500</v>
@@ -18202,28 +18771,33 @@
         <v>1319</v>
       </c>
       <c r="E3" t="s">
-        <v>1263</v>
+        <v>1352</v>
       </c>
       <c r="F3" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="G3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="H3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>1247</v>
+      </c>
       <c r="J3" s="55"/>
       <c r="K3">
         <v>500</v>
       </c>
-      <c r="L3" t="s">
-        <v>1265</v>
+      <c r="L3" s="107" t="s">
+        <v>1353</v>
       </c>
       <c r="M3" t="s">
         <v>237</v>
       </c>
       <c r="O3" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="P3" s="55" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="Q3">
         <v>500</v>
@@ -18234,10 +18808,10 @@
         <v>1286</v>
       </c>
       <c r="E4" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="F4" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="G4" s="55"/>
       <c r="I4" s="55"/>
@@ -18246,16 +18820,16 @@
         <v>500</v>
       </c>
       <c r="L4" s="107" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="M4" t="s">
         <v>237</v>
       </c>
       <c r="O4" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="P4" s="55" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="Q4">
         <v>500</v>
@@ -18282,10 +18856,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18329,19 +18903,19 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="C1" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="D1" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="E1" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="F1" t="s">
         <v>95</v>
@@ -18350,19 +18924,19 @@
         <v>234</v>
       </c>
       <c r="H1" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="I1" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="J1" t="s">
         <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="L1" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="M1" t="s">
         <v>99</v>
@@ -18371,19 +18945,19 @@
         <v>235</v>
       </c>
       <c r="O1" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="P1" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="Q1" t="s">
         <v>98</v>
       </c>
       <c r="R1" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="S1" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -18391,13 +18965,13 @@
         <v>1319</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="F2" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="G2" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="H2" s="55"/>
       <c r="J2" s="55"/>
@@ -18406,16 +18980,16 @@
         <v>500</v>
       </c>
       <c r="M2" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="N2" t="s">
         <v>237</v>
       </c>
       <c r="P2" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="Q2" s="55" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="R2">
         <v>500</v>
@@ -18452,16 +19026,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="B2" s="100"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
     </row>
   </sheetData>
@@ -18494,10 +19068,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
     </row>
   </sheetData>
@@ -18529,16 +19103,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="B2" s="100"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
     </row>
   </sheetData>
@@ -18568,88 +19142,88 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H1" t="s">
         <v>1276</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>1277</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K1" t="s">
         <v>1279</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>1280</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N1" t="s">
         <v>1282</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="P1" t="s">
         <v>1284</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="R1" t="s">
         <v>1286</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>1288</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>1289</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1292</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1295</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1297</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1300</v>
       </c>
       <c r="U1" t="s">
         <v>234</v>
       </c>
       <c r="V1" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="W1" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
       <c r="X1" t="s">
         <v>95</v>
       </c>
       <c r="Y1" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="Z1" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="AA1" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="AB1" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="AC1" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -18657,175 +19231,175 @@
         <v>1319</v>
       </c>
       <c r="B2" t="s">
-        <v>1275</v>
+        <v>1505</v>
       </c>
       <c r="C2" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="D2" t="s">
         <v>879</v>
       </c>
       <c r="E2" t="s">
-        <v>1281</v>
+        <v>1506</v>
       </c>
       <c r="F2" t="s">
-        <v>1283</v>
+        <v>1507</v>
       </c>
       <c r="G2" t="s">
-        <v>1285</v>
+        <v>1508</v>
       </c>
       <c r="H2" t="s">
-        <v>1287</v>
+        <v>1509</v>
       </c>
       <c r="I2" t="s">
-        <v>1281</v>
+        <v>1493</v>
       </c>
       <c r="J2" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="K2" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="L2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M2" t="s">
-        <v>1263</v>
+        <v>1352</v>
       </c>
       <c r="N2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="O2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="P2" t="s">
         <v>830</v>
       </c>
       <c r="Q2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="R2" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="S2" t="s">
-        <v>1287</v>
+        <v>1509</v>
       </c>
       <c r="T2" t="s">
-        <v>1281</v>
+        <v>1493</v>
       </c>
       <c r="U2" t="s">
         <v>237</v>
       </c>
       <c r="V2" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="W2" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="X2" t="s">
-        <v>1265</v>
+        <v>1353</v>
       </c>
       <c r="Y2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="Z2" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="AA2" t="s">
         <v>830</v>
       </c>
       <c r="AB2" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="AC2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="D3" t="s">
         <v>879</v>
       </c>
       <c r="E3" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="F3" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="G3" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="H3" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="I3" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="J3" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="K3" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="L3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M3" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="N3" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="O3" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="P3" t="s">
         <v>830</v>
       </c>
       <c r="Q3" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="R3" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="S3" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="T3" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="U3" t="s">
         <v>237</v>
       </c>
       <c r="V3" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="W3" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="X3" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="Y3" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="Z3" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="AA3" t="s">
         <v>830</v>
       </c>
       <c r="AB3" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="AC3" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -18862,19 +19436,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>164</v>
@@ -18883,13 +19457,13 @@
         <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="J1" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="K1" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -18897,28 +19471,28 @@
         <v>1319</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="I2" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="J2" s="55" t="s">
         <v>184</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
     </row>
   </sheetData>
@@ -18934,8 +19508,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18968,10 +19542,10 @@
         <v>829</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -18979,13 +19553,13 @@
         <v>890</v>
       </c>
       <c r="B3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -18993,27 +19567,27 @@
         <v>28</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -19032,21 +19606,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B7" t="s">
-        <v>962</v>
+        <v>1478</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="D7" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>893</v>
@@ -19060,16 +19634,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B9" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D9" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -19088,231 +19662,231 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>926</v>
+      </c>
+      <c r="B13" t="s">
         <v>927</v>
       </c>
-      <c r="B13" t="s">
-        <v>928</v>
-      </c>
       <c r="C13" s="27" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B14" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D14" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>931</v>
+      </c>
+      <c r="B16" t="s">
         <v>932</v>
       </c>
-      <c r="B16" t="s">
-        <v>933</v>
-      </c>
       <c r="C16" s="27" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D16" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>933</v>
+      </c>
+      <c r="B17" t="s">
         <v>934</v>
       </c>
-      <c r="B17" t="s">
-        <v>935</v>
-      </c>
       <c r="C17" s="27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D17" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>936</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>937</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>938</v>
-      </c>
       <c r="C19" s="56" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B21" t="s">
         <v>864</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="D21" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B22" t="s">
-        <v>941</v>
+        <v>1335</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="D22" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B24" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D24" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D25" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>944</v>
+      </c>
+      <c r="B26" t="s">
         <v>945</v>
       </c>
-      <c r="B26" t="s">
-        <v>946</v>
-      </c>
       <c r="C26" s="27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D26" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B27">
         <v>3000</v>
@@ -19326,7 +19900,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B28">
         <v>300000</v>
@@ -19340,47 +19914,47 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>948</v>
+      </c>
+      <c r="B29" t="s">
         <v>949</v>
-      </c>
-      <c r="B29" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>950</v>
+      </c>
+      <c r="B30" t="s">
         <v>951</v>
-      </c>
-      <c r="B30" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>952</v>
+      </c>
+      <c r="B31" t="s">
         <v>953</v>
-      </c>
-      <c r="B31" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>954</v>
+      </c>
+      <c r="B32" t="s">
         <v>955</v>
-      </c>
-      <c r="B32" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B33" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B34" t="s">
         <v>229</v>
@@ -19388,10 +19962,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D35" s="55"/>
     </row>
@@ -19410,7 +19984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19437,49 +20011,49 @@
         <v>5</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>164</v>
       </c>
       <c r="M1" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>98</v>
       </c>
       <c r="O1" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="P1" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -19487,46 +20061,46 @@
         <v>1707</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="J2" s="56" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="M2" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="N2" t="s">
-        <v>1476</v>
+        <v>1464</v>
       </c>
       <c r="O2" s="55" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="P2" s="55" t="s">
-        <v>1477</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19562,39 +20136,39 @@
         <v>5</v>
       </c>
       <c r="B1" s="56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>1078</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>1085</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>164</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -19652,34 +20226,34 @@
         <v>5</v>
       </c>
       <c r="B1" s="56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>1078</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>1085</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>164</v>
       </c>
       <c r="K1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -19687,13 +20261,13 @@
         <v>832</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="56"/>
       <c r="F2" s="56"/>
@@ -19701,24 +20275,24 @@
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
       <c r="K2" s="55" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
     </row>
   </sheetData>
@@ -19754,22 +20328,22 @@
         <v>172</v>
       </c>
       <c r="E1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F1" t="s">
+        <v>998</v>
+      </c>
+      <c r="G1" t="s">
         <v>1000</v>
       </c>
-      <c r="F1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I1" t="s">
         <v>1003</v>
       </c>
-      <c r="H1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1006</v>
-      </c>
       <c r="J1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="K1" t="s">
         <v>99</v>
@@ -19781,22 +20355,22 @@
         <v>173</v>
       </c>
       <c r="N1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q1" t="s">
         <v>1008</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>1009</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>1010</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1013</v>
       </c>
       <c r="T1" t="s">
         <v>103</v>
@@ -19808,22 +20382,22 @@
         <v>174</v>
       </c>
       <c r="W1" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="X1" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="Y1" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="Z1" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="AA1" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="AB1" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="AC1" t="s">
         <v>107</v>
@@ -19835,22 +20409,22 @@
         <v>175</v>
       </c>
       <c r="AF1" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="AG1" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="AH1" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="AI1" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="AK1" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="AL1" t="s">
         <v>111</v>
@@ -19862,22 +20436,22 @@
         <v>176</v>
       </c>
       <c r="AO1" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="AP1" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="AR1" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="AS1" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="AT1" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="AU1" t="s">
         <v>115</v>
@@ -19889,22 +20463,22 @@
         <v>177</v>
       </c>
       <c r="AX1" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="AY1" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="AZ1" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="BA1" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="BB1" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="BC1" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="BD1" t="s">
         <v>119</v>
@@ -19916,28 +20490,28 @@
         <v>178</v>
       </c>
       <c r="BG1" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="BH1" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="BI1" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="BK1" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="BL1" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="BM1" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="BN1" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="BO1" t="s">
         <v>190</v>
@@ -19950,264 +20524,264 @@
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="B3" t="s">
         <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="D3" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="E3" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="G3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="J3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K3" t="s">
+        <v>982</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="O3" t="s">
+        <v>999</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="T3" t="s">
+        <v>984</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="X3" t="s">
+        <v>999</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AB3" t="s">
         <v>1195</v>
       </c>
-      <c r="K3" t="s">
-        <v>985</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1370</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="O3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="AC3" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>999</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AL3" t="s">
         <v>987</v>
       </c>
-      <c r="U3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1097</v>
-      </c>
-      <c r="X3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>989</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>1204</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>990</v>
-      </c>
       <c r="AM3" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="AN3" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="AO3" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="AP3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AQ3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="AR3" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="AS3" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="AT3" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="AU3" t="s">
         <v>836</v>
       </c>
       <c r="AV3" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="AW3" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="AX3" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="AY3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AZ3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="BA3" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="BB3" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="BC3" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="BD3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="BE3" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="BF3" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="BG3" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="BH3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="BI3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="BJ3" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="BK3" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="BL3" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="BM3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="BN3" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="BO3" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="B4" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="C4" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="D4" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="E4" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="F4" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="G4" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="H4" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="J4" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="K4" t="s">
         <v>249</v>
       </c>
       <c r="L4" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="M4" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="N4" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="O4" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="P4" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="Q4" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="R4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="S4" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="T4"/>
       <c r="U4"/>
@@ -20255,13 +20829,13 @@
       <c r="BK4"/>
       <c r="BL4"/>
       <c r="BM4" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="BN4" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="BO4" s="55" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
@@ -20294,34 +20868,34 @@
         <v>5</v>
       </c>
       <c r="B1" s="56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>1078</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>1085</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>164</v>
       </c>
       <c r="K1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="L1" t="s">
         <v>95</v>
@@ -20333,22 +20907,22 @@
         <v>172</v>
       </c>
       <c r="O1" t="s">
+        <v>997</v>
+      </c>
+      <c r="P1" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q1" t="s">
         <v>1000</v>
       </c>
-      <c r="P1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S1" t="s">
         <v>1003</v>
       </c>
-      <c r="R1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1006</v>
-      </c>
       <c r="T1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="U1" t="s">
         <v>99</v>
@@ -20360,22 +20934,22 @@
         <v>173</v>
       </c>
       <c r="X1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AA1" t="s">
         <v>1008</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>1009</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>1010</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1013</v>
       </c>
       <c r="AD1" t="s">
         <v>103</v>
@@ -20387,22 +20961,22 @@
         <v>174</v>
       </c>
       <c r="AG1" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="AH1" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="AI1" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="AK1" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="AL1" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="AM1" t="s">
         <v>107</v>
@@ -20414,22 +20988,22 @@
         <v>175</v>
       </c>
       <c r="AP1" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="AR1" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="AS1" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="AT1" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="AU1" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="AV1" t="s">
         <v>111</v>
@@ -20441,22 +21015,22 @@
         <v>176</v>
       </c>
       <c r="AY1" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="AZ1" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="BA1" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="BB1" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="BC1" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="BD1" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="BE1" t="s">
         <v>115</v>
@@ -20468,22 +21042,22 @@
         <v>177</v>
       </c>
       <c r="BH1" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="BI1" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="BK1" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="BL1" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="BM1" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="BN1" t="s">
         <v>119</v>
@@ -20495,28 +21069,28 @@
         <v>178</v>
       </c>
       <c r="BQ1" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="BR1" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="BS1" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="BT1" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="BU1" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="BV1" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="BW1" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="BX1" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="BY1" t="s">
         <v>190</v>
@@ -20536,205 +21110,205 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
       <c r="K2" s="55" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L2" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="M2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="N2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="O2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="P2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="Q2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="R2" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="S2" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="T2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>999</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>999</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="AL2" t="s">
         <v>1195</v>
       </c>
-      <c r="U2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="V2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>1202</v>
-      </c>
       <c r="AM2" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="AN2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="AO2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="AP2" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="AR2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="AS2" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="AT2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="AU2" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="AV2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="AW2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="AX2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="AY2" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="AZ2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="BA2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="BB2" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="BC2" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="BD2" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="BE2" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="BF2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="BG2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="BH2" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="BI2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="BJ2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="BK2" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="BL2" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="BM2" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="BN2" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="BO2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="BP2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="BQ2" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="BR2" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="BS2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="BT2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="BU2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="BV2" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="BW2" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="BX2" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="BY2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.25">
@@ -20742,13 +21316,13 @@
         <v>1286</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="56"/>
@@ -20790,7 +21364,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="B3">
         <v>12869505</v>
@@ -20804,10 +21378,10 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20829,51 +21403,59 @@
         <v>5</v>
       </c>
       <c r="B1" s="56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>1078</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>1085</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>164</v>
       </c>
       <c r="K1" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>1343</v>
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>832</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>958</v>
       </c>
     </row>
   </sheetData>
@@ -20942,34 +21524,34 @@
         <v>63</v>
       </c>
       <c r="B1" s="56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>1078</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>1085</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>164</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>94</v>
@@ -20984,7 +21566,7 @@
         <v>97</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>98</v>
@@ -20999,7 +21581,7 @@
         <v>101</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="V1" s="24" t="s">
         <v>102</v>
@@ -21014,7 +21596,7 @@
         <v>105</v>
       </c>
       <c r="Z1" s="24" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="AA1" s="24" t="s">
         <v>106</v>
@@ -21029,7 +21611,7 @@
         <v>109</v>
       </c>
       <c r="AE1" s="24" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="AF1" s="24" t="s">
         <v>110</v>
@@ -21044,7 +21626,7 @@
         <v>113</v>
       </c>
       <c r="AJ1" s="24" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="AK1" s="24" t="s">
         <v>114</v>
@@ -21059,7 +21641,7 @@
         <v>117</v>
       </c>
       <c r="AO1" s="24" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="AP1" s="24" t="s">
         <v>118</v>
@@ -21074,7 +21656,7 @@
         <v>121</v>
       </c>
       <c r="AT1" s="24" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="AU1" s="24" t="s">
         <v>122</v>
@@ -21089,7 +21671,7 @@
         <v>125</v>
       </c>
       <c r="AY1" s="24" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="AZ1" s="24" t="s">
         <v>126</v>
@@ -21104,7 +21686,7 @@
         <v>129</v>
       </c>
       <c r="BD1" s="24" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="BE1" s="24" t="s">
         <v>130</v>
@@ -21119,7 +21701,7 @@
         <v>133</v>
       </c>
       <c r="BI1" s="24" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
@@ -21127,40 +21709,40 @@
         <v>1319</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L2" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="M2" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="P2" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
@@ -21239,34 +21821,34 @@
         <v>63</v>
       </c>
       <c r="B1" s="56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>1078</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>1085</v>
       </c>
       <c r="J1" s="24" t="s">
         <v>164</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>94</v>
@@ -21281,7 +21863,7 @@
         <v>97</v>
       </c>
       <c r="P1" s="24" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="Q1" s="24" t="s">
         <v>98</v>
@@ -21296,7 +21878,7 @@
         <v>101</v>
       </c>
       <c r="U1" s="24" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="V1" s="24" t="s">
         <v>102</v>
@@ -21311,7 +21893,7 @@
         <v>105</v>
       </c>
       <c r="Z1" s="24" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="AA1" s="24" t="s">
         <v>106</v>
@@ -21326,7 +21908,7 @@
         <v>109</v>
       </c>
       <c r="AE1" s="24" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="AF1" s="24" t="s">
         <v>110</v>
@@ -21341,7 +21923,7 @@
         <v>113</v>
       </c>
       <c r="AJ1" s="24" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="AK1" s="24" t="s">
         <v>114</v>
@@ -21356,7 +21938,7 @@
         <v>117</v>
       </c>
       <c r="AO1" s="24" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="AP1" s="24" t="s">
         <v>118</v>
@@ -21371,7 +21953,7 @@
         <v>121</v>
       </c>
       <c r="AT1" s="24" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="AU1" s="24" t="s">
         <v>122</v>
@@ -21386,7 +21968,7 @@
         <v>125</v>
       </c>
       <c r="AY1" s="24" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="AZ1" s="24" t="s">
         <v>126</v>
@@ -21401,7 +21983,7 @@
         <v>129</v>
       </c>
       <c r="BD1" s="24" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="BE1" s="24" t="s">
         <v>130</v>
@@ -21416,7 +21998,7 @@
         <v>133</v>
       </c>
       <c r="BI1" s="24" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
@@ -21424,40 +22006,40 @@
         <v>1319</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L2" t="s">
         <v>835</v>
       </c>
       <c r="M2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="P2" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
@@ -21481,14 +22063,15 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="93" collapsed="1"/>
+    <col min="2" max="2" width="33" style="93" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.7109375" style="93" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21506,35 +22089,33 @@
       <c r="A2" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="B2" t="s">
-        <v>977</v>
-      </c>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="93" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>1336</v>
+        <v>1493</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -21542,34 +22123,32 @@
         <v>230</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>680</v>
       </c>
-      <c r="B7" s="101" t="s">
-        <v>1060</v>
-      </c>
+      <c r="B7" s="101"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>1063</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
@@ -21583,19 +22162,20 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -21606,7 +22186,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -21617,7 +22197,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>53</v>
       </c>
@@ -21625,10 +22205,10 @@
         <v>829</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -21639,29 +22219,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
@@ -21672,7 +22258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>56</v>
       </c>
@@ -21683,29 +22269,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -21716,7 +22302,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
@@ -21724,47 +22310,53 @@
         <v>831</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -21799,7 +22391,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21829,52 +22421,52 @@
         <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>1312</v>
       </c>
-      <c r="B3" s="101" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>1323</v>
-      </c>
       <c r="D3" s="101" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C4" s="93" t="s">
         <v>1313</v>
       </c>
-      <c r="B4" s="101" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>1324</v>
-      </c>
       <c r="D4" s="101" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="93" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B5" s="94" t="s">
         <v>1325</v>
       </c>
-      <c r="B5" s="94" t="s">
-        <v>1336</v>
-      </c>
       <c r="C5" s="94" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="D5" s="94" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -21882,13 +22474,13 @@
         <v>230</v>
       </c>
       <c r="B6" s="101" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
       <c r="D6" s="101" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -21896,44 +22488,44 @@
         <v>680</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="L7" s="93" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="C8" s="96">
         <v>44017</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="C9" s="106">
         <v>28250</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
     </row>
   </sheetData>
@@ -21947,13 +22539,13 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="93" customWidth="1" collapsed="1"/>
     <col min="3" max="16384" width="8.7109375" style="93" collapsed="1"/>
   </cols>
   <sheetData>
@@ -21977,9 +22569,7 @@
       <c r="A2" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="B2">
-        <v>121255</v>
-      </c>
+      <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -21989,13 +22579,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>1336</v>
+        <v>1493</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -22007,9 +22597,7 @@
       <c r="A4" s="27" t="s">
         <v>680</v>
       </c>
-      <c r="B4" s="101" t="s">
-        <v>1060</v>
-      </c>
+      <c r="B4" s="101"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -22019,10 +22607,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="93" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>1285</v>
+        <v>1493</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -22033,10 +22621,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="93" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -22047,18 +22635,18 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="93" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="B8" s="101" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -22070,7 +22658,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" s="93" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -22084,7 +22672,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22110,66 +22698,60 @@
       <c r="A2" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="B2">
-        <v>121255</v>
-      </c>
+      <c r="B2"/>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C3" s="101" t="s">
         <v>1312</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C3" s="101" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="C4" s="101"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="93" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B5" s="101" t="s">
-        <v>1339</v>
-      </c>
+        <v>1309</v>
+      </c>
+      <c r="B5" s="101"/>
       <c r="C5" s="101"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="93" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>1281</v>
+        <v>1493</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>680</v>
       </c>
-      <c r="B7" s="101" t="s">
-        <v>1060</v>
-      </c>
+      <c r="B7" s="101"/>
       <c r="C7" s="101"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>1285</v>
+        <v>1493</v>
       </c>
       <c r="C8" s="94"/>
     </row>
@@ -22178,10 +22760,10 @@
         <v>230</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -22189,7 +22771,7 @@
         <v>215</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="C10" s="102"/>
     </row>
@@ -22227,7 +22809,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22245,15 +22827,15 @@
         <v>693</v>
       </c>
       <c r="B5" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="B6" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -22261,7 +22843,7 @@
         <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -22274,31 +22856,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B9" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>903</v>
+      </c>
+      <c r="B10" s="87" t="s">
         <v>904</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>905</v>
+      </c>
+      <c r="B11" s="55" t="s">
         <v>906</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B12">
         <v>12849905</v>
@@ -22309,23 +22891,23 @@
         <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>909</v>
+      </c>
+      <c r="B14" t="s">
         <v>910</v>
-      </c>
-      <c r="B14" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B15" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22367,7 +22949,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22382,10 +22964,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="B5" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -22393,7 +22975,7 @@
         <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -22406,31 +22988,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B8" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>903</v>
+      </c>
+      <c r="B9" s="87" t="s">
         <v>904</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>905</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>906</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B11">
         <v>12849905</v>
@@ -22441,23 +23023,23 @@
         <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>909</v>
+      </c>
+      <c r="B13" t="s">
         <v>910</v>
-      </c>
-      <c r="B13" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B14" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22502,13 +23084,13 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -22516,7 +23098,7 @@
         <v>691</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -22524,7 +23106,7 @@
         <v>889</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -22537,10 +23119,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -22548,15 +23130,15 @@
         <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B8" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -22564,55 +23146,55 @@
         <v>28</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="B11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B12" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="B13" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B14" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -22652,7 +23234,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22666,7 +23248,7 @@
         <v>692</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22680,7 +23262,7 @@
         <v>693</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -22693,7 +23275,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="B8" s="55">
         <v>1284</v>
@@ -22704,15 +23286,15 @@
         <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B10" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22720,55 +23302,55 @@
         <v>28</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="B13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B14" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="B15" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -22808,7 +23390,7 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -22819,10 +23401,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -22833,10 +23415,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -22849,7 +23431,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="B8" s="55">
         <v>1284</v>
@@ -22860,15 +23442,15 @@
         <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B10" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -22876,55 +23458,55 @@
         <v>28</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="B13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B14" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="B15" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -22956,7 +23538,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22976,16 +23558,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B5" s="55"/>
     </row>
@@ -23015,7 +23597,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -23034,15 +23616,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B5" s="55"/>
     </row>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="25" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="26" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -42,85 +42,86 @@
     <sheet name="CreateTimesheet" sheetId="9" r:id="rId28"/>
     <sheet name="EmployeeCreation" sheetId="5" r:id="rId29"/>
     <sheet name="UserCreation" sheetId="6" r:id="rId30"/>
-    <sheet name="EmployeeAsUser" sheetId="7" r:id="rId31"/>
-    <sheet name="ChangeEmployee" sheetId="25" r:id="rId32"/>
-    <sheet name="ChangeUser" sheetId="43" r:id="rId33"/>
-    <sheet name="Modify budget" sheetId="32" r:id="rId34"/>
-    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId35"/>
-    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId36"/>
-    <sheet name="Reject Expenses" sheetId="31" r:id="rId37"/>
-    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId38"/>
-    <sheet name="RejectTimesheet" sheetId="18" r:id="rId39"/>
-    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId40"/>
-    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId41"/>
-    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId42"/>
-    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId43"/>
-    <sheet name="CreatePurchaseOrder2" sheetId="64" r:id="rId44"/>
-    <sheet name="ApprovePurchaseOrder2" sheetId="65" r:id="rId45"/>
-    <sheet name="CreatePurchaseOrder3" sheetId="72" r:id="rId46"/>
-    <sheet name="ApprovePurchaseOrder3" sheetId="73" r:id="rId47"/>
-    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId48"/>
-    <sheet name="FixedAssetVal" sheetId="26" r:id="rId49"/>
-    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId50"/>
-    <sheet name="FixedAssetResolution" sheetId="59" r:id="rId51"/>
-    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId52"/>
-    <sheet name="PostEntries" sheetId="28" r:id="rId53"/>
-    <sheet name="VendorInvoice" sheetId="22" r:id="rId54"/>
-    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId55"/>
-    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId56"/>
-    <sheet name="PostVendorJournal" sheetId="44" r:id="rId57"/>
-    <sheet name="VendorInvoice2" sheetId="66" r:id="rId58"/>
-    <sheet name="ApproveVendorInvoice2" sheetId="67" r:id="rId59"/>
-    <sheet name="PostVendorJournal2" sheetId="68" r:id="rId60"/>
-    <sheet name="VendorInvoice3" sheetId="74" r:id="rId61"/>
-    <sheet name="ApproveVendorInvoice3" sheetId="75" r:id="rId62"/>
-    <sheet name="PostVendorJournal3" sheetId="76" r:id="rId63"/>
-    <sheet name="AR Single Payment" sheetId="35" r:id="rId64"/>
-    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId65"/>
-    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId66"/>
-    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId67"/>
-    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId68"/>
-    <sheet name="Reverse Invoice" sheetId="41" r:id="rId69"/>
-    <sheet name="Credit Note With PO" sheetId="42" r:id="rId70"/>
-    <sheet name="Writingoffbad" sheetId="39" r:id="rId71"/>
-    <sheet name="CreateGeneralJournal" sheetId="81" r:id="rId72"/>
-    <sheet name="PostJournalEntries" sheetId="82" r:id="rId73"/>
-    <sheet name="CreateReverseGL" sheetId="83" r:id="rId74"/>
-    <sheet name="ReverseGL" sheetId="84" r:id="rId75"/>
-    <sheet name="CreateCurrencyJournal" sheetId="85" r:id="rId76"/>
-    <sheet name="CopyGL" sheetId="86" r:id="rId77"/>
-    <sheet name="GLMPL" sheetId="87" r:id="rId78"/>
-    <sheet name="CreateAnAccrualJobByJob" sheetId="112" r:id="rId79"/>
-    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="113" r:id="rId80"/>
-    <sheet name="InvoicePreparation" sheetId="93" r:id="rId81"/>
-    <sheet name="InvoicingFromBudget" sheetId="63" r:id="rId82"/>
-    <sheet name="InvoiceMPL" sheetId="70" r:id="rId83"/>
-    <sheet name="InvoiceOnAccount" sheetId="80" r:id="rId84"/>
-    <sheet name="JobInvoiceAllocation_WIP" sheetId="94" r:id="rId85"/>
-    <sheet name="Time_Material_Invocing" sheetId="96" r:id="rId86"/>
-    <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId87"/>
-    <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId88"/>
-    <sheet name="CreatePaymentSelection" sheetId="88" r:id="rId89"/>
-    <sheet name="ChangePaymentSelection" sheetId="91" r:id="rId90"/>
-    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId91"/>
-    <sheet name="PrintPaymentRemittance" sheetId="90" r:id="rId92"/>
-    <sheet name="CreateGlobalBrand" sheetId="97" r:id="rId93"/>
-    <sheet name="CreateGlobalProduct" sheetId="98" r:id="rId94"/>
-    <sheet name="CreateCompanyClient" sheetId="99" r:id="rId95"/>
-    <sheet name="CreateCompanyBrand" sheetId="100" r:id="rId96"/>
-    <sheet name="CreateCompanyProduct" sheetId="101" r:id="rId97"/>
-    <sheet name="AmendCompanyClient" sheetId="102" r:id="rId98"/>
-    <sheet name="AmendCompanyBrand" sheetId="103" r:id="rId99"/>
-    <sheet name="AmendCompanyProduct" sheetId="104" r:id="rId100"/>
-    <sheet name="AmendGlobalClient" sheetId="105" r:id="rId101"/>
-    <sheet name="AmendGlobalBrand" sheetId="106" r:id="rId102"/>
-    <sheet name="AmendGlobalProduct" sheetId="107" r:id="rId103"/>
-    <sheet name="BlockCompanyProduct" sheetId="108" r:id="rId104"/>
-    <sheet name="BlockCompanyBrand" sheetId="109" r:id="rId105"/>
-    <sheet name="BlockCompanyClient" sheetId="110" r:id="rId106"/>
-    <sheet name="BlockGlobalProduct" sheetId="111" r:id="rId107"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId108"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId109"/>
+    <sheet name="BlockUser" sheetId="114" r:id="rId31"/>
+    <sheet name="EmployeeAsUser" sheetId="7" r:id="rId32"/>
+    <sheet name="ChangeEmployee" sheetId="25" r:id="rId33"/>
+    <sheet name="ChangeUser" sheetId="43" r:id="rId34"/>
+    <sheet name="Modify budget" sheetId="32" r:id="rId35"/>
+    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId36"/>
+    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId37"/>
+    <sheet name="Reject Expenses" sheetId="31" r:id="rId38"/>
+    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId39"/>
+    <sheet name="RejectTimesheet" sheetId="18" r:id="rId40"/>
+    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId41"/>
+    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId42"/>
+    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId43"/>
+    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId44"/>
+    <sheet name="CreatePurchaseOrder2" sheetId="64" r:id="rId45"/>
+    <sheet name="ApprovePurchaseOrder2" sheetId="65" r:id="rId46"/>
+    <sheet name="CreatePurchaseOrder3" sheetId="72" r:id="rId47"/>
+    <sheet name="ApprovePurchaseOrder3" sheetId="73" r:id="rId48"/>
+    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId49"/>
+    <sheet name="FixedAssetVal" sheetId="26" r:id="rId50"/>
+    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId51"/>
+    <sheet name="FixedAssetResolution" sheetId="59" r:id="rId52"/>
+    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId53"/>
+    <sheet name="PostEntries" sheetId="28" r:id="rId54"/>
+    <sheet name="VendorInvoice" sheetId="22" r:id="rId55"/>
+    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId56"/>
+    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId57"/>
+    <sheet name="PostVendorJournal" sheetId="44" r:id="rId58"/>
+    <sheet name="VendorInvoice2" sheetId="66" r:id="rId59"/>
+    <sheet name="ApproveVendorInvoice2" sheetId="67" r:id="rId60"/>
+    <sheet name="PostVendorJournal2" sheetId="68" r:id="rId61"/>
+    <sheet name="VendorInvoice3" sheetId="74" r:id="rId62"/>
+    <sheet name="ApproveVendorInvoice3" sheetId="75" r:id="rId63"/>
+    <sheet name="PostVendorJournal3" sheetId="76" r:id="rId64"/>
+    <sheet name="AR Single Payment" sheetId="35" r:id="rId65"/>
+    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId66"/>
+    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId67"/>
+    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId68"/>
+    <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId69"/>
+    <sheet name="Reverse Invoice" sheetId="41" r:id="rId70"/>
+    <sheet name="Credit Note With PO" sheetId="42" r:id="rId71"/>
+    <sheet name="Writingoffbad" sheetId="39" r:id="rId72"/>
+    <sheet name="CreateGeneralJournal" sheetId="81" r:id="rId73"/>
+    <sheet name="PostJournalEntries" sheetId="82" r:id="rId74"/>
+    <sheet name="CreateReverseGL" sheetId="83" r:id="rId75"/>
+    <sheet name="ReverseGL" sheetId="84" r:id="rId76"/>
+    <sheet name="CreateCurrencyJournal" sheetId="85" r:id="rId77"/>
+    <sheet name="CopyGL" sheetId="86" r:id="rId78"/>
+    <sheet name="GLMPL" sheetId="87" r:id="rId79"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="112" r:id="rId80"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="113" r:id="rId81"/>
+    <sheet name="InvoicePreparation" sheetId="93" r:id="rId82"/>
+    <sheet name="InvoicingFromBudget" sheetId="63" r:id="rId83"/>
+    <sheet name="InvoiceMPL" sheetId="70" r:id="rId84"/>
+    <sheet name="InvoiceOnAccount" sheetId="80" r:id="rId85"/>
+    <sheet name="JobInvoiceAllocation_WIP" sheetId="94" r:id="rId86"/>
+    <sheet name="Time_Material_Invocing" sheetId="96" r:id="rId87"/>
+    <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId88"/>
+    <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId89"/>
+    <sheet name="CreatePaymentSelection" sheetId="88" r:id="rId90"/>
+    <sheet name="ChangePaymentSelection" sheetId="91" r:id="rId91"/>
+    <sheet name="CreatePaymentFile" sheetId="89" r:id="rId92"/>
+    <sheet name="PrintPaymentRemittance" sheetId="90" r:id="rId93"/>
+    <sheet name="CreateGlobalBrand" sheetId="97" r:id="rId94"/>
+    <sheet name="CreateGlobalProduct" sheetId="98" r:id="rId95"/>
+    <sheet name="CreateCompanyClient" sheetId="99" r:id="rId96"/>
+    <sheet name="CreateCompanyBrand" sheetId="100" r:id="rId97"/>
+    <sheet name="CreateCompanyProduct" sheetId="101" r:id="rId98"/>
+    <sheet name="AmendCompanyClient" sheetId="102" r:id="rId99"/>
+    <sheet name="AmendCompanyBrand" sheetId="103" r:id="rId100"/>
+    <sheet name="AmendCompanyProduct" sheetId="104" r:id="rId101"/>
+    <sheet name="AmendGlobalClient" sheetId="105" r:id="rId102"/>
+    <sheet name="AmendGlobalBrand" sheetId="106" r:id="rId103"/>
+    <sheet name="AmendGlobalProduct" sheetId="107" r:id="rId104"/>
+    <sheet name="BlockCompanyProduct" sheetId="108" r:id="rId105"/>
+    <sheet name="BlockCompanyBrand" sheetId="109" r:id="rId106"/>
+    <sheet name="BlockCompanyClient" sheetId="110" r:id="rId107"/>
+    <sheet name="BlockGlobalProduct" sheetId="111" r:id="rId108"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId109"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId110"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3668" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="1523">
   <si>
     <t>Description</t>
   </si>
@@ -4695,6 +4696,12 @@
   </si>
   <si>
     <t>1319100338</t>
+  </si>
+  <si>
+    <t>TerminationDate</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
   </si>
 </sst>
 </file>
@@ -5779,8 +5786,8 @@
       <c r="A4" t="s">
         <v>905</v>
       </c>
-      <c r="B4" s="55">
-        <v>98537964156</v>
+      <c r="B4" s="55" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5791,13 +5798,13 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1443</v>
+        <v>692</v>
       </c>
       <c r="B6" s="111"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1421</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -5807,6 +5814,74 @@
 </file>
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="110"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B4" s="55">
+        <v>98537964156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>903</v>
+      </c>
+      <c r="B5" s="55"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B6" s="111"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -5875,92 +5950,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="88">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B2" s="55"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>692</v>
-      </c>
-      <c r="B4" s="111"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>903</v>
-      </c>
-      <c r="B10" s="87"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="AutomoneEmail@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6003,6 +5992,92 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B4" s="111"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>903</v>
+      </c>
+      <c r="B10" s="87"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="AutomoneEmail@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="88">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1443</v>
       </c>
       <c r="B4" s="111"/>
@@ -6047,7 +6122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6101,7 +6176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6155,7 +6230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -6199,7 +6274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6253,7 +6328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -6302,50 +6377,6 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>693</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="82">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6682,6 +6713,50 @@
       </c>
       <c r="AD3">
         <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="82">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -11607,7 +11682,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11728,6 +11803,49 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -12218,7 +12336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12348,7 +12466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12440,7 +12558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12751,7 +12869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12791,7 +12909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12838,7 +12956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12874,7 +12992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12923,57 +13041,6 @@
       </c>
       <c r="C4">
         <v>2020</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="27"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -15037,6 +15104,57 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="27"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15299,7 +15417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15504,7 +15622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15559,7 +15677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15614,7 +15732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15826,7 +15944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15871,7 +15989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16083,7 +16201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16128,7 +16246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16232,89 +16350,6 @@
       </c>
       <c r="C8" s="27" t="s">
         <v>231</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>832</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2">
-        <v>1319</v>
-      </c>
-      <c r="C2">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -16475,6 +16510,89 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2">
+        <v>1319</v>
+      </c>
+      <c r="C2">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -16553,7 +16671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16623,7 +16741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16693,7 +16811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -16764,7 +16882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -16872,7 +16990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -16913,7 +17031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -16948,7 +17066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17000,7 +17118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17074,50 +17192,6 @@
         <v>1133</v>
       </c>
       <c r="I2" s="55"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="55"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17297,6 +17371,50 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17343,7 +17461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17424,7 +17542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17468,7 +17586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17519,7 +17637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17599,7 +17717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17682,7 +17800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17731,7 +17849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17823,7 +17941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -17895,77 +18013,6 @@
       </c>
       <c r="B7" s="27" t="s">
         <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="27">
-        <v>131885</v>
       </c>
     </row>
   </sheetData>
@@ -18329,6 +18376,77 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="27">
+        <v>131885</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18510,7 +18628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -18657,7 +18775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -18841,7 +18959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -18878,7 +18996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -19001,7 +19119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -19044,7 +19162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -19080,7 +19198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -19121,7 +19239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -19400,99 +19518,6 @@
       </c>
       <c r="AC3" t="s">
         <v>1187</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1453</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1319</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>1457</v>
       </c>
     </row>
   </sheetData>
@@ -19982,6 +20007,99 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1319</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20110,7 +20228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -20199,7 +20317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -20301,7 +20419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO4"/>
   <sheetViews>
@@ -20844,7 +20962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BY3"/>
   <sheetViews>
@@ -21339,7 +21457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -21376,7 +21494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -21464,7 +21582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI3"/>
   <sheetViews>
@@ -21761,7 +21879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI3"/>
   <sheetViews>
@@ -22058,105 +22176,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" style="93" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.7109375" style="93" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="92">
-        <v>1319</v>
-      </c>
-      <c r="C1" s="93">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="101" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>680</v>
-      </c>
-      <c r="B7" s="101"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -22388,6 +22407,105 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="93" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" style="93" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="93" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.7109375" style="93" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="92">
+        <v>1319</v>
+      </c>
+      <c r="C1" s="93">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="93" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="93" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="B7" s="101"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="93" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22534,7 +22652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -22667,7 +22785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -22781,7 +22899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -22921,7 +23039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -23055,7 +23173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -23206,7 +23324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -23362,7 +23480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -23518,7 +23636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -23575,72 +23693,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B2" s="110"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>905</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>903</v>
-      </c>
-      <c r="B5" s="55"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>692</v>
-      </c>
-      <c r="B6" s="111"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>693</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="63" activeTab="66"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" firstSheet="114" activeTab="114"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,11 @@
     <sheet name="BlockGlobalProduct" sheetId="111" r:id="rId108"/>
     <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId109"/>
     <sheet name="BlockGlobalClient" sheetId="48" r:id="rId110"/>
+    <sheet name="CreateCompanyVendor" sheetId="115" r:id="rId111"/>
+    <sheet name="AmendGlobalVendor" sheetId="116" r:id="rId112"/>
+    <sheet name="AmendCompanyVendor" sheetId="117" r:id="rId113"/>
+    <sheet name="BlockGlobalVendor" sheetId="118" r:id="rId114"/>
+    <sheet name="BlockCompanyVendor" sheetId="119" r:id="rId115"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -133,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3861" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3922" uniqueCount="1624">
   <si>
     <t>Description</t>
   </si>
@@ -4984,6 +4989,27 @@
   </si>
   <si>
     <t>RevCreditNote</t>
+  </si>
+  <si>
+    <t>Settling_Company</t>
+  </si>
+  <si>
+    <t>Global@yahoo.com</t>
+  </si>
+  <si>
+    <t>万宝盛华企业管理咨询（上海）有限公司</t>
+  </si>
+  <si>
+    <t>St2</t>
+  </si>
+  <si>
+    <t>Global1@yahoo.com</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>CompanyVendor Number</t>
   </si>
 </sst>
 </file>
@@ -7114,6 +7140,399 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B4">
+        <v>9846201537</v>
+      </c>
+      <c r="C4">
+        <v>9846201537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B6" t="s">
+        <v>896</v>
+      </c>
+      <c r="C6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>928</v>
+      </c>
+      <c r="B7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>929</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>930</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>932</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>933</v>
+      </c>
+      <c r="B13">
+        <v>100000</v>
+      </c>
+      <c r="C13">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>955</v>
+      </c>
+      <c r="B14" t="s">
+        <v>926</v>
+      </c>
+      <c r="C14" t="s">
+        <v>926</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B5">
+        <v>958647231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B4">
+        <v>958647231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
@@ -19092,7 +19511,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="16" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="109" activeTab="112"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -124,28 +124,29 @@
     <sheet name="Time_Material_Invocing" sheetId="96" r:id="rId110"/>
     <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId111"/>
     <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId112"/>
-    <sheet name="CreateGlobalBrand" sheetId="105" r:id="rId113"/>
-    <sheet name="CreateGlobalProduct" sheetId="106" r:id="rId114"/>
-    <sheet name="CreateCompanyClient" sheetId="107" r:id="rId115"/>
-    <sheet name="CreateCompanyBrand" sheetId="108" r:id="rId116"/>
-    <sheet name="CreateCompanyProduct" sheetId="109" r:id="rId117"/>
-    <sheet name="AmendCompanyClient" sheetId="110" r:id="rId118"/>
-    <sheet name="AmendCompanyBrand" sheetId="111" r:id="rId119"/>
-    <sheet name="AmendCompanyProduct" sheetId="112" r:id="rId120"/>
-    <sheet name="AmendGlobalClient" sheetId="113" r:id="rId121"/>
-    <sheet name="AmendGlobalBrand" sheetId="114" r:id="rId122"/>
-    <sheet name="AmendGlobalProduct" sheetId="115" r:id="rId123"/>
-    <sheet name="BlockCompanyProduct" sheetId="121" r:id="rId124"/>
-    <sheet name="BlockCompanyBrand" sheetId="118" r:id="rId125"/>
-    <sheet name="BlockCompanyClient" sheetId="119" r:id="rId126"/>
-    <sheet name="BlockGlobalProduct" sheetId="120" r:id="rId127"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId128"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId129"/>
-    <sheet name="CreateCompanyVendor" sheetId="123" r:id="rId130"/>
-    <sheet name="AmendGlobalVendor" sheetId="116" r:id="rId131"/>
-    <sheet name="AmendCompanyVendor" sheetId="117" r:id="rId132"/>
-    <sheet name="BlockGlobalVendor" sheetId="122" r:id="rId133"/>
-    <sheet name="BlockCompanyVendor" sheetId="124" r:id="rId134"/>
+    <sheet name="CombinedInvoice" sheetId="140" r:id="rId113"/>
+    <sheet name="CreateGlobalBrand" sheetId="105" r:id="rId114"/>
+    <sheet name="CreateGlobalProduct" sheetId="106" r:id="rId115"/>
+    <sheet name="CreateCompanyClient" sheetId="107" r:id="rId116"/>
+    <sheet name="CreateCompanyBrand" sheetId="108" r:id="rId117"/>
+    <sheet name="CreateCompanyProduct" sheetId="109" r:id="rId118"/>
+    <sheet name="AmendCompanyClient" sheetId="110" r:id="rId119"/>
+    <sheet name="AmendCompanyBrand" sheetId="111" r:id="rId120"/>
+    <sheet name="AmendCompanyProduct" sheetId="112" r:id="rId121"/>
+    <sheet name="AmendGlobalClient" sheetId="113" r:id="rId122"/>
+    <sheet name="AmendGlobalBrand" sheetId="114" r:id="rId123"/>
+    <sheet name="AmendGlobalProduct" sheetId="115" r:id="rId124"/>
+    <sheet name="BlockCompanyProduct" sheetId="121" r:id="rId125"/>
+    <sheet name="BlockCompanyBrand" sheetId="118" r:id="rId126"/>
+    <sheet name="BlockCompanyClient" sheetId="119" r:id="rId127"/>
+    <sheet name="BlockGlobalProduct" sheetId="120" r:id="rId128"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId129"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId130"/>
+    <sheet name="CreateCompanyVendor" sheetId="123" r:id="rId131"/>
+    <sheet name="AmendGlobalVendor" sheetId="116" r:id="rId132"/>
+    <sheet name="AmendCompanyVendor" sheetId="117" r:id="rId133"/>
+    <sheet name="BlockGlobalVendor" sheetId="122" r:id="rId134"/>
+    <sheet name="BlockCompanyVendor" sheetId="124" r:id="rId135"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -157,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5502" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5513" uniqueCount="1709">
   <si>
     <t>Description</t>
   </si>
@@ -5282,6 +5283,9 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>1221200124</t>
   </si>
 </sst>
 </file>
@@ -7490,7 +7494,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8899,6 +8903,78 @@
 
 <file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="102" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="102" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="102" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>952</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>953</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>954</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="102">
+        <v>1284</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="102">
+        <v>1221</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="F3" s="105" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9077,7 +9153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -9248,7 +9324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -9434,7 +9510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -9636,7 +9712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -9838,7 +9914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -9899,86 +9975,6 @@
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="105"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="28.28515625" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="105" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>837</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C4" s="105" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>835</v>
-      </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
-        <v>659</v>
-      </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
-        <v>660</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10188,7 +10184,7 @@
         <v>1182</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10200,14 +10196,14 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1180</v>
+        <v>659</v>
       </c>
       <c r="B6" s="109"/>
       <c r="C6" s="109"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>1170</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -10217,6 +10213,86 @@
 </file>
 
 <file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>837</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>835</v>
+      </c>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -10299,7 +10375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -10408,7 +10484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -10517,7 +10593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -10577,7 +10653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -10637,7 +10713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -10686,7 +10762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -10746,7 +10822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -10801,56 +10877,6 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -10901,6 +10927,56 @@
 
 <file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11081,7 +11157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -11168,7 +11244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -11244,7 +11320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -11292,7 +11368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -13973,8 +14049,8 @@
   </sheetPr>
   <dimension ref="A1:FI141"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14356,8 +14432,8 @@
       <c r="A24" t="s">
         <v>159</v>
       </c>
-      <c r="B24" t="s">
-        <v>1690</v>
+      <c r="B24" s="105" t="s">
+        <v>1708</v>
       </c>
       <c r="C24" s="105"/>
     </row>
@@ -15473,7 +15549,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\GlobalTestSuite Project\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="109" activeTab="112"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="32" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -125,32 +125,35 @@
     <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId111"/>
     <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId112"/>
     <sheet name="CombinedInvoice" sheetId="140" r:id="rId113"/>
-    <sheet name="CreateGlobalBrand" sheetId="105" r:id="rId114"/>
-    <sheet name="CreateGlobalProduct" sheetId="106" r:id="rId115"/>
-    <sheet name="CreateCompanyClient" sheetId="107" r:id="rId116"/>
-    <sheet name="CreateCompanyBrand" sheetId="108" r:id="rId117"/>
-    <sheet name="CreateCompanyProduct" sheetId="109" r:id="rId118"/>
-    <sheet name="AmendCompanyClient" sheetId="110" r:id="rId119"/>
-    <sheet name="AmendCompanyBrand" sheetId="111" r:id="rId120"/>
-    <sheet name="AmendCompanyProduct" sheetId="112" r:id="rId121"/>
-    <sheet name="AmendGlobalClient" sheetId="113" r:id="rId122"/>
-    <sheet name="AmendGlobalBrand" sheetId="114" r:id="rId123"/>
-    <sheet name="AmendGlobalProduct" sheetId="115" r:id="rId124"/>
-    <sheet name="BlockCompanyProduct" sheetId="121" r:id="rId125"/>
-    <sheet name="BlockCompanyBrand" sheetId="118" r:id="rId126"/>
-    <sheet name="BlockCompanyClient" sheetId="119" r:id="rId127"/>
-    <sheet name="BlockGlobalProduct" sheetId="120" r:id="rId128"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId129"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId130"/>
-    <sheet name="CreateCompanyVendor" sheetId="123" r:id="rId131"/>
-    <sheet name="AmendGlobalVendor" sheetId="116" r:id="rId132"/>
-    <sheet name="AmendCompanyVendor" sheetId="117" r:id="rId133"/>
-    <sheet name="BlockGlobalVendor" sheetId="122" r:id="rId134"/>
-    <sheet name="BlockCompanyVendor" sheetId="124" r:id="rId135"/>
+    <sheet name="BlanketInvoice" sheetId="141" r:id="rId114"/>
+    <sheet name="Job Crediting" sheetId="142" r:id="rId115"/>
+    <sheet name="CreditMemo" sheetId="143" r:id="rId116"/>
+    <sheet name="CreateGlobalBrand" sheetId="105" r:id="rId117"/>
+    <sheet name="CreateGlobalProduct" sheetId="106" r:id="rId118"/>
+    <sheet name="CreateCompanyClient" sheetId="107" r:id="rId119"/>
+    <sheet name="CreateCompanyBrand" sheetId="108" r:id="rId120"/>
+    <sheet name="CreateCompanyProduct" sheetId="109" r:id="rId121"/>
+    <sheet name="AmendCompanyClient" sheetId="110" r:id="rId122"/>
+    <sheet name="AmendCompanyBrand" sheetId="111" r:id="rId123"/>
+    <sheet name="AmendCompanyProduct" sheetId="112" r:id="rId124"/>
+    <sheet name="AmendGlobalClient" sheetId="113" r:id="rId125"/>
+    <sheet name="AmendGlobalBrand" sheetId="114" r:id="rId126"/>
+    <sheet name="AmendGlobalProduct" sheetId="115" r:id="rId127"/>
+    <sheet name="BlockCompanyProduct" sheetId="121" r:id="rId128"/>
+    <sheet name="BlockCompanyBrand" sheetId="118" r:id="rId129"/>
+    <sheet name="BlockCompanyClient" sheetId="119" r:id="rId130"/>
+    <sheet name="BlockGlobalProduct" sheetId="120" r:id="rId131"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId132"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId133"/>
+    <sheet name="CreateCompanyVendor" sheetId="123" r:id="rId134"/>
+    <sheet name="AmendGlobalVendor" sheetId="116" r:id="rId135"/>
+    <sheet name="AmendCompanyVendor" sheetId="117" r:id="rId136"/>
+    <sheet name="BlockGlobalVendor" sheetId="122" r:id="rId137"/>
+    <sheet name="BlockCompanyVendor" sheetId="124" r:id="rId138"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -158,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5513" uniqueCount="1709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6060" uniqueCount="1749">
   <si>
     <t>Description</t>
   </si>
@@ -5072,9 +5075,6 @@
     <t>72.52</t>
   </si>
   <si>
-    <t>2944.4</t>
-  </si>
-  <si>
     <t>1221200083</t>
   </si>
   <si>
@@ -5117,36 +5117,6 @@
     <t>676.87</t>
   </si>
   <si>
-    <t>453.26</t>
-  </si>
-  <si>
-    <t>54.39</t>
-  </si>
-  <si>
-    <t>1184.52</t>
-  </si>
-  <si>
-    <t>906.53</t>
-  </si>
-  <si>
-    <t>108.79</t>
-  </si>
-  <si>
-    <t>2199.84</t>
-  </si>
-  <si>
-    <t>60.44</t>
-  </si>
-  <si>
-    <t>7.25</t>
-  </si>
-  <si>
-    <t>2267.53</t>
-  </si>
-  <si>
-    <t>79,809.63</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -5231,15 +5201,6 @@
     <t>1221200120</t>
   </si>
   <si>
-    <t>1221200121</t>
-  </si>
-  <si>
-    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Job Quote-58.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Job Order Confirmation-24.pdf</t>
-  </si>
-  <si>
     <t>122664</t>
   </si>
   <si>
@@ -5285,13 +5246,178 @@
     <t>13</t>
   </si>
   <si>
-    <t>1221200124</t>
+    <t>Job Sheet_1</t>
+  </si>
+  <si>
+    <t>Budget sheet_1</t>
+  </si>
+  <si>
+    <t>Quote Sheet_1</t>
+  </si>
+  <si>
+    <t>1221200126</t>
+  </si>
+  <si>
+    <t>Blanket Job Number_1</t>
+  </si>
+  <si>
+    <t>1221200127</t>
+  </si>
+  <si>
+    <t>Client No</t>
+  </si>
+  <si>
+    <t>1221200130</t>
+  </si>
+  <si>
+    <t>56.48</t>
+  </si>
+  <si>
+    <t>6.15</t>
+  </si>
+  <si>
+    <t>734.22</t>
+  </si>
+  <si>
+    <t>84.72</t>
+  </si>
+  <si>
+    <t>1,694.40</t>
+  </si>
+  <si>
+    <t>102.40</t>
+  </si>
+  <si>
+    <t>12.28</t>
+  </si>
+  <si>
+    <t>848.9</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>856.55</t>
+  </si>
+  <si>
+    <t>112.96</t>
+  </si>
+  <si>
+    <t>8.20</t>
+  </si>
+  <si>
+    <t>933.02</t>
+  </si>
+  <si>
+    <t>28.24</t>
+  </si>
+  <si>
+    <t>42.67</t>
+  </si>
+  <si>
+    <t>5.12</t>
+  </si>
+  <si>
+    <t>980.81</t>
+  </si>
+  <si>
+    <t>20.48</t>
+  </si>
+  <si>
+    <t>1171.96</t>
+  </si>
+  <si>
+    <t>18,486.16</t>
+  </si>
+  <si>
+    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Invoice Editing-2.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Job Invoice-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1221400009
+</t>
+  </si>
+  <si>
+    <t>WorkCode 1</t>
+  </si>
+  <si>
+    <t>WorkCode 2</t>
+  </si>
+  <si>
+    <t>WorkCode 3</t>
+  </si>
+  <si>
+    <t>12.29</t>
+  </si>
+  <si>
+    <t>848.91</t>
+  </si>
+  <si>
+    <t>WorkCode 4</t>
+  </si>
+  <si>
+    <t>856.56</t>
+  </si>
+  <si>
+    <t>WorkCode 5</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>WorkCode 6</t>
+  </si>
+  <si>
+    <t>WorkCode 7</t>
+  </si>
+  <si>
+    <t>PDF Draft Credit Memo</t>
+  </si>
+  <si>
+    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Invoice Editing-3.pdf</t>
+  </si>
+  <si>
+    <t>RB109_TM-CP</t>
+  </si>
+  <si>
+    <t>Digital-T&amp;M - CP</t>
+  </si>
+  <si>
+    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Job Quote-75.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Job Order Confirmation-28.pdf</t>
+  </si>
+  <si>
+    <t>1221200135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1221400010
+</t>
+  </si>
+  <si>
+    <t>102.41</t>
+  </si>
+  <si>
+    <t>68.26</t>
+  </si>
+  <si>
+    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Invoice Editing-5.pdf</t>
+  </si>
+  <si>
+    <t>火车 - 国际客户会议</t>
+  </si>
+  <si>
+    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Invoice Editing-6.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6091,8 +6217,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6176,10 +6302,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="82" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.5703125" style="82" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="19" style="82" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.7109375" style="82" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="82" width="23.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="32.5703125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="82" width="19.0" collapsed="true"/>
+    <col min="5" max="16384" style="82" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6278,7 +6404,7 @@
         <v>1560</v>
       </c>
       <c r="D8" s="107" t="s">
-        <v>1673</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6307,20 +6433,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" style="102" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="102" width="23.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="102" width="32.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="102" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="102" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="102" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="102" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="102" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="102" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="102" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="102" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="102" width="18.85546875" collapsed="true"/>
+    <col min="14" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -6483,18 +6609,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" style="102" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" style="102" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" style="102" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.140625" style="102" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.42578125" style="102" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.140625" style="102" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.28515625" style="102" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.42578125" style="102" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="102" width="22.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="102" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="102" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="102" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="102" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="102" width="17.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="102" width="15.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="102" width="20.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="102" width="17.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="102" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="102" width="13.42578125" collapsed="true"/>
+    <col min="12" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6606,16 +6732,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19" style="27" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.5703125" style="27" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="23.140625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="27" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="27" width="24.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
+    <col min="11" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6691,7 +6817,7 @@
         <v>1609</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
   </sheetData>
@@ -6710,7 +6836,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6756,13 +6882,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BM8" sqref="BM8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7233,7 +7359,7 @@
         <v>1636</v>
       </c>
       <c r="J6" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="K6" t="s">
         <v>1096</v>
@@ -7242,10 +7368,10 @@
         <v>1538</v>
       </c>
       <c r="M6" t="s">
-        <v>1207</v>
+        <v>1702</v>
       </c>
       <c r="N6" t="s">
-        <v>1201</v>
+        <v>1520</v>
       </c>
       <c r="O6" t="s">
         <v>1130</v>
@@ -7254,13 +7380,13 @@
         <v>1132</v>
       </c>
       <c r="Q6" t="s">
-        <v>1652</v>
+        <v>1521</v>
       </c>
       <c r="R6" t="s">
-        <v>1653</v>
+        <v>1703</v>
       </c>
       <c r="S6" t="s">
-        <v>1654</v>
+        <v>1704</v>
       </c>
       <c r="T6" t="s">
         <v>1097</v>
@@ -7269,10 +7395,10 @@
         <v>1540</v>
       </c>
       <c r="V6" t="s">
-        <v>1541</v>
+        <v>1705</v>
       </c>
       <c r="W6" t="s">
-        <v>1202</v>
+        <v>1706</v>
       </c>
       <c r="X6" t="s">
         <v>1130</v>
@@ -7281,13 +7407,13 @@
         <v>1132</v>
       </c>
       <c r="Z6" t="s">
-        <v>1655</v>
+        <v>1707</v>
       </c>
       <c r="AA6" t="s">
-        <v>1656</v>
+        <v>1708</v>
       </c>
       <c r="AB6" t="s">
-        <v>1657</v>
+        <v>1709</v>
       </c>
       <c r="AC6" t="s">
         <v>1098</v>
@@ -7296,10 +7422,10 @@
         <v>1252</v>
       </c>
       <c r="AE6" t="s">
-        <v>1543</v>
+        <v>1523</v>
       </c>
       <c r="AF6" t="s">
-        <v>1200</v>
+        <v>1524</v>
       </c>
       <c r="AG6" t="s">
         <v>1130</v>
@@ -7308,13 +7434,13 @@
         <v>1132</v>
       </c>
       <c r="AI6" t="s">
-        <v>1658</v>
+        <v>1525</v>
       </c>
       <c r="AJ6" t="s">
-        <v>1659</v>
+        <v>1710</v>
       </c>
       <c r="AK6" t="s">
-        <v>1660</v>
+        <v>1711</v>
       </c>
       <c r="AL6" t="s">
         <v>1099</v>
@@ -7323,10 +7449,10 @@
         <v>1252</v>
       </c>
       <c r="AN6" t="s">
-        <v>1200</v>
+        <v>1712</v>
       </c>
       <c r="AO6" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="AP6" t="s">
         <v>1130</v>
@@ -7335,13 +7461,13 @@
         <v>1132</v>
       </c>
       <c r="AR6" t="s">
-        <v>1635</v>
+        <v>1531</v>
       </c>
       <c r="AS6" t="s">
-        <v>1636</v>
+        <v>1713</v>
       </c>
       <c r="AT6" t="s">
-        <v>1637</v>
+        <v>1714</v>
       </c>
       <c r="AU6" t="s">
         <v>1100</v>
@@ -7350,10 +7476,10 @@
         <v>1321</v>
       </c>
       <c r="AW6" t="s">
-        <v>1322</v>
+        <v>1715</v>
       </c>
       <c r="AX6" t="s">
-        <v>1203</v>
+        <v>1526</v>
       </c>
       <c r="AY6" t="s">
         <v>1130</v>
@@ -7362,13 +7488,13 @@
         <v>1132</v>
       </c>
       <c r="BA6" t="s">
-        <v>1387</v>
+        <v>1716</v>
       </c>
       <c r="BB6" t="s">
-        <v>1389</v>
+        <v>1717</v>
       </c>
       <c r="BC6" t="s">
-        <v>1391</v>
+        <v>1718</v>
       </c>
       <c r="BD6" t="s">
         <v>1101</v>
@@ -7377,10 +7503,10 @@
         <v>1321</v>
       </c>
       <c r="BF6" t="s">
-        <v>1200</v>
+        <v>1712</v>
       </c>
       <c r="BG6" t="s">
-        <v>1204</v>
+        <v>1528</v>
       </c>
       <c r="BH6" t="s">
         <v>1130</v>
@@ -7389,22 +7515,22 @@
         <v>1132</v>
       </c>
       <c r="BJ6" t="s">
-        <v>1393</v>
+        <v>1529</v>
       </c>
       <c r="BK6" t="s">
-        <v>1395</v>
+        <v>1719</v>
       </c>
       <c r="BL6" t="s">
-        <v>1397</v>
+        <v>1720</v>
       </c>
       <c r="BM6" t="s">
-        <v>1292</v>
+        <v>1677</v>
       </c>
       <c r="BN6" t="s">
-        <v>1661</v>
+        <v>1721</v>
       </c>
       <c r="BO6" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
     </row>
   </sheetData>
@@ -7423,10 +7549,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7499,13 +7625,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="102" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="102" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" style="102" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="102" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" style="102" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="17.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7577,15 +7703,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19" style="27" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.5703125" style="27" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="23.140625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="27" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="27" width="24.5703125" collapsed="true"/>
+    <col min="10" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7717,10 +7843,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="10.0" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7768,18 +7894,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
-    <col min="2" max="2" width="21" style="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" style="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21" style="27" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.42578125" style="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" style="27" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.140625" style="27" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.28515625" style="27" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" style="27" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" style="27" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="27" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="27" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="27" width="21.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="27" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="27" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="27" width="30.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="27" width="28.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="27" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="27" width="23.7109375" collapsed="true"/>
+    <col min="12" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7906,10 +8032,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="82" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.5703125" style="82" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="17" style="82" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.7109375" style="82" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="82" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="32.5703125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="82" width="17.0" collapsed="true"/>
+    <col min="5" max="16384" style="82" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7955,7 +8081,7 @@
         <v>1570</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -8050,16 +8176,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8164,49 +8290,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -8538,49 +8664,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -8905,19 +9031,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="102" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="102" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" style="102" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="19.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="102" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" style="102" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="17.85546875" collapsed="true"/>
+    <col min="7" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8974,6 +9100,583 @@
 </file>
 
 <file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" style="102" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="102" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="102" width="13.5703125" collapsed="true"/>
+    <col min="6" max="10" style="102" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="102" width="17.85546875" collapsed="true"/>
+    <col min="12" max="16384" style="102" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H1" s="106" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I1" s="106" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>964</v>
+      </c>
+      <c r="K1" s="104" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="102">
+        <v>1284</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>1435</v>
+      </c>
+      <c r="H2" s="106" t="s">
+        <v>1436</v>
+      </c>
+      <c r="I2" s="106" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K2" s="105" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="102">
+        <v>1221</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>961</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>962</v>
+      </c>
+      <c r="E3" s="106" t="s">
+        <v>963</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H3" s="106" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K3" s="105" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" style="102" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="102">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="102">
+        <v>1221</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BO2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="T1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K2" t="s">
+        <v>898</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="T2" t="s">
+        <v>900</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>901</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>803</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>902</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -8983,9 +9686,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="35" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="18.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="104" width="35.0" collapsed="true"/>
+    <col min="4" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9153,7 +9856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -9163,9 +9866,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="35" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="18.0" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="104" width="35.0" collapsed="true"/>
+    <col min="4" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9324,7 +10027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -9334,9 +10037,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="102" width="19.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="102" width="30.7109375" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9507,478 +10210,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="72">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>658</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>659</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
-        <v>660</v>
-      </c>
-      <c r="B6" s="105" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C6" s="105" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B8" s="105">
-        <v>1284</v>
-      </c>
-      <c r="C8" s="105">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>872</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
-        <v>871</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B12" s="105" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>832</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
-        <v>875</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
-        <v>873</v>
-      </c>
-      <c r="B16" s="102" t="s">
-        <v>842</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B17" s="105" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C17" s="105" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="72">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>658</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B6" s="105" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C6" s="105" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B8" s="105">
-        <v>1284</v>
-      </c>
-      <c r="C8" s="105">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>872</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
-        <v>871</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B12" s="105" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>832</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
-        <v>875</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
-        <v>873</v>
-      </c>
-      <c r="B16" s="102" t="s">
-        <v>842</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B17" s="105" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C17" s="105" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="28.28515625" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="105" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>837</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C4" s="105" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>835</v>
-      </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9992,10 +10223,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="82" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" style="82" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.5703125" style="82" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.7109375" style="82" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="82" width="22.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="82" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="82" width="32.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="82" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10075,7 +10306,7 @@
         <v>1570</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -10133,6 +10364,478 @@
 </file>
 
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="102" width="19.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="102" width="30.7109375" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="72">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>658</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>660</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B8" s="105">
+        <v>1284</v>
+      </c>
+      <c r="C8" s="105">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>872</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
+        <v>871</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>832</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
+        <v>875</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="102" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
+        <v>873</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>842</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="102" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B17" s="105" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="102" width="19.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="102" width="30.7109375" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="72">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>658</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B8" s="105">
+        <v>1284</v>
+      </c>
+      <c r="C8" s="105">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>872</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
+        <v>871</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>832</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
+        <v>875</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="102" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
+        <v>873</v>
+      </c>
+      <c r="B16" s="102" t="s">
+        <v>842</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="102" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B17" s="105" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="102" width="23.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="102" width="28.28515625" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>837</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>835</v>
+      </c>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -10142,9 +10845,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="28.28515625" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="102" width="23.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="102" width="28.28515625" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10212,7 +10915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -10222,9 +10925,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="28.28515625" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="102" width="23.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="102" width="28.28515625" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10292,7 +10995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -10302,9 +11005,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="29.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="17.5703125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="102" width="29.140625" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10375,7 +11078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -10385,9 +11088,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="39" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="17.5703125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="102" width="39.0" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10484,7 +11187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -10494,9 +11197,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="39" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="17.5703125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="102" width="39.0" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10590,175 +11293,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" style="102" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="77">
-        <v>1284</v>
-      </c>
-      <c r="C1" s="102">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2" s="110"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B4" s="110"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="77">
-        <v>1284</v>
-      </c>
-      <c r="C1" s="102">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2" s="108"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>659</v>
-      </c>
-      <c r="B4" s="109"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" style="102" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="102">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2" s="108"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10772,9 +11306,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="102" width="19.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10792,7 +11326,7 @@
       <c r="A2" s="102" t="s">
         <v>658</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="110"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
@@ -10807,13 +11341,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>659</v>
+        <v>1180</v>
       </c>
       <c r="B4" s="110"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
-        <v>660</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -10824,9 +11358,6 @@
 
 <file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10835,47 +11366,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="102" width="24.85546875" collapsed="true"/>
+    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>1609</v>
+      <c r="B1" s="77">
+        <v>1284</v>
+      </c>
+      <c r="C1" s="102">
+        <v>1221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="102" t="s">
         <v>658</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="108"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="102" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="102" t="s">
         <v>659</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="109"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="102" t="s">
         <v>660</v>
       </c>
     </row>
@@ -10895,9 +11426,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="11.0" collapsed="true"/>
+    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10926,6 +11457,178 @@
 </file>
 
 <file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="102" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="102" width="13.0" collapsed="true"/>
+    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="102">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="108"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="102" width="31.85546875" collapsed="true"/>
+    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="77">
+        <v>1284</v>
+      </c>
+      <c r="C1" s="102">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="110"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="10.0" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="73"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -10938,8 +11641,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
+    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10975,7 +11678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -10985,9 +11688,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="35" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="18.85546875" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="102" width="35.0" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11157,7 +11860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -11167,9 +11870,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="102" width="25.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11244,7 +11947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -11254,9 +11957,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="102" width="25.85546875" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11320,7 +12023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -11330,9 +12033,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="102" width="25.85546875" collapsed="true"/>
+    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11368,7 +12071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -11378,9 +12081,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="18.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11427,9 +12130,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="11.0" collapsed="true"/>
+    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11470,11 +12173,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.85546875" style="102" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="43.7109375" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="43.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" style="102" width="43.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" hidden="true" width="43.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="6" max="8" bestFit="true" customWidth="true" style="102" width="43.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12103,12 +12806,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="35" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="35.7109375" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="27" width="35.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="35.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="35.7109375" collapsed="true"/>
+    <col min="7" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -12692,16 +13395,16 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.28515625" style="102" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="57" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="102" width="32.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="57.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13016,7 +13719,7 @@
     </row>
     <row r="17" spans="1:6" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -13066,11 +13769,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31" style="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="31" style="104" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="45" width="30.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="26.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="27" width="31.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="104" width="31.0" collapsed="true"/>
+    <col min="6" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -13348,7 +14051,7 @@
         <v>1314</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1677</v>
+        <v>1666</v>
       </c>
       <c r="E17" s="78" t="s">
         <v>1251</v>
@@ -13356,7 +14059,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
       <c r="B18" s="44"/>
       <c r="D18" s="29">
@@ -13382,48 +14085,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="27" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="27" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" style="27" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.140625" style="27" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.140625" style="27" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.140625" style="27" collapsed="1"/>
-    <col min="31" max="31" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.140625" style="27" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="9.140625" style="27" collapsed="1"/>
-    <col min="39" max="39" width="13.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="6" max="6" style="27" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" style="27" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" style="27" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" style="27" width="9.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" style="27" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="30" max="30" style="27" width="9.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" style="27" width="9.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="38" max="38" style="27" width="9.140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="27" width="13.42578125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="42" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
@@ -13554,22 +14257,22 @@
         <v>128</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1699</v>
+        <v>1685</v>
       </c>
       <c r="AR1" t="s">
-        <v>1700</v>
+        <v>1686</v>
       </c>
       <c r="AS1" t="s">
-        <v>1701</v>
+        <v>1687</v>
       </c>
       <c r="AT1" t="s">
-        <v>1702</v>
+        <v>1688</v>
       </c>
       <c r="AU1" t="s">
-        <v>1704</v>
+        <v>1690</v>
       </c>
       <c r="AV1" t="s">
-        <v>1705</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -13943,7 +14646,7 @@
         <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>1698</v>
+        <v>1684</v>
       </c>
       <c r="G6" t="s">
         <v>895</v>
@@ -13964,10 +14667,10 @@
         <v>1097</v>
       </c>
       <c r="M6" t="s">
-        <v>1703</v>
+        <v>1689</v>
       </c>
       <c r="N6" t="s">
-        <v>1706</v>
+        <v>1692</v>
       </c>
       <c r="O6" s="104" t="s">
         <v>899</v>
@@ -14047,18 +14750,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:FI141"/>
+  <dimension ref="A1:FI143"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" style="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="164" width="32" style="27" customWidth="1" collapsed="1"/>
-    <col min="165" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="39.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="27" width="23.7109375" collapsed="true"/>
+    <col min="3" max="164" customWidth="true" style="27" width="32.0" collapsed="true"/>
+    <col min="165" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:165" x14ac:dyDescent="0.25">
@@ -14416,7 +15119,7 @@
         <v>164</v>
       </c>
       <c r="B22" s="105" t="s">
-        <v>1693</v>
+        <v>1679</v>
       </c>
       <c r="C22" s="102"/>
     </row>
@@ -14432,8 +15135,8 @@
       <c r="A24" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="105" t="s">
-        <v>1708</v>
+      <c r="B24" s="102" t="s">
+        <v>1701</v>
       </c>
       <c r="C24" s="105"/>
     </row>
@@ -14449,8 +15152,8 @@
       <c r="A26" t="s">
         <v>1317</v>
       </c>
-      <c r="B26" t="s">
-        <v>1690</v>
+      <c r="B26" s="102" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -14466,7 +15169,7 @@
         <v>1319</v>
       </c>
       <c r="B28" t="s">
-        <v>1691</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -14474,7 +15177,7 @@
         <v>1320</v>
       </c>
       <c r="B29" t="s">
-        <v>1692</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -14495,137 +15198,164 @@
       </c>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1326</v>
       </c>
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1327</v>
       </c>
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>172</v>
       </c>
-      <c r="B35" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+      <c r="C35" s="102" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>207</v>
       </c>
       <c r="B36"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="102"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>964</v>
       </c>
       <c r="B37" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1697</v>
+      </c>
+      <c r="C37" s="102" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1328</v>
       </c>
       <c r="B38" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="102" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1329</v>
       </c>
       <c r="B39" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1697</v>
+      </c>
+      <c r="C39" s="102" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1330</v>
       </c>
       <c r="B40" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="102" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="102" t="s">
         <v>1331</v>
       </c>
       <c r="B41" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1697</v>
+      </c>
+      <c r="C41" s="102" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1332</v>
       </c>
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1333</v>
       </c>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1334</v>
       </c>
       <c r="B44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1335</v>
       </c>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1336</v>
       </c>
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1337</v>
       </c>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1338</v>
       </c>
-      <c r="B48" s="106"/>
+      <c r="B48" t="s">
+        <v>1699</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1339</v>
       </c>
-      <c r="B49" s="106"/>
+      <c r="B49" t="s">
+        <v>1620</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1340</v>
       </c>
-      <c r="B50" s="106"/>
+      <c r="B50" t="s">
+        <v>1699</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1341</v>
       </c>
-      <c r="B51" s="106"/>
+      <c r="B51" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="102" t="s">
         <v>1342</v>
       </c>
-      <c r="B52" s="106"/>
+      <c r="B52" t="s">
+        <v>1699</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -14769,19 +15499,25 @@
       <c r="A76" t="s">
         <v>1400</v>
       </c>
-      <c r="B76"/>
+      <c r="B76" t="s">
+        <v>1722</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="104" t="s">
         <v>1406</v>
       </c>
-      <c r="B77" s="105"/>
+      <c r="B77" t="s">
+        <v>1701</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>1407</v>
       </c>
-      <c r="B78" s="105"/>
+      <c r="B78" t="s">
+        <v>1724</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -14899,6 +15635,9 @@
       <c r="A98" t="s">
         <v>1429</v>
       </c>
+      <c r="B98" t="s">
+        <v>1723</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -14934,43 +15673,57 @@
       <c r="A104" t="s">
         <v>1438</v>
       </c>
-      <c r="B104" s="106"/>
+      <c r="B104" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1440</v>
       </c>
-      <c r="B105" s="106"/>
+      <c r="B105" t="s">
+        <v>1738</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1441</v>
       </c>
-      <c r="B106" s="106"/>
+      <c r="B106" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1442</v>
       </c>
-      <c r="B107" s="106"/>
+      <c r="B107" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="102" t="s">
         <v>1443</v>
       </c>
-      <c r="B108" s="106"/>
+      <c r="B108" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1444</v>
       </c>
-      <c r="B109" s="106"/>
+      <c r="B109" t="s">
+        <v>1743</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1445</v>
       </c>
-      <c r="B110" s="106"/>
+      <c r="B110" t="s">
+        <v>1742</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -15055,7 +15808,7 @@
         <v>1484</v>
       </c>
       <c r="B125" t="s">
-        <v>1694</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -15122,7 +15875,7 @@
         <v>1511</v>
       </c>
       <c r="B136" t="s">
-        <v>1695</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -15149,9 +15902,25 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1678</v>
+        <v>1667</v>
       </c>
       <c r="B141"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1748</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15172,9 +15941,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="104" customFormat="1" x14ac:dyDescent="0.25">
@@ -15491,7 +16260,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="104" t="s">
-        <v>1697</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="102" customFormat="1" x14ac:dyDescent="0.25">
@@ -15533,7 +16302,7 @@
         <v>20</v>
       </c>
       <c r="N6" s="104" t="s">
-        <v>1706</v>
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
@@ -15555,9 +16324,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="11.0" collapsed="true"/>
+    <col min="3" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15609,7 +16378,7 @@
         <v>1609</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>1707</v>
+        <v>1693</v>
       </c>
     </row>
   </sheetData>
@@ -15630,9 +16399,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -15684,7 +16453,7 @@
         <v>1609</v>
       </c>
       <c r="C6" t="s">
-        <v>1707</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -15703,9 +16472,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -16251,7 +17020,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -16313,10 +17082,10 @@
         <v>1141</v>
       </c>
       <c r="T1" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="U1" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -16344,16 +17113,16 @@
         <v>1609</v>
       </c>
       <c r="B6" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
       <c r="C6" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="D6" t="s">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="E6" t="s">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="F6" t="s">
         <v>1130</v>
@@ -16362,13 +17131,13 @@
         <v>1132</v>
       </c>
       <c r="H6" t="s">
-        <v>1683</v>
+        <v>1672</v>
       </c>
       <c r="I6" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="J6" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
       <c r="K6" t="s">
         <v>1142</v>
@@ -16398,10 +17167,10 @@
         <v>1142</v>
       </c>
       <c r="T6" t="s">
-        <v>174</v>
+        <v>1401</v>
       </c>
       <c r="U6" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
     </row>
   </sheetData>
@@ -16414,17 +17183,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="102" width="32.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -16711,7 +17480,7 @@
     </row>
     <row r="20" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
       <c r="B20" s="67"/>
       <c r="E20" s="105" t="s">
@@ -16751,49 +17520,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="27" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="27" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="27" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.140625" style="27" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.140625" style="27" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9.140625" style="27" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="9.140625" style="27" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="9.140625" style="27" collapsed="1"/>
-    <col min="40" max="40" width="13.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" style="27" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" style="27" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" style="27" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" style="27" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" style="27" width="9.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" style="27" width="9.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" style="27" width="9.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" style="27" width="9.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="27" width="13.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="43" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -17311,10 +18080,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -17377,19 +18146,19 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.140625" style="102" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="47.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="102" width="45.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="102" width="32.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -17689,6 +18458,14 @@
       </c>
       <c r="E20" s="102">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E21" s="105" t="s">
+        <v>1590</v>
       </c>
     </row>
   </sheetData>
@@ -17707,40 +18484,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -18119,7 +18896,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -19298,10 +20075,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -19372,11 +20149,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="102" width="32.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -19694,49 +20471,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="27" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="27" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="27" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.140625" style="27" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.140625" style="27" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9.140625" style="27" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="9.140625" style="27" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="9.140625" style="27" collapsed="1"/>
-    <col min="40" max="40" width="13.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" style="27" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" style="27" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" style="27" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" style="27" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" style="27" width="9.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" style="27" width="9.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" style="27" width="9.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" style="27" width="9.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="27" width="13.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="43" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -20254,10 +21031,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -20314,20 +21091,20 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34" style="102" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.140625" style="102" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.28515625" style="102" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="102" width="34.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="102" width="45.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="102" width="32.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -20548,7 +21325,7 @@
         <v>1355</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1620</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -20565,7 +21342,7 @@
         <v>1356</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1621</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -20594,25 +21371,25 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>177</v>
       </c>
       <c r="B17" s="67"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B18" s="67"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>180</v>
       </c>
       <c r="B19" s="67"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="86" t="s">
         <v>944</v>
       </c>
@@ -20628,6 +21405,18 @@
       <c r="E20" s="102">
         <v>5</v>
       </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29">
+        <v>12219905</v>
+      </c>
+      <c r="F21" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20644,49 +21433,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="104" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="104" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="104" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.140625" style="104" collapsed="1"/>
-    <col min="24" max="24" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.140625" style="104" collapsed="1"/>
-    <col min="28" max="28" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="9.140625" style="104" collapsed="1"/>
-    <col min="32" max="32" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="9.140625" style="104" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="9.140625" style="104" collapsed="1"/>
-    <col min="40" max="40" width="13.42578125" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="104" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" style="104" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="11" max="11" style="104" width="9.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="104" width="6.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" style="104" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" style="104" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="27" max="27" style="104" width="9.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="31" max="31" style="104" width="9.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="35" max="35" style="104" width="9.140625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="39" max="39" style="104" width="9.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="104" width="13.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="104" width="14.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
+    <col min="43" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -21203,10 +21992,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
+    <col min="4" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -21276,7 +22065,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21350,8 +22139,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21425,8 +22214,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -21503,7 +22292,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -23554,9 +24343,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="82" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="82" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="82" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="82" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="16.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="82" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -23630,9 +24419,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="82" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="82" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="82" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="82" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="16.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="82" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -23692,9 +24481,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="82" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.28515625" style="82" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.7109375" style="82" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="82" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="16.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="82" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -23757,30 +24546,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" style="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" style="27" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="22.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="27" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="27" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="19.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="10.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="19.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="10.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="19.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="27" width="10.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="10.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="13.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="20.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="27" width="11.5703125" collapsed="true"/>
+    <col min="24" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -23956,7 +24745,7 @@
         <v>1590</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E5" s="104" t="s">
         <v>850</v>
@@ -23987,9 +24776,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="32.140625" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -24030,9 +24819,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="45.5703125" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -24076,9 +24865,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="29.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="27" width="29.140625" collapsed="true"/>
+    <col min="5" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -24134,9 +24923,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="19.0" collapsed="true"/>
+    <col min="5" max="5" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -24176,7 +24965,7 @@
         <v>1515</v>
       </c>
       <c r="E3" s="105" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -24434,9 +25223,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="18.7109375" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -24498,9 +25287,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="18.7109375" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -24568,10 +25357,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="4" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -24813,16 +25602,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="59.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="57.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.7109375" style="27" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="45.28515625" style="27" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="60.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="59.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="51.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="51.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="51.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="57.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="27" width="63.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="27" width="45.28515625" collapsed="true"/>
+    <col min="10" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25378,9 +26167,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="23.140625" style="104" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="24.140625" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" style="104" width="23.140625" collapsed="true"/>
+    <col min="6" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25555,11 +26344,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="87.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="69.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="87.5703125" collapsed="true"/>
+    <col min="4" max="6" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="69.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -25956,9 +26745,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="60.140625" collapsed="true"/>
+    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26022,9 +26811,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.28515625" style="102" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="102" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="102" width="26.28515625" collapsed="true"/>
+    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26090,46 +26879,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -26395,7 +27184,7 @@
         <v>934</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>1674</v>
+        <v>1663</v>
       </c>
       <c r="G4" s="105" t="s">
         <v>872</v>
@@ -26405,7 +27194,7 @@
       </c>
       <c r="I4" s="105"/>
       <c r="J4" s="105" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
@@ -26441,40 +27230,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -26662,8 +27451,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -26723,8 +27512,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -26784,42 +27573,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="102" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" style="102" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="102" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
+    <col min="36" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -27006,8 +27795,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27173,43 +27962,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.42578125" style="27" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="38" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -27415,9 +28204,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -27473,43 +28262,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.42578125" style="27" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="38" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -27717,9 +28506,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -27775,43 +28564,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="104" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.42578125" style="104" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" style="104" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="38" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -28031,9 +28820,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="11.0" collapsed="true"/>
+    <col min="3" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -28089,43 +28878,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="104" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.42578125" style="104" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" style="104" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="38" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -28330,43 +29119,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="104" collapsed="1"/>
-    <col min="2" max="2" width="15.42578125" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.42578125" style="104" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" style="104" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
+    <col min="38" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -28571,9 +29360,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="11.0" collapsed="true"/>
+    <col min="3" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -28628,9 +29417,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="11.0" collapsed="true"/>
+    <col min="3" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -28682,10 +29471,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="102" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" style="102" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="102" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="102" width="14.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="11.0" collapsed="true"/>
+    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -28729,7 +29518,7 @@
         <v>1375</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -28762,11 +29551,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="22.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.5703125" style="104" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.7109375" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" style="27" width="22.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="22.5703125" collapsed="true"/>
+    <col min="7" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -28948,11 +29737,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="9.140625" style="27" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="104" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="3" max="4" style="27" width="9.140625" collapsed="true"/>
+    <col min="5" max="6" style="104" width="9.140625" collapsed="true"/>
+    <col min="7" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29079,11 +29868,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="9.140625" style="27" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="104" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.42578125" collapsed="true"/>
+    <col min="3" max="4" style="27" width="9.140625" collapsed="true"/>
+    <col min="5" max="6" style="104" width="9.140625" collapsed="true"/>
+    <col min="7" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -29210,11 +29999,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="27" collapsed="1"/>
-    <col min="4" max="5" width="9.140625" style="104" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" style="27" width="9.140625" collapsed="true"/>
+    <col min="4" max="5" style="104" width="9.140625" collapsed="true"/>
+    <col min="6" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -29326,11 +30115,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="27" collapsed="1"/>
-    <col min="4" max="5" width="9.140625" style="104" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" style="27" width="9.140625" collapsed="true"/>
+    <col min="4" max="5" style="104" width="9.140625" collapsed="true"/>
+    <col min="6" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -29446,12 +30235,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" style="27" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="15" width="16.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="7" max="15" bestFit="true" customWidth="true" style="27" width="16.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -29558,16 +30347,16 @@
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="106" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
   </sheetData>
@@ -29589,8 +30378,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -29631,8 +30420,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -29679,9 +30468,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" style="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="27" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -29738,13 +30527,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -29794,19 +30583,19 @@
         <v>1221</v>
       </c>
       <c r="C3" s="106" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E3" s="104" t="s">
         <v>1641</v>
       </c>
-      <c r="D3" s="106" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E3" s="104" t="s">
+      <c r="F3" s="104" t="s">
         <v>1642</v>
       </c>
-      <c r="F3" s="104" t="s">
-        <v>1643</v>
-      </c>
       <c r="G3" s="104" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
   </sheetData>
@@ -29825,7 +30614,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="104" collapsed="1"/>
+    <col min="1" max="16384" style="104" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -29867,7 +30656,7 @@
         <v>1485</v>
       </c>
       <c r="D3" s="105" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
   </sheetData>
@@ -29889,9 +30678,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -29980,7 +30769,7 @@
         <v>1512</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -29991,7 +30780,7 @@
         <v>1512</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -30002,7 +30791,7 @@
         <v>1364</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -30013,7 +30802,7 @@
         <v>1364</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -30042,10 +30831,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -30132,7 +30921,7 @@
         <v>1512</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -30143,7 +30932,7 @@
         <v>1512</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -30154,7 +30943,7 @@
         <v>1365</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -30165,7 +30954,7 @@
         <v>1365</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -30193,14 +30982,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.85546875" style="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" style="27" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="25.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="10" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -30266,10 +31055,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="106" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="F3" s="106" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G3" s="102">
         <v>1221001</v>
@@ -30297,8 +31086,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -30354,9 +31143,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" style="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="27" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -30418,14 +31207,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.85546875" style="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" style="27" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="25.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="10" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -30493,10 +31282,10 @@
         <v>992</v>
       </c>
       <c r="E3" s="106" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="F3" s="106" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G3" s="102">
         <v>1221002</v>
@@ -30524,8 +31313,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -30581,9 +31370,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" style="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="27" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -30645,11 +31434,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="9.140625" style="27" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="104" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.42578125" collapsed="true"/>
+    <col min="3" max="4" style="27" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" style="104" width="9.140625" collapsed="true"/>
+    <col min="6" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -30737,9 +31526,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="27.5703125" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -30790,10 +31579,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="82" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" style="82" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="19.140625" style="82" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.7109375" style="82" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="82" width="17.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="22.28515625" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" style="82" width="19.140625" collapsed="true"/>
+    <col min="6" max="16384" style="82" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -30855,7 +31644,7 @@
         <v>1570</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -30920,9 +31709,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.42578125" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -31017,11 +31806,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" style="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="27" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="15.7109375" collapsed="true"/>
+    <col min="5" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -31049,7 +31838,7 @@
         <v>1534</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -31101,7 +31890,7 @@
         <v>1535</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="G6" s="102"/>
     </row>
@@ -31143,17 +31932,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -31293,7 +32082,7 @@
         <v>220</v>
       </c>
       <c r="O4" s="102" t="s">
-        <v>1663</v>
+        <v>1652</v>
       </c>
       <c r="P4" s="105" t="s">
         <v>1018</v>
@@ -31315,17 +32104,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -31546,7 +32335,7 @@
         <v>220</v>
       </c>
       <c r="O6" s="102" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="P6" s="105" t="s">
         <v>1015</v>
@@ -31571,7 +32360,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -31623,18 +32412,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -31771,7 +32560,7 @@
         <v>1221</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
       <c r="F4" s="102" t="s">
         <v>1022</v>
@@ -31792,7 +32581,7 @@
         <v>220</v>
       </c>
       <c r="P4" s="102" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="Q4" s="105" t="s">
         <v>1025</v>
@@ -31817,9 +32606,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -31854,7 +32643,7 @@
         <v>1555</v>
       </c>
       <c r="D3" s="83" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
@@ -31873,9 +32662,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -31903,7 +32692,7 @@
         <v>1570</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>1670</v>
+        <v>1659</v>
       </c>
     </row>
   </sheetData>
@@ -31922,9 +32711,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="18.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="35.0" collapsed="true"/>
+    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -31965,7 +32754,7 @@
         <v>1211</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
@@ -31984,7 +32773,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
+    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -32185,28 +32974,28 @@
         <v>1609</v>
       </c>
       <c r="B6" t="s">
-        <v>1671</v>
+        <v>1660</v>
       </c>
       <c r="C6" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="D6" t="s">
         <v>817</v>
       </c>
       <c r="E6" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="F6" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="G6" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
       <c r="H6" t="s">
-        <v>1672</v>
+        <v>1661</v>
       </c>
       <c r="I6" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="J6" t="s">
         <v>1023</v>
@@ -32236,16 +33025,16 @@
         <v>1207</v>
       </c>
       <c r="S6" t="s">
-        <v>1672</v>
+        <v>1661</v>
       </c>
       <c r="T6" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="U6" t="s">
         <v>220</v>
       </c>
       <c r="V6" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="W6" t="s">
         <v>1559</v>

--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="32" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="90" activeTab="93"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -48,112 +48,114 @@
     <sheet name="JobCreation5" sheetId="133" r:id="rId34"/>
     <sheet name="JobBudgetCreation5" sheetId="134" r:id="rId35"/>
     <sheet name="CreateQuote5" sheetId="135" r:id="rId36"/>
-    <sheet name="AbsenceAllowanceRequest" sheetId="52" r:id="rId37"/>
-    <sheet name="RejectAllowanceRequest" sheetId="53" r:id="rId38"/>
-    <sheet name="ApproveAllowanceRequest" sheetId="54" r:id="rId39"/>
-    <sheet name="AbsenceRequest" sheetId="55" r:id="rId40"/>
-    <sheet name="RejectAbsence" sheetId="56" r:id="rId41"/>
-    <sheet name="ApproveAbsence" sheetId="57" r:id="rId42"/>
-    <sheet name="CreateExpense" sheetId="4" r:id="rId43"/>
-    <sheet name="Reject Expenses" sheetId="31" r:id="rId44"/>
-    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId45"/>
-    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId46"/>
-    <sheet name="CreateTimesheet" sheetId="9" r:id="rId47"/>
-    <sheet name="RejectTimesheet" sheetId="18" r:id="rId48"/>
-    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId49"/>
-    <sheet name="EmployeeCreation" sheetId="5" r:id="rId50"/>
-    <sheet name="UserCreation" sheetId="6" r:id="rId51"/>
-    <sheet name="EmployeeAsUser" sheetId="7" r:id="rId52"/>
-    <sheet name="ChangeEmployee" sheetId="25" r:id="rId53"/>
-    <sheet name="ChangeUser" sheetId="43" r:id="rId54"/>
-    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId55"/>
-    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId56"/>
-    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId57"/>
-    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId58"/>
-    <sheet name="POFromJobBudget" sheetId="138" r:id="rId59"/>
-    <sheet name="CreatePurchaseOrder2" sheetId="64" r:id="rId60"/>
-    <sheet name="ApprovePurchaseOrder2" sheetId="65" r:id="rId61"/>
-    <sheet name="CreatePurchaseOrder3" sheetId="72" r:id="rId62"/>
-    <sheet name="ApprovePurchaseOrder3" sheetId="73" r:id="rId63"/>
-    <sheet name="CreatePurchaseOrder4" sheetId="126" r:id="rId64"/>
-    <sheet name="ApprovePurchaseOrder4" sheetId="127" r:id="rId65"/>
-    <sheet name="CreatePurchaseOrder5" sheetId="129" r:id="rId66"/>
-    <sheet name="CreatePurchaseOrder6" sheetId="130" r:id="rId67"/>
-    <sheet name="ApprovePurchaseOrder5" sheetId="131" r:id="rId68"/>
-    <sheet name="ApprovePurchaseOrder6" sheetId="132" r:id="rId69"/>
-    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId70"/>
-    <sheet name="FixedAssetVal" sheetId="26" r:id="rId71"/>
-    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId72"/>
-    <sheet name="FixedAssetResolution" sheetId="59" r:id="rId73"/>
-    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId74"/>
-    <sheet name="VendorInvoice" sheetId="22" r:id="rId75"/>
-    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId76"/>
-    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId77"/>
-    <sheet name="PostVendorJournal" sheetId="44" r:id="rId78"/>
-    <sheet name="Reverse Invoice" sheetId="41" r:id="rId79"/>
-    <sheet name="CreditNoteWithPO" sheetId="42" r:id="rId80"/>
-    <sheet name="ReverseCreditNote" sheetId="40" r:id="rId81"/>
-    <sheet name="VendorInvoice2" sheetId="66" r:id="rId82"/>
-    <sheet name="ApproveVendorInvoice2" sheetId="67" r:id="rId83"/>
-    <sheet name="PostVendorJournal2" sheetId="68" r:id="rId84"/>
-    <sheet name="VendorInvoice3" sheetId="74" r:id="rId85"/>
-    <sheet name="ApproveVendorInvoice3" sheetId="75" r:id="rId86"/>
-    <sheet name="PostVendorJournal3" sheetId="76" r:id="rId87"/>
-    <sheet name="AR Single Payment" sheetId="35" r:id="rId88"/>
-    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId89"/>
-    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId90"/>
-    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId91"/>
-    <sheet name="Writingoffbad" sheetId="39" r:id="rId92"/>
-    <sheet name="CreateGeneralJournal" sheetId="81" r:id="rId93"/>
-    <sheet name="PostJournalEntries" sheetId="82" r:id="rId94"/>
-    <sheet name="CreateReverseGL" sheetId="83" r:id="rId95"/>
-    <sheet name="ReverseGL" sheetId="84" r:id="rId96"/>
-    <sheet name="CreateCurrencyJournal" sheetId="85" r:id="rId97"/>
-    <sheet name="CopyGL" sheetId="86" r:id="rId98"/>
-    <sheet name="GLMPL" sheetId="87" r:id="rId99"/>
-    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="100" r:id="rId100"/>
-    <sheet name="CreateAnAccrualJobByJob" sheetId="101" r:id="rId101"/>
-    <sheet name="InvoicePreparation" sheetId="93" r:id="rId102"/>
-    <sheet name="JobInvoiceAllocation_WIP" sheetId="94" r:id="rId103"/>
-    <sheet name="InvoiceMPL" sheetId="70" r:id="rId104"/>
-    <sheet name="InvoicePlansInvoiceOnAccount" sheetId="102" r:id="rId105"/>
-    <sheet name="InvoicePlansDirectInvoice" sheetId="128" r:id="rId106"/>
-    <sheet name="InvoiceOnAccount" sheetId="80" r:id="rId107"/>
-    <sheet name="JobInvoice_WithoutWIP" sheetId="103" r:id="rId108"/>
-    <sheet name="InvoicingFromBudget" sheetId="63" r:id="rId109"/>
-    <sheet name="Time_Material_Invocing" sheetId="96" r:id="rId110"/>
-    <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId111"/>
-    <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId112"/>
-    <sheet name="CombinedInvoice" sheetId="140" r:id="rId113"/>
-    <sheet name="BlanketInvoice" sheetId="141" r:id="rId114"/>
-    <sheet name="Job Crediting" sheetId="142" r:id="rId115"/>
-    <sheet name="CreditMemo" sheetId="143" r:id="rId116"/>
-    <sheet name="CreateGlobalBrand" sheetId="105" r:id="rId117"/>
-    <sheet name="CreateGlobalProduct" sheetId="106" r:id="rId118"/>
-    <sheet name="CreateCompanyClient" sheetId="107" r:id="rId119"/>
-    <sheet name="CreateCompanyBrand" sheetId="108" r:id="rId120"/>
-    <sheet name="CreateCompanyProduct" sheetId="109" r:id="rId121"/>
-    <sheet name="AmendCompanyClient" sheetId="110" r:id="rId122"/>
-    <sheet name="AmendCompanyBrand" sheetId="111" r:id="rId123"/>
-    <sheet name="AmendCompanyProduct" sheetId="112" r:id="rId124"/>
-    <sheet name="AmendGlobalClient" sheetId="113" r:id="rId125"/>
-    <sheet name="AmendGlobalBrand" sheetId="114" r:id="rId126"/>
-    <sheet name="AmendGlobalProduct" sheetId="115" r:id="rId127"/>
-    <sheet name="BlockCompanyProduct" sheetId="121" r:id="rId128"/>
-    <sheet name="BlockCompanyBrand" sheetId="118" r:id="rId129"/>
-    <sheet name="BlockCompanyClient" sheetId="119" r:id="rId130"/>
-    <sheet name="BlockGlobalProduct" sheetId="120" r:id="rId131"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId132"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId133"/>
-    <sheet name="CreateCompanyVendor" sheetId="123" r:id="rId134"/>
-    <sheet name="AmendGlobalVendor" sheetId="116" r:id="rId135"/>
-    <sheet name="AmendCompanyVendor" sheetId="117" r:id="rId136"/>
-    <sheet name="BlockGlobalVendor" sheetId="122" r:id="rId137"/>
-    <sheet name="BlockCompanyVendor" sheetId="124" r:id="rId138"/>
+    <sheet name="Update Perodic Balance" sheetId="144" r:id="rId37"/>
+    <sheet name="AbsenceAllowanceRequest" sheetId="52" r:id="rId38"/>
+    <sheet name="RejectAllowanceRequest" sheetId="53" r:id="rId39"/>
+    <sheet name="ApproveAllowanceRequest" sheetId="54" r:id="rId40"/>
+    <sheet name="AbsenceRequest" sheetId="55" r:id="rId41"/>
+    <sheet name="RejectAbsence" sheetId="56" r:id="rId42"/>
+    <sheet name="ApproveAbsence" sheetId="57" r:id="rId43"/>
+    <sheet name="CreateExpense" sheetId="4" r:id="rId44"/>
+    <sheet name="Reject Expenses" sheetId="31" r:id="rId45"/>
+    <sheet name="Approve Expenses Sheet Opco" sheetId="29" r:id="rId46"/>
+    <sheet name="Approve Expenses Sheet SSC" sheetId="30" r:id="rId47"/>
+    <sheet name="CreateTimesheet" sheetId="9" r:id="rId48"/>
+    <sheet name="RejectTimesheet" sheetId="18" r:id="rId49"/>
+    <sheet name="ApproveTimesheet" sheetId="17" r:id="rId50"/>
+    <sheet name="EmployeeCreation" sheetId="5" r:id="rId51"/>
+    <sheet name="UserCreation" sheetId="6" r:id="rId52"/>
+    <sheet name="EmployeeAsUser" sheetId="7" r:id="rId53"/>
+    <sheet name="ChangeEmployee" sheetId="25" r:id="rId54"/>
+    <sheet name="ChangeUser" sheetId="43" r:id="rId55"/>
+    <sheet name="FixedAssetPurchaseOrder" sheetId="19" r:id="rId56"/>
+    <sheet name="CreatePurchaseOrder" sheetId="15" r:id="rId57"/>
+    <sheet name="RejectPurchaseOrder" sheetId="21" r:id="rId58"/>
+    <sheet name="ApprovePurchaseOrder" sheetId="20" r:id="rId59"/>
+    <sheet name="POFromJobBudget" sheetId="138" r:id="rId60"/>
+    <sheet name="CreatePurchaseOrder2" sheetId="64" r:id="rId61"/>
+    <sheet name="ApprovePurchaseOrder2" sheetId="65" r:id="rId62"/>
+    <sheet name="CreatePurchaseOrder3" sheetId="72" r:id="rId63"/>
+    <sheet name="ApprovePurchaseOrder3" sheetId="73" r:id="rId64"/>
+    <sheet name="CreatePurchaseOrder4" sheetId="126" r:id="rId65"/>
+    <sheet name="ApprovePurchaseOrder4" sheetId="127" r:id="rId66"/>
+    <sheet name="CreatePurchaseOrder5" sheetId="129" r:id="rId67"/>
+    <sheet name="CreatePurchaseOrder6" sheetId="130" r:id="rId68"/>
+    <sheet name="ApprovePurchaseOrder5" sheetId="131" r:id="rId69"/>
+    <sheet name="ApprovePurchaseOrder6" sheetId="132" r:id="rId70"/>
+    <sheet name="Create Fixed Asset" sheetId="34" r:id="rId71"/>
+    <sheet name="FixedAssetVal" sheetId="26" r:id="rId72"/>
+    <sheet name="FixedAssetDepreciation" sheetId="33" r:id="rId73"/>
+    <sheet name="FixedAssetResolution" sheetId="59" r:id="rId74"/>
+    <sheet name="FixedAssetDisposal" sheetId="27" r:id="rId75"/>
+    <sheet name="VendorInvoice" sheetId="22" r:id="rId76"/>
+    <sheet name="RejectVendorInvoice" sheetId="24" r:id="rId77"/>
+    <sheet name="ApproveVendorInvoice" sheetId="23" r:id="rId78"/>
+    <sheet name="PostVendorJournal" sheetId="44" r:id="rId79"/>
+    <sheet name="Reverse Invoice" sheetId="41" r:id="rId80"/>
+    <sheet name="CreditNoteWithPO" sheetId="42" r:id="rId81"/>
+    <sheet name="ReverseCreditNote" sheetId="40" r:id="rId82"/>
+    <sheet name="VendorInvoice2" sheetId="66" r:id="rId83"/>
+    <sheet name="ApproveVendorInvoice2" sheetId="67" r:id="rId84"/>
+    <sheet name="PostVendorJournal2" sheetId="68" r:id="rId85"/>
+    <sheet name="VendorInvoice3" sheetId="74" r:id="rId86"/>
+    <sheet name="ApproveVendorInvoice3" sheetId="75" r:id="rId87"/>
+    <sheet name="PostVendorJournal3" sheetId="76" r:id="rId88"/>
+    <sheet name="AR Single Payment" sheetId="35" r:id="rId89"/>
+    <sheet name="Post a Customer Payment" sheetId="37" r:id="rId90"/>
+    <sheet name="AR Multiple Payment" sheetId="36" r:id="rId91"/>
+    <sheet name="Post in Foreign currency" sheetId="38" r:id="rId92"/>
+    <sheet name="Writingoffbad" sheetId="39" r:id="rId93"/>
+    <sheet name="ImportBudgetModel" sheetId="145" r:id="rId94"/>
+    <sheet name="CreateGeneralJournal" sheetId="81" r:id="rId95"/>
+    <sheet name="PostJournalEntries" sheetId="82" r:id="rId96"/>
+    <sheet name="CreateReverseGL" sheetId="83" r:id="rId97"/>
+    <sheet name="ReverseGL" sheetId="84" r:id="rId98"/>
+    <sheet name="CreateCurrencyJournal" sheetId="85" r:id="rId99"/>
+    <sheet name="CopyGL" sheetId="86" r:id="rId100"/>
+    <sheet name="GLMPL" sheetId="87" r:id="rId101"/>
+    <sheet name="CreateAnAccrualForAGroupOfJobs" sheetId="100" r:id="rId102"/>
+    <sheet name="CreateAnAccrualJobByJob" sheetId="101" r:id="rId103"/>
+    <sheet name="InvoicePreparation" sheetId="93" r:id="rId104"/>
+    <sheet name="JobInvoiceAllocation_WIP" sheetId="94" r:id="rId105"/>
+    <sheet name="InvoiceMPL" sheetId="70" r:id="rId106"/>
+    <sheet name="InvoicePlansInvoiceOnAccount" sheetId="102" r:id="rId107"/>
+    <sheet name="InvoicePlansDirectInvoice" sheetId="128" r:id="rId108"/>
+    <sheet name="InvoiceOnAccount" sheetId="80" r:id="rId109"/>
+    <sheet name="JobInvoice_WithoutWIP" sheetId="103" r:id="rId110"/>
+    <sheet name="InvoicingFromBudget" sheetId="63" r:id="rId111"/>
+    <sheet name="Time_Material_Invocing" sheetId="96" r:id="rId112"/>
+    <sheet name="InvoicingWriteOff" sheetId="69" r:id="rId113"/>
+    <sheet name="InvoicingCarryForward" sheetId="71" r:id="rId114"/>
+    <sheet name="CombinedInvoice" sheetId="140" r:id="rId115"/>
+    <sheet name="BlanketInvoice" sheetId="141" r:id="rId116"/>
+    <sheet name="Job Crediting" sheetId="142" r:id="rId117"/>
+    <sheet name="CreditMemo" sheetId="143" r:id="rId118"/>
+    <sheet name="CreateGlobalBrand" sheetId="105" r:id="rId119"/>
+    <sheet name="CreateGlobalProduct" sheetId="106" r:id="rId120"/>
+    <sheet name="CreateCompanyClient" sheetId="107" r:id="rId121"/>
+    <sheet name="CreateCompanyBrand" sheetId="108" r:id="rId122"/>
+    <sheet name="CreateCompanyProduct" sheetId="109" r:id="rId123"/>
+    <sheet name="AmendCompanyClient" sheetId="110" r:id="rId124"/>
+    <sheet name="AmendCompanyBrand" sheetId="111" r:id="rId125"/>
+    <sheet name="AmendCompanyProduct" sheetId="112" r:id="rId126"/>
+    <sheet name="AmendGlobalClient" sheetId="113" r:id="rId127"/>
+    <sheet name="AmendGlobalBrand" sheetId="114" r:id="rId128"/>
+    <sheet name="AmendGlobalProduct" sheetId="115" r:id="rId129"/>
+    <sheet name="BlockCompanyProduct" sheetId="121" r:id="rId130"/>
+    <sheet name="BlockCompanyBrand" sheetId="118" r:id="rId131"/>
+    <sheet name="BlockCompanyClient" sheetId="119" r:id="rId132"/>
+    <sheet name="BlockGlobalProduct" sheetId="120" r:id="rId133"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId134"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId135"/>
+    <sheet name="CreateCompanyVendor" sheetId="123" r:id="rId136"/>
+    <sheet name="AmendGlobalVendor" sheetId="116" r:id="rId137"/>
+    <sheet name="AmendCompanyVendor" sheetId="117" r:id="rId138"/>
+    <sheet name="BlockGlobalVendor" sheetId="122" r:id="rId139"/>
+    <sheet name="BlockCompanyVendor" sheetId="124" r:id="rId140"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -161,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6060" uniqueCount="1749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="1757">
   <si>
     <t>Description</t>
   </si>
@@ -5340,43 +5342,7 @@
 </t>
   </si>
   <si>
-    <t>WorkCode 1</t>
-  </si>
-  <si>
-    <t>WorkCode 2</t>
-  </si>
-  <si>
-    <t>WorkCode 3</t>
-  </si>
-  <si>
-    <t>12.29</t>
-  </si>
-  <si>
-    <t>848.91</t>
-  </si>
-  <si>
-    <t>WorkCode 4</t>
-  </si>
-  <si>
-    <t>856.56</t>
-  </si>
-  <si>
-    <t>WorkCode 5</t>
-  </si>
-  <si>
-    <t>8.19</t>
-  </si>
-  <si>
-    <t>WorkCode 6</t>
-  </si>
-  <si>
-    <t>WorkCode 7</t>
-  </si>
-  <si>
     <t>PDF Draft Credit Memo</t>
-  </si>
-  <si>
-    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Invoice Editing-3.pdf</t>
   </si>
   <si>
     <t>RB109_TM-CP</t>
@@ -5398,26 +5364,85 @@
 </t>
   </si>
   <si>
-    <t>102.41</t>
-  </si>
-  <si>
     <t>68.26</t>
   </si>
   <si>
-    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Invoice Editing-5.pdf</t>
-  </si>
-  <si>
     <t>火车 - 国际客户会议</t>
   </si>
   <si>
-    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Invoice Editing-6.pdf</t>
+    <t>1221200124</t>
+  </si>
+  <si>
+    <t>604.36</t>
+  </si>
+  <si>
+    <t>72.53</t>
+  </si>
+  <si>
+    <t>676.89</t>
+  </si>
+  <si>
+    <t>734.24</t>
+  </si>
+  <si>
+    <t>848.92</t>
+  </si>
+  <si>
+    <t>856.57</t>
+  </si>
+  <si>
+    <t>8.19</t>
+  </si>
+  <si>
+    <t>C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegPack\MPLReports\Critical_Regression\China\1221\Print Invoice Editing-15.pdf</t>
+  </si>
+  <si>
+    <t>Vacation Calander No</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Total Allowance</t>
+  </si>
+  <si>
+    <t>Bussiness Unit</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>Control 9</t>
+  </si>
+  <si>
+    <t>Control 10</t>
+  </si>
+  <si>
+    <t>Control 11</t>
+  </si>
+  <si>
+    <t>Control 12</t>
+  </si>
+  <si>
+    <t>-1,000.00</t>
+  </si>
+  <si>
+    <t>-500.00</t>
+  </si>
+  <si>
+    <t>-300.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6217,8 +6242,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6302,10 +6327,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="82" width="23.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="32.5703125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="82" width="19.0" collapsed="true"/>
-    <col min="5" max="16384" style="82" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="23" style="82" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" style="82" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="19" style="82" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.7109375" style="82" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6424,6 +6449,369 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="72">
+        <v>1319</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E1" s="104">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="E2" s="104"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="U1" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="X1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D4" t="s">
+        <v>817</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L4" t="s">
+        <v>860</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="P4" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1558</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="U4" t="s">
+        <v>220</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D6" t="s">
+        <v>817</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L6" t="s">
+        <v>860</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="P6" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1558</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="U6" t="s">
+        <v>220</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1653</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1559</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
@@ -6433,20 +6821,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="23.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="102" width="32.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="102" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="102" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="102" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="102" width="19.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="102" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="102" width="21.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="102" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="102" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="102" width="18.85546875" collapsed="true"/>
-    <col min="14" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -6599,7 +6987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -6609,18 +6997,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="22.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="102" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="102" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="102" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="102" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="102" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="102" width="15.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="102" width="20.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="102" width="17.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="102" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="102" width="13.42578125" collapsed="true"/>
-    <col min="12" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.5703125" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" style="102" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" style="102" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" style="102" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" style="102" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" style="102" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" style="102" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6722,7 +7110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -6732,16 +7120,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="27" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
-    <col min="11" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" style="27" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6826,7 +7214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -6836,7 +7224,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6878,7 +7266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO6"/>
   <sheetViews>
@@ -6888,7 +7276,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7539,7 +7927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -7549,10 +7937,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7615,7 +8003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -7625,13 +8013,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="102" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="102" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" style="102" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="17.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="102" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="102" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7693,7 +8081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -7703,15 +8091,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="27" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="24.5703125" collapsed="true"/>
-    <col min="10" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" style="27" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7825,195 +8213,6 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K6" s="104" t="s">
         <v>1634</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="10.0" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="102">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="105"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>960</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="27" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="27" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="27" width="19.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="27" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="27" width="30.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="27" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="27" width="23.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="27" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>952</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>953</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>954</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>955</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>956</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>957</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>958</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>959</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>799</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>961</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>962</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>963</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="K2" s="56" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>1078</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>1284</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D4" s="106" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104">
-        <v>1221</v>
-      </c>
-      <c r="B5" s="106" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C5" s="106" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D5" s="106" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K5" s="105" t="s">
-        <v>1590</v>
       </c>
     </row>
   </sheetData>
@@ -8032,10 +8231,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="82" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="32.5703125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="82" width="17.0" collapsed="true"/>
-    <col min="5" max="16384" style="82" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="82" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" style="82" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="17" style="82" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.7109375" style="82" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -8168,6 +8367,195 @@
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="102">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="105"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>960</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="21" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" style="27" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" style="27" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>952</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>953</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>954</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>955</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>956</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>957</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>958</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>959</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>961</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>962</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>963</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="K2" s="56" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>1284</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D4" s="106" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="104">
+        <v>1221</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K5" s="105" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8176,16 +8564,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8280,7 +8668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI4"/>
   <sheetViews>
@@ -8290,49 +8678,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -8654,7 +9042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI4"/>
   <sheetViews>
@@ -8664,49 +9052,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -9027,7 +9415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -9037,13 +9425,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="102" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="102" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" style="102" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="17.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="102" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="102" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9099,7 +9487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -9109,13 +9497,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" style="102" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="102" width="19.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="102" width="13.5703125" collapsed="true"/>
-    <col min="6" max="10" style="102" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="102" width="17.85546875" collapsed="true"/>
-    <col min="12" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="9.140625" style="102" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="10" width="9.140625" style="102" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -9210,7 +9598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9220,7 +9608,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" style="102" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9255,7 +9643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO2"/>
   <sheetViews>
@@ -9473,193 +9861,193 @@
         <v>1609</v>
       </c>
       <c r="B2" t="s">
-        <v>1747</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>1538</v>
+        <v>1558</v>
       </c>
       <c r="D2" t="s">
-        <v>1702</v>
+        <v>1558</v>
       </c>
       <c r="E2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N2" t="s">
         <v>1520</v>
       </c>
-      <c r="F2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Q2" t="s">
         <v>1521</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="T2" t="s">
+        <v>898</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="X2" t="s">
         <v>1130</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Y2" t="s">
         <v>1132</v>
       </c>
-      <c r="J2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="K2" t="s">
-        <v>898</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1705</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1706</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="Z2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>900</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AG2" t="s">
         <v>1130</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AH2" t="s">
         <v>1132</v>
       </c>
-      <c r="S2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="T2" t="s">
-        <v>900</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="V2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="X2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AI2" t="s">
         <v>1525</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AJ2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>901</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AP2" t="s">
         <v>1130</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AQ2" t="s">
         <v>1132</v>
       </c>
-      <c r="AB2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>901</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>1712</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>1745</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AR2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>803</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AY2" t="s">
         <v>1130</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AZ2" t="s">
         <v>1132</v>
       </c>
-      <c r="AK2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>803</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="BA2" t="s">
         <v>1716</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BB2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>902</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="BH2" t="s">
         <v>1130</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BI2" t="s">
         <v>1132</v>
       </c>
-      <c r="AT2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>902</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>1712</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BJ2" t="s">
         <v>1529</v>
       </c>
-      <c r="BA2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>1635</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>1130</v>
-      </c>
       <c r="BK2" t="s">
-        <v>1132</v>
+        <v>1719</v>
       </c>
       <c r="BL2" t="s">
-        <v>1522</v>
+        <v>1720</v>
       </c>
       <c r="BM2" t="s">
         <v>1677</v>
@@ -9676,7 +10064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -9686,9 +10074,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="18.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="104" width="35.0" collapsed="true"/>
-    <col min="4" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9850,363 +10238,6 @@
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
     <hyperlink ref="C10" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="18.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="104" width="35.0" collapsed="true"/>
-    <col min="4" max="16384" style="104" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="72">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B5" s="104" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>872</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
-        <v>834</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C8" s="104" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
-        <v>835</v>
-      </c>
-      <c r="B9" s="93" t="s">
-        <v>836</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
-        <v>837</v>
-      </c>
-      <c r="B10" s="106" t="s">
-        <v>838</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
-        <v>839</v>
-      </c>
-      <c r="B11" s="105" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C11" s="105" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>180</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="104" t="s">
-        <v>841</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>842</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
-        <v>843</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="19.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="102" width="30.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C1" s="72">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>658</v>
-      </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>820</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C4" s="102" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="105" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B6" s="105">
-        <v>1284</v>
-      </c>
-      <c r="C6" s="105">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>872</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
-        <v>871</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B10" s="105" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C10" s="105" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>832</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
-        <v>875</v>
-      </c>
-      <c r="B12" s="102" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
-        <v>873</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>842</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B15" s="105" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C15" s="105" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -10223,10 +10254,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="82" width="22.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="82" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="82" width="32.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="82" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="22.7109375" style="82" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" style="82" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" style="82" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.7109375" style="82" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10364,6 +10395,363 @@
 </file>
 
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="104" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="72">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="104" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="104" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C5" s="104" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>872</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="104" t="s">
+        <v>834</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="104" t="s">
+        <v>835</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>836</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="104" t="s">
+        <v>837</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>838</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="104" t="s">
+        <v>839</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="104" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C12" s="104" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="104" t="s">
+        <v>841</v>
+      </c>
+      <c r="B13" s="104" t="s">
+        <v>842</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="104" t="s">
+        <v>843</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="72">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>658</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>820</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B6" s="105">
+        <v>1284</v>
+      </c>
+      <c r="C6" s="105">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>872</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
+        <v>871</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C8" s="102" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>832</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
+        <v>875</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
+        <v>873</v>
+      </c>
+      <c r="B14" s="102" t="s">
+        <v>842</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="102" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B15" s="105" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -10373,9 +10761,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="19.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="102" width="30.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10565,7 +10953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -10575,9 +10963,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="19.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="102" width="30.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="30.7109375" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10767,7 +11155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -10777,9 +11165,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="23.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="102" width="28.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10835,7 +11223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -10845,9 +11233,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="23.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="102" width="28.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10915,7 +11303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -10925,9 +11313,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="23.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="102" width="28.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10995,7 +11383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -11005,9 +11393,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="17.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="102" width="29.140625" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="29.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11078,7 +11466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -11088,9 +11476,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="17.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="102" width="39.0" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="39" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11187,7 +11575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -11197,9 +11585,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="17.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="102" width="39.0" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="39" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11293,126 +11681,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="102" width="19.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="77">
-        <v>1284</v>
-      </c>
-      <c r="C1" s="102">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2" s="110"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B4" s="110"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="102" width="24.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="77">
-        <v>1284</v>
-      </c>
-      <c r="C1" s="102">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2" s="108"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>659</v>
-      </c>
-      <c r="B4" s="109"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11426,9 +11694,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11458,7 +11726,7 @@
 
 <file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -11466,17 +11734,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="102" width="13.0" collapsed="true"/>
-    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>1102</v>
+      <c r="B1" s="77">
+        <v>1284</v>
       </c>
       <c r="C1" s="102">
         <v>1221</v>
@@ -11486,17 +11754,28 @@
       <c r="A2" s="102" t="s">
         <v>658</v>
       </c>
-      <c r="B2" s="108"/>
+      <c r="B2" s="110"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="102" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="102" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B4" s="110"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -11515,9 +11794,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="102" width="31.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11535,13 +11814,13 @@
       <c r="A2" s="102" t="s">
         <v>658</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="108"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="105" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="102" t="s">
@@ -11552,7 +11831,7 @@
       <c r="A4" s="102" t="s">
         <v>659</v>
       </c>
-      <c r="B4" s="110"/>
+      <c r="B4" s="109"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
@@ -11566,6 +11845,115 @@
 </file>
 
 <file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1" s="102">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="108"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="77">
+        <v>1284</v>
+      </c>
+      <c r="C1" s="102">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="110"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11578,9 +11966,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="10.0" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11628,7 +12016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -11641,8 +12029,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11678,7 +12066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -11688,9 +12076,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="18.85546875" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="102" width="35.0" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11848,169 +12236,6 @@
       </c>
       <c r="C14" s="102" t="s">
         <v>872</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="102" width="25.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="102">
-        <v>1284</v>
-      </c>
-      <c r="C1" s="102">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>821</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>837</v>
-      </c>
-      <c r="B5" s="102">
-        <v>958647231</v>
-      </c>
-      <c r="C5" s="102">
-        <v>958647231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="102" width="25.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="102">
-        <v>1284</v>
-      </c>
-      <c r="C1" s="102">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>837</v>
-      </c>
-      <c r="B4" s="102">
-        <v>958647231</v>
-      </c>
-      <c r="C4" s="102">
-        <v>958647231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -12025,17 +12250,17 @@
 
 <file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="102" width="25.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12053,25 +12278,140 @@
       <c r="A2" s="102" t="s">
         <v>164</v>
       </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>178</v>
+        <v>821</v>
       </c>
       <c r="B3" s="102" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>837</v>
+      </c>
+      <c r="B5" s="102">
+        <v>958647231</v>
+      </c>
+      <c r="C5" s="102">
+        <v>958647231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B6" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C6" s="102" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="102">
+        <v>1284</v>
+      </c>
+      <c r="C1" s="102">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>837</v>
+      </c>
+      <c r="B4" s="102">
+        <v>958647231</v>
+      </c>
+      <c r="C4" s="102">
+        <v>958647231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -12081,9 +12421,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="18.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12099,9 +12439,8 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B2" s="106"/>
+        <v>164</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
@@ -12130,9 +12469,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12157,6 +12496,55 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="102">
+        <v>1284</v>
+      </c>
+      <c r="C1" s="102">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B2" s="106"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12173,11 +12561,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" style="102" width="43.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" hidden="true" width="43.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="6" max="8" bestFit="true" customWidth="true" style="102" width="43.85546875" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.85546875" style="102" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="43.7109375" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="43.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -12806,12 +13194,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="35.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="27" width="35.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="35.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="35.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="35" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13394,17 +13782,17 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="102" width="32.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="57.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="57" style="102" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13769,11 +14157,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="45" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="26.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="27" width="31.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="104" width="31.0" collapsed="true"/>
-    <col min="6" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="31" style="104" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -14085,48 +14473,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" style="27" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" style="27" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" style="27" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" style="27" width="9.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" style="27" width="9.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" style="27" width="9.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" style="27" width="9.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" style="27" width="9.140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="27" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="42" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="27" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.140625" style="27" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" style="27" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.140625" style="27" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.140625" style="27" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.140625" style="27" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.140625" style="27" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="9.140625" style="27" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
@@ -14752,16 +15140,16 @@
   </sheetPr>
   <dimension ref="A1:FI143"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109:C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="39.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="23.7109375" collapsed="true"/>
-    <col min="3" max="164" customWidth="true" style="27" width="32.0" collapsed="true"/>
-    <col min="165" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="164" width="32" style="27" customWidth="1" collapsed="1"/>
+    <col min="165" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:165" x14ac:dyDescent="0.25">
@@ -15135,8 +15523,8 @@
       <c r="A24" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="102" t="s">
-        <v>1701</v>
+      <c r="B24" s="105" t="s">
+        <v>1734</v>
       </c>
       <c r="C24" s="105"/>
     </row>
@@ -15152,8 +15540,8 @@
       <c r="A26" t="s">
         <v>1317</v>
       </c>
-      <c r="B26" s="102" t="s">
-        <v>1701</v>
+      <c r="B26" s="105" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -15169,7 +15557,7 @@
         <v>1319</v>
       </c>
       <c r="B28" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -15177,7 +15565,7 @@
         <v>1320</v>
       </c>
       <c r="B29" t="s">
-        <v>1741</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -15626,12 +16014,12 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1429</v>
       </c>
@@ -15639,61 +16027,61 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1430</v>
       </c>
       <c r="B99" s="106"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1431</v>
       </c>
       <c r="B100" s="106"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="104" t="s">
         <v>1432</v>
       </c>
       <c r="B101" s="106"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="104" t="s">
         <v>1433</v>
       </c>
       <c r="B102" s="106"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>1434</v>
       </c>
       <c r="B103" s="106"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1438</v>
       </c>
       <c r="B104" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1440</v>
       </c>
       <c r="B105" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1441</v>
       </c>
       <c r="B106" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1442</v>
       </c>
@@ -15701,37 +16089,37 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="102" t="s">
         <v>1443</v>
       </c>
       <c r="B108" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1444</v>
       </c>
-      <c r="B109" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1445</v>
       </c>
-      <c r="B110" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1446</v>
       </c>
       <c r="B111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1447</v>
       </c>
@@ -15916,10 +16304,10 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
       <c r="B143" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
     </row>
   </sheetData>
@@ -15941,9 +16329,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="104" customFormat="1" x14ac:dyDescent="0.25">
@@ -16324,9 +16712,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16399,9 +16787,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16472,9 +16860,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -17020,7 +17408,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -17189,11 +17577,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="102" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="102" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -17520,49 +17908,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="27" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="27" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="27" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="27" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="27" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="27" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="27" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="27" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="27" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="27" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="27" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="27" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="27" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="27" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="27" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="27" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="27" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -18080,10 +18468,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -18154,11 +18542,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="102" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="102" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" style="102" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="102" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -18484,40 +18872,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -18896,7 +19284,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20075,10 +20463,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -20149,11 +20537,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="102" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="102" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -20471,49 +20859,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="27" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="27" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="27" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="27" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="27" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="27" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="27" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="27" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="27" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="27" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="27" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="27" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="27" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="27" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="27" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="27" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="27" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -21031,10 +21419,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -21093,18 +21481,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="102" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="102" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="102" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="102" width="32.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" style="102" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" style="102" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -21325,7 +21713,7 @@
         <v>1355</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -21342,7 +21730,7 @@
         <v>1356</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -21433,49 +21821,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="104" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="104" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="104" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="104" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="104" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="104" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="104" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="104" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="104" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="104" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="104" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="104" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="104" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="104" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="104" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="104" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="104" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="104" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="104" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="104" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -21992,10 +22380,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -22056,6 +22444,69 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -22065,7 +22516,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -22110,81 +22561,6 @@
       </c>
       <c r="C4" s="6">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>911</v>
-      </c>
-      <c r="B5" t="s">
-        <v>912</v>
-      </c>
-      <c r="C5" t="s">
-        <v>912</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2">
-        <v>1319</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>908</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>909</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>894</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>913</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>894</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -22209,13 +22585,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -22259,7 +22635,7 @@
         <v>894</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -22292,7 +22668,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -24335,73 +24711,72 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="82" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="82" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="81">
+      <c r="B1" s="2">
         <v>1319</v>
       </c>
-      <c r="C1" s="82">
+      <c r="C1" s="2">
         <v>1284</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>914</v>
-      </c>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="10" t="s">
+        <v>908</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>894</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C3" s="55" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>915</v>
-      </c>
-      <c r="B3" s="82">
-        <v>1</v>
-      </c>
-      <c r="C3" s="82">
-        <v>1</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>908</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>909</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>909</v>
+      <c r="A4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>894</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" t="s">
         <v>911</v>
       </c>
-      <c r="C5" s="82" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="83"/>
+      <c r="B5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C5" t="s">
+        <v>912</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24414,14 +24789,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="82" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="82" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="82" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="82" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="82" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -24442,6 +24817,9 @@
       <c r="B2" s="83" t="s">
         <v>894</v>
       </c>
+      <c r="C2" s="83" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
@@ -24450,17 +24828,28 @@
       <c r="B3" s="82">
         <v>1</v>
       </c>
+      <c r="C3" s="82">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="B4" s="83" t="s">
         <v>909</v>
       </c>
+      <c r="C4" s="83" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="83"/>
@@ -24481,9 +24870,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="82" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="16.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="82" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="82" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="82" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="82" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -24534,6 +24923,68 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="82" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.28515625" style="82" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.7109375" style="82" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="81">
+        <v>1319</v>
+      </c>
+      <c r="C1" s="82">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>914</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
+        <v>915</v>
+      </c>
+      <c r="B3" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>916</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="83"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -24546,30 +24997,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="27" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="19.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="10.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="19.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="19.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="27" width="10.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="10.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="13.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="20.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="27" width="11.5703125" collapsed="true"/>
-    <col min="24" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" style="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -24763,7 +25214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -24776,9 +25227,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="32.140625" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -24806,7 +25257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -24819,9 +25270,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="45.5703125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -24852,7 +25303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -24865,9 +25316,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="27" width="29.140625" collapsed="true"/>
-    <col min="5" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="29.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -24910,7 +25361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -24923,9 +25374,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="19.0" collapsed="true"/>
-    <col min="5" max="5" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -25210,7 +25661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -25223,9 +25674,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="18.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -25265,76 +25716,6 @@
         <v>1516</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="18.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>799</v>
-      </c>
-      <c r="C1" s="27">
-        <v>1286</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E1" s="104" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="104"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="104"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>650</v>
-      </c>
-      <c r="C4" s="27">
-        <v>2020</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>1516</v>
-      </c>
-      <c r="E4" s="104" t="s">
         <v>1516</v>
       </c>
     </row>
@@ -25357,10 +25738,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="2" max="4" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -25590,6 +25971,76 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="C1" s="27">
+        <v>1286</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="104"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="104"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="C4" s="27">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -25602,16 +26053,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="60.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="59.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="51.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="51.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="51.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="57.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="27" width="63.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="45.28515625" collapsed="true"/>
-    <col min="10" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="51" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="57.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="45.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26154,7 +26605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -26167,9 +26618,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="24.140625" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" style="104" width="23.140625" collapsed="true"/>
-    <col min="6" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="23.140625" style="104" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26331,7 +26782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -26344,11 +26795,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="87.5703125" collapsed="true"/>
-    <col min="4" max="6" bestFit="true" customWidth="true" width="87.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="69.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="87.5703125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="87.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="69.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26732,7 +27183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -26745,9 +27196,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="60.140625" collapsed="true"/>
-    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="31" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26798,7 +27249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -26811,9 +27262,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="102" width="26.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.28515625" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26866,7 +27317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -26879,46 +27330,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -27217,7 +27668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -27230,40 +27681,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -27431,67 +27882,6 @@
       <c r="D5" s="84" t="s">
         <v>935</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="28">
-        <v>1307</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>656</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>799</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>657</v>
-      </c>
-      <c r="G1">
-        <v>1284</v>
-      </c>
-      <c r="H1">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>653</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27512,8 +27902,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -27527,7 +27917,7 @@
         <v>1102</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>1068</v>
+        <v>656</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>799</v>
@@ -27536,7 +27926,7 @@
         <v>657</v>
       </c>
       <c r="G1">
-        <v>1271</v>
+        <v>1284</v>
       </c>
       <c r="H1">
         <v>1221</v>
@@ -27547,11 +27937,11 @@
         <v>172</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="55"/>
-      <c r="E2" s="75"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="55"/>
     </row>
   </sheetData>
@@ -27565,220 +27955,59 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="102" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="102" width="22.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="102" width="11.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="102" width="12.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="102" width="13.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="102" width="10.7109375" collapsed="true"/>
-    <col min="36" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>806</v>
-      </c>
-      <c r="E1" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="103" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="103" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="R1" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="S1" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="103" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA1" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB1" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC1" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD1" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE1" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF1" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG1" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH1" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI1" s="103" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ1" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK1" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL1" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM1" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN1" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO1" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP1" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ1" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR1" s="103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="102">
-        <v>1319</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A3" s="102">
-        <v>1286</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" s="102">
-        <v>1284</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" s="102">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="28">
+        <v>1307</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="G1">
+        <v>1271</v>
+      </c>
+      <c r="H1">
         <v>1221</v>
       </c>
-      <c r="D5" s="84" t="s">
-        <v>1253</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27795,8 +28024,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27950,6 +28179,228 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:AR5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="102" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.140625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.28515625" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="10.7109375" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="16384" width="9.140625" style="102" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>806</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB1" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC1" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD1" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE1" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF1" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG1" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH1" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI1" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ1" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK1" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL1" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM1" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN1" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO1" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP1" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ1" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR1" s="103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="102">
+        <v>1319</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3" s="102">
+        <v>1286</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" s="102">
+        <v>1284</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" s="102">
+        <v>1221</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -27962,43 +28413,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -28191,7 +28642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -28204,9 +28655,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -28249,7 +28700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -28262,43 +28713,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="27" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -28493,7 +28944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -28506,9 +28957,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -28551,7 +29002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -28564,43 +29015,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="104" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="104" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="104" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -28807,7 +29258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -28820,9 +29271,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -28862,247 +29313,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:AT4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="104" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="104" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>944</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>965</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>806</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="U1" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y1" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z1" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA1" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB1" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC1" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD1" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF1" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG1" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH1" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI1" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ1" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK1" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL1" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM1" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN1" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO1" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP1" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ1" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR1" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS1" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT1" s="71" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="106">
-        <v>1319</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106">
-        <v>2</v>
-      </c>
-      <c r="D2" s="106">
-        <v>2</v>
-      </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F3" s="106" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D4" s="104" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F4" s="106" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -29119,43 +29329,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="104" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="104" width="15.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="104" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="104" width="11.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="104" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="104" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="104" width="10.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="104" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="104" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
@@ -29322,10 +29532,10 @@
         <v>1108</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F3" s="106" t="s">
-        <v>1403</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -29336,10 +29546,10 @@
         <v>1108</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F4" s="106" t="s">
-        <v>1403</v>
+        <v>1349</v>
       </c>
     </row>
   </sheetData>
@@ -29352,51 +29562,235 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="104" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.42578125" style="104" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="11.140625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>799</v>
-      </c>
-      <c r="C1" s="104" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>944</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>965</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>806</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG1" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH1" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI1" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ1" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK1" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL1" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM1" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN1" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO1" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP1" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ1" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR1" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS1" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT1" s="71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="106">
+        <v>1319</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106">
+        <v>2</v>
+      </c>
+      <c r="D2" s="106">
+        <v>2</v>
+      </c>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="104" t="s">
         <v>1102</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="C3" s="104" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F3" s="106" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="106"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>965</v>
-      </c>
-      <c r="B3" s="104">
-        <v>3</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>1401</v>
-      </c>
-      <c r="D3" s="104" t="s">
-        <v>1401</v>
+      <c r="C4" s="104" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>1403</v>
       </c>
     </row>
   </sheetData>
@@ -29417,9 +29811,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="104" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="104" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -29450,10 +29844,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
   </sheetData>
@@ -29471,10 +29865,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="102" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="102" width="14.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="11.0" collapsed="true"/>
-    <col min="4" max="16384" style="102" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="102" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" style="102" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="102" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -29539,6 +29933,63 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="104" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="106"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="104" t="s">
+        <v>965</v>
+      </c>
+      <c r="B3" s="104">
+        <v>3</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -29551,11 +30002,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.7109375" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" style="27" width="22.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="104" width="22.5703125" collapsed="true"/>
-    <col min="7" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="22.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.5703125" style="104" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -29716,137 +30167,6 @@
       </c>
       <c r="F8" s="104" t="s">
         <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="3" max="4" style="27" width="9.140625" collapsed="true"/>
-    <col min="5" max="6" style="104" width="9.140625" collapsed="true"/>
-    <col min="7" max="16384" style="27" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E1" s="23">
-        <v>1284</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="27">
-        <v>1319</v>
-      </c>
-      <c r="C2" s="27">
-        <v>1286</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E2" s="104">
-        <v>1284</v>
-      </c>
-      <c r="F2" s="104" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="104" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -29863,76 +30183,76 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.42578125" collapsed="true"/>
-    <col min="3" max="4" style="27" width="9.140625" collapsed="true"/>
-    <col min="5" max="6" style="104" width="9.140625" collapsed="true"/>
-    <col min="7" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="27" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="104" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>1068</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>1238</v>
       </c>
-      <c r="E1" s="104">
+      <c r="E1" s="23">
         <v>1284</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="23" t="s">
         <v>1609</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1319</v>
+      </c>
+      <c r="C2" s="27">
+        <v>1286</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="104" t="s">
-        <v>198</v>
+        <v>1238</v>
+      </c>
+      <c r="E2" s="104">
+        <v>1284</v>
       </c>
       <c r="F2" s="104" t="s">
-        <v>198</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>799</v>
+        <v>198</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1068</v>
+        <v>198</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E3" s="104">
-        <v>1284</v>
+        <v>198</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>198</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>1609</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -29941,43 +30261,43 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>942</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>942</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>942</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>942</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>942</v>
+      <c r="A5" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>943</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>943</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>943</v>
-      </c>
-      <c r="E6" s="104" t="s">
-        <v>943</v>
-      </c>
-      <c r="F6" s="104" t="s">
-        <v>943</v>
+      <c r="B6" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -29991,22 +30311,22 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" style="27" width="9.140625" collapsed="true"/>
-    <col min="4" max="5" style="104" width="9.140625" collapsed="true"/>
-    <col min="6" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="27" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="104" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>58</v>
       </c>
@@ -30014,16 +30334,19 @@
         <v>799</v>
       </c>
       <c r="C1" s="27" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>1238</v>
       </c>
-      <c r="D1" s="104">
+      <c r="E1" s="104">
         <v>1284</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="F1" s="104" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>206</v>
       </c>
@@ -30033,14 +30356,17 @@
       <c r="C2" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="27" t="s">
         <v>198</v>
       </c>
       <c r="E2" s="104" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
@@ -30048,38 +30374,44 @@
         <v>799</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>1238</v>
       </c>
-      <c r="D3" s="104">
+      <c r="E3" s="104">
         <v>1284</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="F3" s="104" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>208</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>200</v>
+        <v>942</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>200</v>
+        <v>942</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>942</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>201</v>
       </c>
@@ -30089,10 +30421,13 @@
       <c r="C6" s="27" t="s">
         <v>943</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="27" t="s">
         <v>943</v>
       </c>
       <c r="E6" s="104" t="s">
+        <v>943</v>
+      </c>
+      <c r="F6" s="104" t="s">
         <v>943</v>
       </c>
     </row>
@@ -30110,16 +30445,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" style="27" width="9.140625" collapsed="true"/>
-    <col min="4" max="5" style="104" width="9.140625" collapsed="true"/>
-    <col min="6" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="27" collapsed="1"/>
+    <col min="4" max="5" width="9.140625" style="104" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -30140,80 +30475,76 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D3" s="104">
+        <v>1284</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D5" s="106" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E5" s="106" t="s">
-        <v>1624</v>
+      <c r="A5" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D6" s="96" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>1114</v>
+      <c r="A6" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>943</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>943</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>943</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -30223,6 +30554,126 @@
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="27" collapsed="1"/>
+    <col min="4" max="5" width="9.140625" style="104" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1" s="104">
+        <v>1284</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D6" s="96" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E6" s="96" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -30235,12 +30686,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="25.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="7" max="15" bestFit="true" customWidth="true" style="27" width="16.7109375" collapsed="true"/>
-    <col min="16" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="27" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="15" width="16.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -30365,7 +30816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -30378,8 +30829,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -30407,7 +30858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -30420,8 +30871,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -30455,7 +30906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -30468,9 +30919,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="27" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -30507,96 +30958,6 @@
         <v>223</v>
       </c>
       <c r="B4" s="56"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="98" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="98" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="98" t="s">
-        <v>651</v>
-      </c>
-      <c r="E1" s="98" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="98" t="s">
-        <v>1162</v>
-      </c>
-      <c r="G1" s="98" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="97">
-        <v>1284</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="106" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D2" s="106" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105" t="s">
-        <v>1363</v>
-      </c>
-      <c r="G2" s="105" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1221</v>
-      </c>
-      <c r="C3" s="106" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D3" s="106" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E3" s="104" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G3" s="104" t="s">
-        <v>1642</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30614,7 +30975,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="104" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="104" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -30666,6 +31027,96 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>651</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="97">
+        <v>1284</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="106" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G2" s="105" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1221</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -30678,9 +31129,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -30818,7 +31269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -30831,10 +31282,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="102" width="15.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -30969,7 +31420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -30982,14 +31433,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="10" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -31073,7 +31524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -31086,8 +31537,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -31130,7 +31581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -31143,9 +31594,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="27" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -31194,7 +31645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -31207,14 +31658,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="25.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="27" width="15.85546875" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="12.0" collapsed="true"/>
-    <col min="10" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.85546875" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -31300,7 +31751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -31313,8 +31764,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -31357,7 +31808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -31370,9 +31821,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="27" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="16.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -31421,7 +31872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -31434,11 +31885,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.42578125" collapsed="true"/>
-    <col min="3" max="4" style="27" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" style="104" width="9.140625" collapsed="true"/>
-    <col min="6" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="27" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="104" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -31504,62 +31955,6 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="27.5703125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>799</v>
-      </c>
-      <c r="C1" s="27">
-        <v>1286</v>
-      </c>
-      <c r="D1" s="27">
-        <v>1284</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -31579,10 +31974,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="82" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="82" width="22.28515625" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" style="82" width="19.140625" collapsed="true"/>
-    <col min="6" max="16384" style="82" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="82" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.28515625" style="82" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="19.140625" style="82" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.7109375" style="82" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -31697,6 +32092,62 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>799</v>
+      </c>
+      <c r="C1" s="27">
+        <v>1286</v>
+      </c>
+      <c r="D1" s="27">
+        <v>1284</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -31709,9 +32160,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -31793,7 +32244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -31801,16 +32252,16 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="20.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="27" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="15.7109375" collapsed="true"/>
-    <col min="5" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -31919,7 +32370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -31932,17 +32383,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -32094,7 +32545,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
@@ -32104,17 +32642,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -32350,7 +32888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -32360,7 +32898,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -32402,7 +32940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
@@ -32412,18 +32950,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -32596,7 +33134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -32606,9 +33144,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -32652,7 +33190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -32662,9 +33200,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -32699,367 +33237,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="72">
-        <v>1319</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E1" s="104">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="E2" s="104"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D3" s="106" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1456</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1460</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1462</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1464</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1470</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1471</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1473</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1474</v>
-      </c>
-      <c r="U1" t="s">
-        <v>217</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1476</v>
-      </c>
-      <c r="X1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1477</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1478</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D4" t="s">
-        <v>817</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1556</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1557</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1573</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1142</v>
-      </c>
-      <c r="L4" t="s">
-        <v>860</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="P4" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1558</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1573</v>
-      </c>
-      <c r="T4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="U4" t="s">
-        <v>220</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="W4" t="s">
-        <v>1559</v>
-      </c>
-      <c r="X4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>1061</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>797</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D6" t="s">
-        <v>817</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1656</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1657</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1655</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1142</v>
-      </c>
-      <c r="L6" t="s">
-        <v>860</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1618</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1065</v>
-      </c>
-      <c r="P6" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1558</v>
-      </c>
-      <c r="R6" t="s">
-        <v>1207</v>
-      </c>
-      <c r="S6" t="s">
-        <v>1661</v>
-      </c>
-      <c r="T6" t="s">
-        <v>1655</v>
-      </c>
-      <c r="U6" t="s">
-        <v>220</v>
-      </c>
-      <c r="V6" t="s">
-        <v>1653</v>
-      </c>
-      <c r="W6" t="s">
-        <v>1559</v>
-      </c>
-      <c r="X6" t="s">
-        <v>1024</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>1618</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>797</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>1207</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Regression/DS_CHN_REGRESSION.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Music\Modified\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\OneDrive - Cognizant\Documents\WPP Global TestScripts\GlobalTestSuiteAutomation\WppRegpack\TestResource\Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="119" activeTab="122"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5782" uniqueCount="1781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5813" uniqueCount="1780">
   <si>
     <t>Description</t>
   </si>
@@ -5472,24 +5472,6 @@
     <t>st1</t>
   </si>
   <si>
-    <t>110540</t>
-  </si>
-  <si>
-    <t>1301_AutoClient 15March2021 17:54:12</t>
-  </si>
-  <si>
-    <t>110540001</t>
-  </si>
-  <si>
-    <t>AutoGlobalBrand 15March2021 17:54:12</t>
-  </si>
-  <si>
-    <t>110540001001</t>
-  </si>
-  <si>
-    <t>AutoGlobalProduct 15March2021 17:54:12</t>
-  </si>
-  <si>
     <t>B1301Z013</t>
   </si>
   <si>
@@ -5509,13 +5491,27 @@
   </si>
   <si>
     <t>AutoGlobalProduct 15March2021 19:33:50</t>
+  </si>
+  <si>
+    <t>Geometry Ogilvy Japan GK</t>
+  </si>
+  <si>
+    <t>1301 Finance</t>
+  </si>
+  <si>
+    <t>108269001</t>
+  </si>
+  <si>
+    <t>108269001001</t>
+  </si>
+  <si>
+    <t>Geometry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6309,8 +6305,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6407,10 +6403,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="81" width="23.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="81" width="32.5703125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="81" width="19.0" collapsed="true"/>
-    <col min="5" max="16384" style="81" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="23" style="81" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" style="81" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="19" style="81" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.7109375" style="81" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6538,9 +6534,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="18.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="35.0" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6600,7 +6596,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -6901,20 +6897,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="101" width="23.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="101" width="32.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="101" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="101" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="101" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="101" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="101" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="101" width="19.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="101" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="101" width="21.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="101" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="101" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="101" width="18.85546875" collapsed="true"/>
-    <col min="14" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" style="101" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" style="101" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.140625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.7109375" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18.85546875" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -7077,18 +7073,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="101" width="22.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="101" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="101" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="101" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="101" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="101" width="17.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="101" width="15.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="101" width="20.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="101" width="17.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="101" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="101" width="13.42578125" collapsed="true"/>
-    <col min="12" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.5703125" style="101" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" style="101" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="101" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" style="101" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" style="101" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" style="101" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" style="101" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" style="101" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.140625" style="101" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.28515625" style="101" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.42578125" style="101" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7200,16 +7196,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="27" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
-    <col min="11" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" style="27" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7304,7 +7300,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7356,7 +7352,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8017,10 +8013,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8093,13 +8089,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="101" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="101" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="101" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="101" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" style="101" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="101" width="17.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="101" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="101" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8171,15 +8167,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="27" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="24.5703125" collapsed="true"/>
-    <col min="10" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" style="27" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8311,10 +8307,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="81" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="81" width="32.5703125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" style="81" width="17.0" collapsed="true"/>
-    <col min="5" max="16384" style="81" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="81" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" style="81" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="17" style="81" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.7109375" style="81" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -8455,10 +8451,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="103" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="101" width="10.0" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="103" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8506,18 +8502,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="27" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="27" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="27" width="19.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="27" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="27" width="30.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="27" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="27" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="27" width="23.7109375" collapsed="true"/>
-    <col min="12" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="21" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" style="27" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" style="27" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" style="27" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8644,16 +8640,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" width="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8758,49 +8754,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -9132,49 +9128,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="15" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -9505,13 +9501,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="101" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="101" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="101" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="101" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" style="101" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="101" width="17.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="101" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="101" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9577,13 +9573,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" style="101" width="9.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="101" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="101" width="19.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="101" width="13.5703125" collapsed="true"/>
-    <col min="6" max="10" style="101" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="101" width="17.85546875" collapsed="true"/>
-    <col min="12" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="9.140625" style="101" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="10" width="9.140625" style="101" collapsed="1"/>
+    <col min="11" max="11" width="17.85546875" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -9688,7 +9684,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" style="101" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10154,9 +10150,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="103" width="18.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="103" width="35.0" collapsed="true"/>
-    <col min="4" max="16384" style="103" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="103" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" style="103" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="103" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10334,10 +10330,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="81" width="22.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="81" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="81" width="32.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="81" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="22.7109375" style="81" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" style="81" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" style="81" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.7109375" style="81" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10484,9 +10480,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="103" width="18.0" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="103" width="35.0" collapsed="true"/>
-    <col min="4" max="16384" style="103" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18" style="103" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" style="103" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="103" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -10647,20 +10643,20 @@
 
 <file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="101" width="19.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="101" width="30.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" style="101" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="30.7109375" style="101" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
@@ -10670,8 +10666,11 @@
       <c r="C1" s="71">
         <v>1221</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="71">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>49</v>
       </c>
@@ -10681,15 +10680,19 @@
       <c r="C2" s="101" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="101" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>658</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="104"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="104"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>820</v>
       </c>
@@ -10699,8 +10702,11 @@
       <c r="C4" s="101" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="101" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="101" t="s">
         <v>178</v>
       </c>
@@ -10710,8 +10716,11 @@
       <c r="C5" s="104" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
         <v>1172</v>
       </c>
@@ -10721,8 +10730,11 @@
       <c r="C6" s="104">
         <v>1221</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="104">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
         <v>177</v>
       </c>
@@ -10732,8 +10744,11 @@
       <c r="C7" s="101" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="101" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="101" t="s">
         <v>871</v>
       </c>
@@ -10743,8 +10758,11 @@
       <c r="C8" s="101" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="101" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>26</v>
       </c>
@@ -10754,8 +10772,11 @@
       <c r="C9" s="75" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="75" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>1174</v>
       </c>
@@ -10765,8 +10786,11 @@
       <c r="C10" s="104" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="104" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
         <v>1175</v>
       </c>
@@ -10776,8 +10800,11 @@
       <c r="C11" s="101" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="101" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
         <v>875</v>
       </c>
@@ -10787,8 +10814,11 @@
       <c r="C12" s="101" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="101" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
         <v>1177</v>
       </c>
@@ -10798,8 +10828,11 @@
       <c r="C13" s="101" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="101" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
         <v>873</v>
       </c>
@@ -10809,8 +10842,11 @@
       <c r="C14" s="101" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="101" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
         <v>1178</v>
       </c>
@@ -10818,6 +10854,9 @@
         <v>1179</v>
       </c>
       <c r="C15" s="104" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D15" s="104" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -10825,28 +10864,29 @@
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
     <hyperlink ref="C9" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="101" width="19.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="101" width="30.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" style="101" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="30.7109375" style="101" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
@@ -10856,8 +10896,11 @@
       <c r="C1" s="71">
         <v>1221</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="71">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>49</v>
       </c>
@@ -10867,15 +10910,19 @@
       <c r="C2" s="101" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="101" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>658</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="104"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="104"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>659</v>
       </c>
@@ -10885,13 +10932,16 @@
       <c r="C4" s="105" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="104" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="101" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
         <v>660</v>
       </c>
@@ -10901,8 +10951,11 @@
       <c r="C6" s="104" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="101" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
         <v>178</v>
       </c>
@@ -10912,8 +10965,11 @@
       <c r="C7" s="104" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="101" t="s">
         <v>1172</v>
       </c>
@@ -10923,8 +10979,11 @@
       <c r="C8" s="104">
         <v>1221</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="104">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>177</v>
       </c>
@@ -10934,8 +10993,11 @@
       <c r="C9" s="101" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="101" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>871</v>
       </c>
@@ -10945,8 +11007,11 @@
       <c r="C10" s="101" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="101" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
         <v>26</v>
       </c>
@@ -10956,8 +11021,11 @@
       <c r="C11" s="75" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="75" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
         <v>1174</v>
       </c>
@@ -10967,8 +11035,11 @@
       <c r="C12" s="104" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="104" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
         <v>1175</v>
       </c>
@@ -10978,8 +11049,11 @@
       <c r="C13" s="101" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="101" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
         <v>875</v>
       </c>
@@ -10989,8 +11063,11 @@
       <c r="C14" s="101" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="101" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
         <v>1177</v>
       </c>
@@ -11000,8 +11077,11 @@
       <c r="C15" s="101" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="101" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="101" t="s">
         <v>873</v>
       </c>
@@ -11011,8 +11091,11 @@
       <c r="C16" s="101" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="101" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="101" t="s">
         <v>1178</v>
       </c>
@@ -11020,6 +11103,9 @@
         <v>1179</v>
       </c>
       <c r="C17" s="104" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D17" s="104" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -11027,28 +11113,29 @@
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1"/>
     <hyperlink ref="C11" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="101" width="19.5703125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="101" width="30.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.5703125" style="101" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="30.7109375" style="101" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
@@ -11058,8 +11145,11 @@
       <c r="C1" s="71">
         <v>1221</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="71">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>49</v>
       </c>
@@ -11069,15 +11159,19 @@
       <c r="C2" s="101" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="101" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>658</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="104"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="104"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>1180</v>
       </c>
@@ -11087,13 +11181,16 @@
       <c r="C4" s="105" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="104" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="101" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
         <v>1170</v>
       </c>
@@ -11103,8 +11200,11 @@
       <c r="C6" s="104" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="104" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
         <v>178</v>
       </c>
@@ -11114,8 +11214,11 @@
       <c r="C7" s="104" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="101" t="s">
         <v>1172</v>
       </c>
@@ -11125,8 +11228,11 @@
       <c r="C8" s="104">
         <v>1221</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="104">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>177</v>
       </c>
@@ -11136,8 +11242,11 @@
       <c r="C9" s="101" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="101" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>871</v>
       </c>
@@ -11147,8 +11256,11 @@
       <c r="C10" s="101" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="101" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
         <v>26</v>
       </c>
@@ -11158,8 +11270,11 @@
       <c r="C11" s="75" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="75" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
         <v>1174</v>
       </c>
@@ -11169,8 +11284,11 @@
       <c r="C12" s="104" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="104" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
         <v>1175</v>
       </c>
@@ -11180,8 +11298,11 @@
       <c r="C13" s="101" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="101" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
         <v>875</v>
       </c>
@@ -11191,8 +11312,11 @@
       <c r="C14" s="101" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="101" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
         <v>1177</v>
       </c>
@@ -11202,8 +11326,11 @@
       <c r="C15" s="101" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="101" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="101" t="s">
         <v>873</v>
       </c>
@@ -11213,8 +11340,11 @@
       <c r="C16" s="101" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="101" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="101" t="s">
         <v>1178</v>
       </c>
@@ -11222,6 +11352,9 @@
         <v>1179</v>
       </c>
       <c r="C17" s="104" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D17" s="104" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -11229,9 +11362,10 @@
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1"/>
     <hyperlink ref="C11" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -11245,9 +11379,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="101" width="23.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="101" width="28.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="101" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.28515625" style="101" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11313,9 +11447,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="101" width="23.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="101" width="28.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="101" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.28515625" style="101" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11393,9 +11527,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="101" width="23.85546875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="101" width="28.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" style="101" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="28.28515625" style="101" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11473,9 +11607,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="17.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="101" width="29.140625" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="29.140625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11556,9 +11690,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="17.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="101" width="39.0" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="39" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11665,9 +11799,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="17.5703125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="101" width="39.0" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="39" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11774,9 +11908,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="101" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11814,9 +11948,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="101" width="19.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="101" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11874,9 +12008,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="101" width="24.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.85546875" style="101" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11934,9 +12068,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="101" width="15.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="101" width="13.0" collapsed="true"/>
-    <col min="3" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.85546875" style="101" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" style="101" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11983,9 +12117,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="101" width="31.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.85546875" style="101" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12046,9 +12180,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="10.0" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12109,8 +12243,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="2" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12156,9 +12290,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="18.85546875" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="101" width="35.0" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="35" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12338,9 +12472,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="15.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="101" width="25.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" style="101" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12425,9 +12559,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="15.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="101" width="25.85546875" collapsed="true"/>
-    <col min="4" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" style="101" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12501,9 +12635,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="101" width="25.85546875" collapsed="true"/>
-    <col min="3" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.85546875" style="101" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12549,9 +12683,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="101" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -12589,9 +12723,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="101" width="18.28515625" collapsed="true"/>
-    <col min="3" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -12635,17 +12769,17 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+    <sheetView topLeftCell="F6" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" style="101" width="43.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" hidden="true" width="43.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="6" max="9" bestFit="true" customWidth="true" style="101" width="43.85546875" collapsed="true"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.85546875" style="101" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="43.7109375" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="9" width="43.85546875" style="101" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -12906,7 +13040,7 @@
         <v>1582</v>
       </c>
       <c r="I9" s="104" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -12935,7 +13069,7 @@
         <v>1582</v>
       </c>
       <c r="I10" s="104" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -13376,12 +13510,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="103" width="35.7109375" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="27" width="35.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="35.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="103" width="35.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="15.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" style="103" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="35" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.7109375" style="103" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -13970,11 +14104,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="101" width="32.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="101" width="57.0" collapsed="true"/>
+    <col min="1" max="1" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="101" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="57" style="101" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -14339,11 +14473,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="45" width="30.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="26.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="27" width="31.0" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="103" width="31.0" collapsed="true"/>
-    <col min="6" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="30.140625" style="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31" style="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="31" style="103" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -14655,48 +14789,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="6" max="6" style="27" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" style="27" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="18" max="18" style="27" width="9.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="22" max="22" style="27" width="9.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="26" max="26" style="27" width="9.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="30" max="30" style="27" width="9.140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="34" max="34" style="27" width="9.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="38" max="38" style="27" width="9.140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="27" width="13.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="42" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="27" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.140625" style="27" collapsed="1"/>
+    <col min="11" max="11" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.140625" style="27" collapsed="1"/>
+    <col min="19" max="19" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.140625" style="27" collapsed="1"/>
+    <col min="23" max="23" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.140625" style="27" collapsed="1"/>
+    <col min="27" max="27" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.140625" style="27" collapsed="1"/>
+    <col min="31" max="31" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.140625" style="27" collapsed="1"/>
+    <col min="35" max="35" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="9.140625" style="27" collapsed="1"/>
+    <col min="39" max="39" width="13.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
@@ -15328,10 +15462,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="39.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="27" width="23.7109375" collapsed="true"/>
-    <col min="3" max="164" customWidth="true" style="27" width="32.0" collapsed="true"/>
-    <col min="165" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="39.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" style="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="164" width="32" style="27" customWidth="1" collapsed="1"/>
+    <col min="165" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:165" x14ac:dyDescent="0.25">
@@ -15534,7 +15668,7 @@
         <v>1583</v>
       </c>
       <c r="D2" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="3" spans="1:165" x14ac:dyDescent="0.25">
@@ -15548,7 +15682,7 @@
         <v>1584</v>
       </c>
       <c r="D3" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="4" spans="1:165" x14ac:dyDescent="0.25">
@@ -15562,7 +15696,7 @@
         <v>1585</v>
       </c>
       <c r="D4" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="5" spans="1:165" x14ac:dyDescent="0.25">
@@ -15576,7 +15710,7 @@
         <v>1586</v>
       </c>
       <c r="D5" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="6" spans="1:165" x14ac:dyDescent="0.25">
@@ -15590,7 +15724,7 @@
         <v>1587</v>
       </c>
       <c r="D6" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="7" spans="1:165" x14ac:dyDescent="0.25">
@@ -15604,7 +15738,7 @@
         <v>1588</v>
       </c>
       <c r="D7" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="8" spans="1:165" x14ac:dyDescent="0.25">
@@ -16525,9 +16659,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="103" customFormat="1" x14ac:dyDescent="0.25">
@@ -16908,9 +17042,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="103" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="103" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="103" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="103" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="103" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="103" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -16983,9 +17117,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.0" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -17056,9 +17190,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="3" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="27" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -17604,7 +17738,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -17773,11 +17907,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="101" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="101" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -18104,49 +18238,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="27" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="27" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="27" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="27" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="27" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="27" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="27" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="27" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="27" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="27" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="27" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="27" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="27" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="27" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="27" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="27" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="27" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -18664,10 +18798,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -18738,11 +18872,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="101" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="101" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" style="101" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="101" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -19068,40 +19202,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -19480,7 +19614,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="12.0" collapsed="true"/>
+    <col min="2" max="2" width="12" style="27" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -20659,10 +20793,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -20733,11 +20867,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="101" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="101" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -21055,49 +21189,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="27" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" style="27" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="11" max="11" style="27" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="27" width="6.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" style="27" width="9.140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="23" max="23" style="27" width="9.140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="27" max="27" style="27" width="9.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="31" max="31" style="27" width="9.140625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="35" max="35" style="27" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="27" width="12.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="27" width="13.28515625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" style="27" width="10.7109375" collapsed="true"/>
-    <col min="39" max="39" style="27" width="9.140625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="27" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" style="27" width="14.28515625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="43" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="27" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="27" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.85546875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.140625" style="27" collapsed="1"/>
+    <col min="20" max="20" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.140625" style="27" collapsed="1"/>
+    <col min="24" max="24" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.140625" style="27" collapsed="1"/>
+    <col min="28" max="28" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.140625" style="27" collapsed="1"/>
+    <col min="32" max="32" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.140625" style="27" collapsed="1"/>
+    <col min="36" max="36" width="12.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="13.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="10.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.140625" style="27" collapsed="1"/>
+    <col min="40" max="40" width="13.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
@@ -21615,10 +21749,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="6.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="27" width="11.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="27" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.28515625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="27" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -21683,12 +21817,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="101" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="101" width="34.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="101" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="101" width="32.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="101" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" style="101" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34" style="101" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" style="101" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.28515625" style="101" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="101" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -22017,49 +22151,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="103" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true